--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="222">
   <si>
     <t>Catalog</t>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nginx-ingress-0.28.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,10 +324,6 @@
   </si>
   <si>
     <t>Secret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prometheus-8.4.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,10 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nginx-ingress-0.28.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mongo-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,10 +514,6 @@
   </si>
   <si>
     <t>UserManual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>es-rmm-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -869,13 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. RabbitMQ queue size/length (Alex)
-size : 28/7=4G=4294967269
-length=4294967269/1000=4294967
-192.168.11.6:15672</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/@dvant1cH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,10 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RBAC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,6 +919,96 @@
   </si>
   <si>
     <t>1.IPChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es-rmm-1.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter-0.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubeflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User-Defined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RabbitMQ queue size/length
+size : ?
+Length : ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RabbitMQ queue size/length (Alex)
+size : 28/7=4G=4294967269
+length : 4294967269/1000=4294967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prometheus-8.4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana v6.0 or newer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pod/Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. specify over the resources (memory/cpu)
+2. no gpu but specifing it will suspend
+3. A user - 1 cpu/ 1G mem/ 10G pv
+4.  a user multi-models
+5. multi-user multi models
+6 a user a pod/ a model a pod/ a inference a pod
+7. apps could use ip+port to inference (pure NodePort, not through nginx??)
+8. users create inferences on their own. (provide a template/ specify model_path &amp; model_name &amp; pv)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +1016,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1036,6 +1099,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1093,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1225,12 +1296,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1349,6 +1448,12 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,25 +1490,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1736,7 +1862,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -1767,15 +1893,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1789,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1833,76 +1959,74 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="42">
-        <v>1</v>
-      </c>
+      <c r="K2" s="15"/>
       <c r="L2" s="15">
         <v>0</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -1912,7 +2036,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -1922,50 +2046,52 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="49"/>
+      <c r="K3" s="44">
+        <v>1</v>
+      </c>
       <c r="L3" s="15">
         <v>0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="45"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -1978,8 +2104,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1988,13 +2114,13 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -2005,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2038,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -2048,33 +2174,33 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2">
         <v>6</v>
@@ -2083,47 +2209,47 @@
         <v>1024</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2">
         <v>0.5</v>
@@ -2132,23 +2258,23 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2156,25 +2282,25 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2">
         <v>6</v>
@@ -2183,53 +2309,53 @@
         <v>32</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="18">
         <v>0.25</v>
@@ -2238,51 +2364,51 @@
         <v>10</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="18">
         <v>0.1</v>
@@ -2291,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -2303,31 +2429,31 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>140</v>
-      </c>
       <c r="E12" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="18">
         <v>0.1</v>
@@ -2336,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
@@ -2348,43 +2474,43 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="39" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2393,41 +2519,41 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2436,43 +2562,43 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -2481,31 +2607,31 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2">
         <v>1.538</v>
@@ -2514,53 +2640,53 @@
         <v>256</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2">
         <v>0.128</v>
@@ -2569,27 +2695,27 @@
         <v>10</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -2597,25 +2723,25 @@
         <v>26</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -2624,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -2634,33 +2760,33 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2">
         <v>0.5</v>
@@ -2669,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
@@ -2681,33 +2807,33 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>130</v>
+        <v>44</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>202</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="2">
         <v>2</v>
@@ -2716,45 +2842,45 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+        <v>45</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -2763,39 +2889,39 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="2">
         <v>0.5</v>
@@ -2804,27 +2930,27 @@
         <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R22" s="19"/>
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>202</v>
+      <c r="A23" s="42"/>
+      <c r="B23" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2832,7 +2958,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="15">
         <v>0</v>
@@ -2840,28 +2966,28 @@
       <c r="L23" s="15">
         <v>0</v>
       </c>
-      <c r="M23" s="38" t="s">
-        <v>201</v>
+      <c r="M23" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2869,7 +2995,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
@@ -2878,21 +3004,21 @@
         <v>0</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2912,11 +3038,11 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="E20:E22"/>
-    <mergeCell ref="K2:K4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2932,15 +3058,1394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="72.375" style="11" customWidth="1"/>
+    <col min="7" max="9" width="37.25" style="11" customWidth="1"/>
+    <col min="10" max="11" width="21.375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="11" customWidth="1"/>
+    <col min="14" max="16" width="18.625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="16" style="11" customWidth="1"/>
+    <col min="18" max="18" width="132.375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="54.75" style="11" customWidth="1"/>
+    <col min="20" max="20" width="71.5" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+    </row>
+    <row r="3" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="66">
+        <v>2</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="41"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="61">
+        <v>2</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="T7" s="41"/>
+    </row>
+    <row r="8" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" s="41"/>
+    </row>
+    <row r="9" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="41"/>
+    </row>
+    <row r="10" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+    </row>
+    <row r="12" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+    </row>
+    <row r="13" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+    </row>
+    <row r="14" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+    </row>
+    <row r="15" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+    </row>
+    <row r="16" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="41"/>
+      <c r="S16" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="T16" s="41"/>
+    </row>
+    <row r="17" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+    </row>
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="64"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+    </row>
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+    </row>
+    <row r="24" spans="1:20" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+    </row>
+    <row r="27" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="S27" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="T27" s="41"/>
+    </row>
+    <row r="28" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="L29" s="2">
+        <f>SUM(L5:L28)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <f>SUM(M2:M28)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B27:B28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="R8" r:id="rId1"/>
+    <hyperlink ref="S8" r:id="rId2"/>
+    <hyperlink ref="S9" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2969,51 +4474,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -3021,203 +4526,203 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="50" t="s">
-        <v>90</v>
+      <c r="A5" s="42"/>
+      <c r="B5" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="50" t="s">
-        <v>146</v>
+      <c r="A16" s="42"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42" t="s">
-        <v>92</v>
+      <c r="A20" s="42"/>
+      <c r="B20" s="44" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3225,62 +4730,62 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42" t="s">
-        <v>94</v>
+      <c r="A24" s="42"/>
+      <c r="B24" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3289,104 +4794,104 @@
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="42" t="s">
-        <v>91</v>
+      <c r="A32" s="46"/>
+      <c r="B32" s="44" t="s">
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50" t="s">
-        <v>107</v>
+      <c r="A34" s="46"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="51"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="55" t="s">
-        <v>108</v>
+      <c r="A36" s="46"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="54" t="s">
+        <v>106</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3394,9 +4899,9 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3404,41 +4909,41 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="42" t="s">
-        <v>95</v>
+      <c r="A40" s="46"/>
+      <c r="B40" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3446,11 +4951,11 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>172</v>
+      <c r="A44" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3458,9 +4963,9 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3468,9 +4973,9 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3479,7 +4984,7 @@
     </row>
     <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="16"/>
@@ -3492,12 +4997,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -3507,6 +5006,12 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3538,54 +5043,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C5" s="37" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3624,38 +5129,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -3694,56 +5199,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>187</v>
+      <c r="A2" s="60" t="s">
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="226">
   <si>
     <t>Catalog</t>
   </si>
@@ -973,12 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. RabbitMQ queue size/length
-size : ?
-Length : ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. RabbitMQ queue size/length (Alex)
 size : 28/7=4G=4294967269
 length : 4294967269/1000=4294967</t>
@@ -998,6 +992,21 @@
   </si>
   <si>
     <t>Pod/Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. memory scaling
+2. pv scaling
+3. on new node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. pv scaling
+2. on new node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. CRUSH Map -two hosts - four osds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1008,7 +1017,16 @@
 5. multi-user multi models
 6 a user a pod/ a model a pod/ a inference a pod
 7. apps could use ip+port to inference (pure NodePort, not through nginx??)
-8. users create inferences on their own. (provide a template/ specify model_path &amp; model_name &amp; pv)</t>
+8. users create inferences on their own. (provide a template/ specify model_path &amp; model_name &amp; pv)
+9. on which node??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. pod scaling ?? (Need Testing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/@dvant1cH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2158,7 @@
         <v>163</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2321,7 +2339,7 @@
         <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>186</v>
@@ -2613,10 +2631,10 @@
         <v>24</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>156</v>
@@ -2634,7 +2652,7 @@
         <v>66</v>
       </c>
       <c r="K16" s="2">
-        <v>1.538</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="L16" s="2">
         <v>256</v>
@@ -2723,10 +2741,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>77</v>
@@ -3025,7 +3043,7 @@
       <c r="A25" s="13"/>
       <c r="K25" s="2">
         <f>SUM(K5:K24)</f>
-        <v>22.616</v>
+        <v>23.116</v>
       </c>
       <c r="L25" s="2">
         <f>SUM(L2:L24)</f>
@@ -3060,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3116,7 +3134,7 @@
         <v>65</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L1" s="63" t="s">
         <v>35</v>
@@ -3293,7 +3311,7 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="41" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>187</v>
@@ -3330,7 +3348,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="44" t="s">
         <v>4</v>
@@ -3377,14 +3395,14 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="41" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="S7" s="41" t="s">
         <v>185</v>
       </c>
       <c r="T7" s="41"/>
     </row>
-    <row r="8" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="45"/>
       <c r="C8" s="2" t="s">
@@ -3428,8 +3446,8 @@
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="29" t="s">
-        <v>184</v>
+      <c r="R8" s="41" t="s">
+        <v>221</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>184</v>
@@ -3487,7 +3505,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="S9" s="34" t="s">
         <v>186</v>
@@ -3797,10 +3815,10 @@
         <v>24</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>156</v>
@@ -3909,10 +3927,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>77</v>
@@ -4132,11 +4150,13 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="64"/>
+      <c r="R22" s="64" t="s">
+        <v>224</v>
+      </c>
       <c r="S22" s="41"/>
       <c r="T22" s="41"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="44" t="s">
         <v>211</v>
@@ -4181,12 +4201,12 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
     </row>
-    <row r="24" spans="1:20" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="47"/>
       <c r="C24" s="2" t="s">
@@ -4277,7 +4297,7 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S25" s="41"/>
       <c r="T25" s="41"/>
@@ -4441,10 +4461,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R8" r:id="rId1"/>
-    <hyperlink ref="S8" r:id="rId2"/>
-    <hyperlink ref="S9" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S8" r:id="rId1"/>
+    <hyperlink ref="S9" r:id="rId2"/>
+    <hyperlink ref="S5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="230">
   <si>
     <t>Catalog</t>
   </si>
@@ -304,10 +304,6 @@
   </si>
   <si>
     <t>Private Registry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcr.io/google-containers/hyperkube:v1.11.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -882,10 +878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mongo-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ceph-Exporter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,9 +932,6 @@
   <si>
     <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
   <si>
     <t>TODO</t>
@@ -1029,12 +1018,40 @@
     <t>ecgwc/@dvant1cH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Ceph </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prometheus-8.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/mongodb-exporter:v0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO (Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB-Exporter-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/hyperkube-amd64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1124,6 +1141,14 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1347,7 +1372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1541,13 +1566,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1880,7 +1923,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,7 +1937,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -1911,15 +1954,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1933,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L16" sqref="A1:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1968,7 +2011,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1983,7 +2026,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>65</v>
@@ -2013,7 +2056,7 @@
         <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2021,15 +2064,15 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -2064,7 +2107,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -2088,7 +2131,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2103,7 +2146,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2127,12 +2170,12 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -2143,7 +2186,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="15">
         <v>0</v>
@@ -2155,10 +2198,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2200,13 +2243,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
@@ -2235,10 +2278,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2249,13 +2292,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>41</v>
@@ -2284,10 +2327,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2300,13 +2343,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>41</v>
@@ -2339,10 +2382,10 @@
         <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2355,13 +2398,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -2396,7 +2439,7 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,16 +2448,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -2450,16 +2493,16 @@
       <c r="A12" s="42"/>
       <c r="B12" s="46"/>
       <c r="C12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -2494,41 +2537,41 @@
     <row r="13" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>194</v>
+      <c r="C13" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="38" t="s">
-        <v>194</v>
+      <c r="K13" s="18">
+        <v>0.2</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>194</v>
+        <v>226</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2540,38 +2583,40 @@
       <c r="A14" s="42"/>
       <c r="B14" s="46"/>
       <c r="C14" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
       <c r="M14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2583,40 +2628,40 @@
       <c r="A15" s="42"/>
       <c r="B15" s="46"/>
       <c r="C15" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -2631,13 +2676,13 @@
         <v>24</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -2670,10 +2715,10 @@
         <v>41</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S16" s="21"/>
     </row>
@@ -2686,13 +2731,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>41</v>
@@ -2725,11 +2770,11 @@
         <v>41</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2741,13 +2786,13 @@
         <v>26</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -2786,13 +2831,13 @@
         <v>32</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>41</v>
@@ -2833,13 +2878,13 @@
         <v>44</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -2872,7 +2917,7 @@
         <v>41</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -2886,7 +2931,7 @@
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -2913,7 +2958,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -2927,7 +2972,7 @@
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
       <c r="F22" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>41</v>
@@ -2954,7 +2999,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R22" s="19"/>
       <c r="S22" s="21"/>
@@ -2962,13 +3007,13 @@
     <row r="23" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2991,10 +3036,10 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -3002,10 +3047,10 @@
       <c r="A24" s="43"/>
       <c r="B24" s="45"/>
       <c r="C24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -3013,7 +3058,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
@@ -3025,25 +3070,25 @@
         <v>41</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="K25" s="2">
         <f>SUM(K5:K24)</f>
-        <v>23.116</v>
+        <v>22.315999999999999</v>
       </c>
       <c r="L25" s="2">
         <f>SUM(L2:L24)</f>
@@ -3078,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3113,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -3128,13 +3173,13 @@
         <v>73</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L1" s="63" t="s">
         <v>35</v>
@@ -3161,7 +3206,7 @@
         <v>39</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,15 +3214,15 @@
         <v>19</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -3188,7 +3233,9 @@
       <c r="I2" s="15"/>
       <c r="J2" s="62"/>
       <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="L2" s="62">
+        <v>0</v>
+      </c>
       <c r="M2" s="15">
         <v>0</v>
       </c>
@@ -3213,7 +3260,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -3223,11 +3270,11 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="62"/>
-      <c r="K3" s="66">
+      <c r="K3" s="65">
         <v>2</v>
       </c>
-      <c r="L3" s="67" t="s">
-        <v>207</v>
+      <c r="L3" s="66">
+        <v>1</v>
       </c>
       <c r="M3" s="15">
         <v>0</v>
@@ -3240,7 +3287,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="41"/>
       <c r="S3" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T3" s="41"/>
     </row>
@@ -3255,14 +3302,14 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
-      <c r="L4" s="47"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="15">
         <v>0</v>
       </c>
@@ -3285,7 +3332,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -3298,8 +3345,8 @@
       <c r="K5" s="61">
         <v>2</v>
       </c>
-      <c r="L5" s="65" t="s">
-        <v>208</v>
+      <c r="L5" s="61">
+        <v>5</v>
       </c>
       <c r="M5" s="15">
         <v>0</v>
@@ -3311,10 +3358,10 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T5" s="2"/>
     </row>
@@ -3357,13 +3404,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
@@ -3378,13 +3425,13 @@
         <v>67</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>41</v>
@@ -3395,10 +3442,10 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S7" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T7" s="41"/>
     </row>
@@ -3409,13 +3456,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>41</v>
@@ -3430,13 +3477,13 @@
         <v>67</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>41</v>
@@ -3447,10 +3494,10 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T8" s="41"/>
     </row>
@@ -3463,13 +3510,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>41</v>
@@ -3484,13 +3531,13 @@
         <v>67</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>41</v>
@@ -3505,10 +3552,10 @@
         <v>41</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T9" s="41"/>
     </row>
@@ -3521,13 +3568,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -3542,13 +3589,13 @@
         <v>67</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>41</v>
@@ -3565,7 +3612,7 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3574,16 +3621,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -3598,10 +3645,10 @@
         <v>66</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -3622,16 +3669,16 @@
       <c r="A12" s="42"/>
       <c r="B12" s="46"/>
       <c r="C12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -3646,10 +3693,10 @@
         <v>66</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M12" s="15">
         <v>0</v>
@@ -3670,89 +3717,90 @@
       <c r="A13" s="42"/>
       <c r="B13" s="46"/>
       <c r="C13" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>194</v>
+        <v>227</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>194</v>
+      <c r="K13" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>194</v>
+        <v>226</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="46"/>
       <c r="C14" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="M14" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
       <c r="N14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -3764,43 +3812,43 @@
       <c r="A15" s="42"/>
       <c r="B15" s="46"/>
       <c r="C15" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -3815,13 +3863,13 @@
         <v>24</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -3836,13 +3884,13 @@
         <v>66</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>41</v>
@@ -3858,7 +3906,7 @@
       </c>
       <c r="R16" s="41"/>
       <c r="S16" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T16" s="41"/>
     </row>
@@ -3871,13 +3919,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>41</v>
@@ -3892,13 +3940,13 @@
         <v>66</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>41</v>
@@ -3915,7 +3963,7 @@
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
       <c r="T17" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3927,13 +3975,13 @@
         <v>26</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -3948,10 +3996,10 @@
         <v>68</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -3975,13 +4023,13 @@
         <v>32</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>41</v>
@@ -3996,10 +4044,10 @@
         <v>68</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -4025,13 +4073,13 @@
         <v>44</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -4046,10 +4094,10 @@
         <v>67</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
@@ -4079,7 +4127,7 @@
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -4094,10 +4142,10 @@
         <v>67</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -4121,7 +4169,7 @@
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
       <c r="F22" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>41</v>
@@ -4136,10 +4184,10 @@
         <v>67</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M22" s="15">
         <v>0</v>
@@ -4151,103 +4199,103 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S22" s="41"/>
       <c r="T22" s="41"/>
     </row>
-    <row r="23" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="69" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
-      <c r="B23" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23" s="38" t="s">
+      <c r="B23" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="C23" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
       <c r="R23" s="44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
     </row>
-    <row r="24" spans="1:20" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="69" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="M24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
       <c r="T24" s="47"/>
@@ -4255,49 +4303,49 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="41" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S25" s="41"/>
       <c r="T25" s="41"/>
@@ -4305,43 +4353,43 @@
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N26" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -4353,13 +4401,13 @@
     <row r="27" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -4383,10 +4431,10 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S27" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T27" s="41"/>
     </row>
@@ -4394,10 +4442,10 @@
       <c r="A28" s="43"/>
       <c r="B28" s="45"/>
       <c r="C28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -4405,7 +4453,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="15">
@@ -4418,25 +4466,25 @@
         <v>41</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R28" s="41"/>
       <c r="S28" s="41"/>
       <c r="T28" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="L29" s="2">
-        <f>SUM(L5:L28)</f>
-        <v>0</v>
+        <f>SUM(L2:L28)</f>
+        <v>6</v>
       </c>
       <c r="M29" s="2">
         <f>SUM(M2:M28)</f>
@@ -4466,6 +4514,7 @@
     <hyperlink ref="S5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4510,7 +4559,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>51</v>
@@ -4537,7 +4586,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4547,14 +4596,14 @@
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="B5" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -4562,7 +4611,7 @@
       <c r="A6" s="42"/>
       <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -4574,7 +4623,7 @@
       <c r="A7" s="42"/>
       <c r="B7" s="53"/>
       <c r="C7" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -4624,7 +4673,7 @@
       <c r="A13" s="42"/>
       <c r="B13" s="53"/>
       <c r="C13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4643,14 +4692,14 @@
         <v>57</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4660,7 +4709,7 @@
       <c r="A16" s="42"/>
       <c r="B16" s="53"/>
       <c r="C16" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>54</v>
@@ -4697,10 +4746,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -4709,7 +4758,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>61</v>
@@ -4741,7 +4790,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4751,10 +4800,10 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4764,7 +4813,7 @@
       <c r="A25" s="42"/>
       <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4774,7 +4823,7 @@
       <c r="A26" s="42"/>
       <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4793,18 +4842,18 @@
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4813,7 +4862,7 @@
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>51</v>
@@ -4831,21 +4880,21 @@
         <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4855,7 +4904,7 @@
       <c r="A33" s="46"/>
       <c r="B33" s="51"/>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4865,7 +4914,7 @@
       <c r="A34" s="46"/>
       <c r="B34" s="51"/>
       <c r="C34" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>56</v>
@@ -4887,7 +4936,7 @@
       <c r="A36" s="46"/>
       <c r="B36" s="51"/>
       <c r="C36" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>56</v>
@@ -4900,17 +4949,17 @@
       <c r="B37" s="47"/>
       <c r="C37" s="55"/>
       <c r="D37" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="46"/>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4920,7 +4969,7 @@
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4930,7 +4979,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>63</v>
@@ -4943,7 +4992,7 @@
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4953,7 +5002,7 @@
       <c r="A42" s="46"/>
       <c r="B42" s="47"/>
       <c r="C42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4962,7 +5011,7 @@
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
       <c r="B43" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4971,10 +5020,10 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4984,7 +5033,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4994,7 +5043,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5062,54 +5111,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C5" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5148,38 +5197,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5218,24 +5267,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5243,13 +5292,13 @@
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5258,16 +5307,16 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="235">
   <si>
     <t>Catalog</t>
   </si>
@@ -335,10 +335,6 @@
   </si>
   <si>
     <t>minio-2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana-1.14.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -886,10 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AlertManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RBAC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,6 +943,10 @@
   </si>
   <si>
     <t>0.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -972,15 +968,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prometheus-8.4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grafana v6.0 or newer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pod/Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1043,7 +1031,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ecgwc/hyperkube-amd64</t>
+    <t>Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/hyperkube-amd64:v1.11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s-n2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s-m1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana-1.14.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. keep more data on a longer period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s-m1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1200,14 +1220,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1354,25 +1368,12 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1488,9 +1489,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1565,9 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1923,7 +1918,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,7 +1932,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -1954,15 +1949,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1974,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L16" sqref="A1:S25"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2056,23 +2051,23 @@
         <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -2097,7 +2092,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2107,7 +2102,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -2117,7 +2112,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2131,12 +2126,12 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2146,13 +2141,13 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="47"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2165,17 +2160,17 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -2198,16 +2193,16 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2235,21 +2230,21 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
@@ -2266,11 +2261,11 @@
       <c r="K7" s="2">
         <v>6</v>
       </c>
-      <c r="L7" s="2">
-        <v>1024</v>
+      <c r="L7" s="38">
+        <v>1280</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>41</v>
@@ -2278,24 +2273,24 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -2313,13 +2308,13 @@
         <v>67</v>
       </c>
       <c r="K8" s="2">
-        <v>0.5</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L8" s="2">
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>41</v>
@@ -2327,15 +2322,15 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2343,10 +2338,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -2382,15 +2377,15 @@
         <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -2419,7 +2414,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="18">
-        <v>0.25</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L10" s="2">
         <v>10</v>
@@ -2439,25 +2434,25 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -2472,7 +2467,7 @@
         <v>66</v>
       </c>
       <c r="K11" s="18">
-        <v>0.1</v>
+        <v>0.128</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -2490,19 +2485,19 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -2517,7 +2512,7 @@
         <v>66</v>
       </c>
       <c r="K12" s="18">
-        <v>0.1</v>
+        <v>0.128</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -2535,19 +2530,19 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="61" t="s">
-        <v>227</v>
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="60" t="s">
+        <v>224</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="61" t="s">
         <v>225</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>222</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -2562,13 +2557,13 @@
         <v>66</v>
       </c>
       <c r="K13" s="18">
-        <v>0.2</v>
+        <v>0.192</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>41</v>
@@ -2580,43 +2575,43 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="39" t="s">
-        <v>193</v>
+      <c r="A14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2624,65 +2619,75 @@
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
       <c r="B15" s="46"/>
       <c r="C15" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-    </row>
-    <row r="16" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="47"/>
+      <c r="K15" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>256</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="18" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -2697,10 +2702,10 @@
         <v>66</v>
       </c>
       <c r="K16" s="2">
-        <v>2.0379999999999998</v>
+        <v>0.128</v>
       </c>
       <c r="L16" s="2">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>41</v>
@@ -2714,30 +2719,30 @@
       <c r="P16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="R16" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
       <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>83</v>
+        <v>212</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>41</v>
@@ -2749,50 +2754,40 @@
         <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L17" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -2807,7 +2802,7 @@
         <v>68</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -2815,29 +2810,31 @@
       <c r="M18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="15"/>
+      <c r="N18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="51" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>195</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>41</v>
@@ -2849,10 +2846,10 @@
         <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -2860,31 +2857,31 @@
       <c r="M19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="17"/>
+      <c r="N19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>173</v>
+      </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="52" t="s">
-        <v>7</v>
-      </c>
+      <c r="A20" s="41"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>200</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -2899,7 +2896,7 @@
         <v>67</v>
       </c>
       <c r="K20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2907,31 +2904,25 @@
       <c r="M20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -2946,7 +2937,7 @@
         <v>67</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
@@ -2958,36 +2949,32 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>41</v>
-      </c>
+    <row r="22" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="2">
-        <v>0.5</v>
+      <c r="K22" s="15">
+        <v>0</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -2998,22 +2985,22 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="R22" s="19"/>
+      <c r="Q22" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>197</v>
+      </c>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
-      <c r="B23" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>194</v>
+      <c r="B23" s="44"/>
+      <c r="C23" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -3021,7 +3008,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="K23" s="15">
         <v>0</v>
@@ -3032,79 +3019,42 @@
       <c r="M23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="R23" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="S23" s="21"/>
-    </row>
-    <row r="24" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="14" t="s">
+      <c r="N23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="14" t="s">
+      <c r="O23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="K25" s="2">
-        <f>SUM(K5:K24)</f>
-        <v>22.315999999999999</v>
-      </c>
-      <c r="L25" s="2">
-        <f>SUM(L2:L24)</f>
-        <v>1340</v>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="K24" s="2">
+        <f>SUM(K5:K23)</f>
+        <v>22.406000000000002</v>
+      </c>
+      <c r="L24" s="2">
+        <f>SUM(L2:L23)</f>
+        <v>1596</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3121,10 +3071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3136,18 +3086,18 @@
     <col min="5" max="5" width="34.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="72.375" style="11" customWidth="1"/>
     <col min="7" max="9" width="37.25" style="11" customWidth="1"/>
-    <col min="10" max="11" width="21.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="11" customWidth="1"/>
-    <col min="14" max="16" width="18.625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="16" style="11" customWidth="1"/>
-    <col min="18" max="18" width="132.375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="54.75" style="11" customWidth="1"/>
-    <col min="20" max="20" width="71.5" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="11"/>
+    <col min="10" max="12" width="21.375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="26.75" style="11" customWidth="1"/>
+    <col min="15" max="17" width="18.625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="16" style="11" customWidth="1"/>
+    <col min="19" max="19" width="132.375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="54.75" style="11" customWidth="1"/>
+    <col min="21" max="21" width="71.5" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3178,51 +3128,54 @@
       <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="63" t="s">
+      <c r="K1" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -3231,27 +3184,30 @@
         <v>41</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61">
         <v>0</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="61">
         <v>0</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="15"/>
+      <c r="N2" s="15">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-    </row>
-    <row r="3" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="41" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+    </row>
+    <row r="3" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3260,7 +3216,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -3269,31 +3225,32 @@
         <v>41</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="65">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61">
+        <v>1</v>
+      </c>
+      <c r="M3" s="64">
         <v>2</v>
       </c>
-      <c r="L3" s="66">
-        <v>1</v>
-      </c>
-      <c r="M3" s="15">
+      <c r="N3" s="15">
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="15"/>
+      <c r="O3" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="T3" s="41"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="41" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" s="40"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3302,37 +3259,40 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="15">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61">
         <v>0</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="52" t="s">
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -3342,33 +3302,34 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="61">
-        <v>2</v>
-      </c>
+      <c r="K5" s="61"/>
       <c r="L5" s="61">
-        <v>5</v>
-      </c>
-      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="60">
+        <v>4</v>
+      </c>
+      <c r="N5" s="15">
         <v>0</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="15"/>
+      <c r="O5" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="41" t="s">
+      <c r="R5" s="15"/>
+      <c r="S5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="15"/>
@@ -3385,34 +3346,37 @@
       <c r="M6" s="15">
         <v>0</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="15"/>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="44" t="s">
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="60" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -3424,42 +3388,45 @@
       <c r="J7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>41</v>
+      <c r="K7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="60">
+        <v>1</v>
+      </c>
+      <c r="M7" s="60">
+        <v>12</v>
+      </c>
+      <c r="N7" s="60">
+        <v>2816</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="15"/>
+      <c r="P7" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="T7" s="41"/>
-    </row>
-    <row r="8" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -3476,44 +3443,47 @@
       <c r="J8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>41</v>
+      <c r="K8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="60">
+        <v>1</v>
+      </c>
+      <c r="M8" s="60">
+        <v>1</v>
+      </c>
+      <c r="N8" s="60">
+        <v>16</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="15"/>
+      <c r="P8" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="T8" s="41"/>
-    </row>
-    <row r="9" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="41" t="s">
+      <c r="R8" s="15"/>
+      <c r="S8" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="U8" s="40"/>
+    </row>
+    <row r="9" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -3530,17 +3500,17 @@
       <c r="J9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>41</v>
+      <c r="K9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="60">
+        <v>1</v>
+      </c>
+      <c r="M9" s="60">
+        <v>12</v>
+      </c>
+      <c r="N9" s="60">
+        <v>128</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>41</v>
@@ -3551,17 +3521,20 @@
       <c r="Q9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="T9" s="41"/>
-    </row>
-    <row r="10" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="41" t="s">
+      <c r="R9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="U9" s="40"/>
+    </row>
+    <row r="10" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3574,7 +3547,7 @@
         <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -3588,17 +3561,17 @@
       <c r="J10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>41</v>
+      <c r="K10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L10" s="60">
+        <v>1</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="N10" s="60">
+        <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>41</v>
@@ -3609,28 +3582,31 @@
       <c r="Q10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="44" t="s">
+      <c r="R10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -3644,41 +3620,44 @@
       <c r="J11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M11" s="15">
+      <c r="K11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="60">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0.128</v>
+      </c>
+      <c r="N11" s="15">
         <v>0</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="O11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="15"/>
+      <c r="P11" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="Q11" s="15"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-    </row>
-    <row r="12" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="46"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+    </row>
+    <row r="12" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -3692,41 +3671,44 @@
       <c r="J12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M12" s="15">
+      <c r="K12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="60">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0.128</v>
+      </c>
+      <c r="N12" s="15">
         <v>0</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="O12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="15"/>
+      <c r="P12" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="Q12" s="15"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-    </row>
-    <row r="13" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="61" t="s">
-        <v>227</v>
+      <c r="R12" s="15"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="60" t="s">
+        <v>224</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="61" t="s">
         <v>225</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>222</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -3740,136 +3722,155 @@
       <c r="J13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="K13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="60">
+        <v>1</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="N13" s="15">
         <v>0</v>
       </c>
-      <c r="M13" s="15">
+      <c r="O13" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="N13" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-    </row>
-    <row r="14" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="M14" s="15">
-        <v>0</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>192</v>
-      </c>
       <c r="O14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="P14" s="15"/>
+        <v>191</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="Q14" s="15"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-    </row>
-    <row r="15" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
       <c r="B15" s="46"/>
       <c r="C15" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-    </row>
-    <row r="16" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="47"/>
+      <c r="K15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L15" s="60">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="N15" s="2">
+        <v>512</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="18" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -3883,17 +3884,17 @@
       <c r="J16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M16" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>41</v>
+      <c r="K16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="60">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="N16" s="60">
+        <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>41</v>
@@ -3904,28 +3905,31 @@
       <c r="Q16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="41"/>
-      <c r="S16" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="T16" s="41"/>
-    </row>
-    <row r="17" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>46</v>
+      <c r="R16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>83</v>
+        <v>212</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>41</v>
@@ -3937,51 +3941,46 @@
         <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="60">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="41" t="s">
-        <v>8</v>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -3995,91 +3994,97 @@
       <c r="J18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M18" s="15">
+      <c r="K18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L18" s="60">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="N18" s="15">
         <v>0</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="O18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="Q18" s="15"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41" t="s">
-        <v>31</v>
+      <c r="R18" s="15"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="51" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L19" s="60">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="63"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-    </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -4093,41 +4098,38 @@
       <c r="J20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" s="15">
+      <c r="K20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="60">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="15">
         <v>0</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="O20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" s="64"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="53"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -4141,273 +4143,279 @@
       <c r="J21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M21" s="15">
+      <c r="K21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L21" s="60">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="N21" s="15">
         <v>0</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="15"/>
+      <c r="O21" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-    </row>
-    <row r="23" spans="1:20" s="69" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="71" t="s">
-        <v>208</v>
-      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+    </row>
+    <row r="22" spans="1:21" s="67" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+    </row>
+    <row r="23" spans="1:21" s="67" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="67" t="s">
+      <c r="D23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="N23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="M23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="N23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-    </row>
-    <row r="24" spans="1:20" s="69" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="N24" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="40" t="s">
-        <v>206</v>
+      <c r="D24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>200</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M25" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N25" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="O25" s="15"/>
+        <v>203</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="38" t="s">
+        <v>203</v>
+      </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-    </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="N26" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="O26" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+    </row>
+    <row r="26" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-    </row>
-    <row r="27" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="15"/>
+      <c r="S26" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="T26" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="U26" s="40"/>
+    </row>
+    <row r="27" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
-      <c r="B27" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>194</v>
+      <c r="B27" s="44"/>
+      <c r="C27" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -4415,103 +4423,68 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="K27" s="15"/>
       <c r="L27" s="15">
         <v>0</v>
       </c>
       <c r="M27" s="15">
         <v>0</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="S27" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="T27" s="41"/>
-    </row>
-    <row r="28" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="15">
+      <c r="N27" s="15">
         <v>0</v>
       </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O28" s="14" t="s">
+      <c r="O27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="Q27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q28" s="14" t="s">
+      <c r="R27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="L29" s="2">
-        <f>SUM(L2:L28)</f>
-        <v>6</v>
-      </c>
-      <c r="M29" s="2">
-        <f>SUM(M2:M28)</f>
-        <v>0</v>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="M28" s="2">
+        <f>SUMPRODUCT(L2:L27,M2:M27)</f>
+        <v>39.893999999999998</v>
+      </c>
+      <c r="N28" s="2">
+        <f>SUM(N2:N27)</f>
+        <v>3512</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="A2:A27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S8" r:id="rId1"/>
-    <hyperlink ref="S9" r:id="rId2"/>
-    <hyperlink ref="S5" r:id="rId3"/>
+    <hyperlink ref="T8" r:id="rId1"/>
+    <hyperlink ref="T9" r:id="rId2"/>
+    <hyperlink ref="T5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -4558,8 +4531,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>125</v>
+      <c r="A2" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>51</v>
@@ -4572,7 +4545,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
@@ -4584,9 +4557,9 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4594,24 +4567,24 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="52" t="s">
-        <v>87</v>
+      <c r="A5" s="41"/>
+      <c r="B5" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -4620,68 +4593,68 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="26" t="s">
         <v>58</v>
       </c>
@@ -4692,24 +4665,24 @@
         <v>57</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="52" t="s">
-        <v>141</v>
+      <c r="A16" s="41"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51" t="s">
+        <v>140</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>54</v>
@@ -4720,9 +4693,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
@@ -4732,9 +4705,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
@@ -4744,21 +4717,21 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="44" t="s">
-        <v>89</v>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>61</v>
@@ -4768,8 +4741,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
@@ -4778,8 +4751,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
@@ -4788,9 +4761,9 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4798,40 +4771,40 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="44" t="s">
-        <v>91</v>
+      <c r="A24" s="41"/>
+      <c r="B24" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
@@ -4840,20 +4813,20 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4861,8 +4834,8 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
-        <v>97</v>
+      <c r="A30" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>51</v>
@@ -4875,46 +4848,46 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="44" t="s">
-        <v>88</v>
+      <c r="A32" s="45"/>
+      <c r="B32" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52" t="s">
-        <v>104</v>
+      <c r="A34" s="45"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>56</v>
@@ -4923,9 +4896,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="53"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="21" t="s">
         <v>46</v>
       </c>
@@ -4933,10 +4906,10 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="54" t="s">
-        <v>105</v>
+      <c r="A36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>56</v>
@@ -4945,21 +4918,21 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4967,9 +4940,9 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4977,9 +4950,9 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="44" t="s">
-        <v>92</v>
+      <c r="A40" s="45"/>
+      <c r="B40" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>63</v>
@@ -4989,29 +4962,29 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5019,11 +4992,11 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
-        <v>167</v>
+      <c r="A44" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5031,9 +5004,9 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5041,9 +5014,9 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5111,54 +5084,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C5" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5197,38 +5170,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5267,56 +5240,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="242">
   <si>
     <t>Catalog</t>
   </si>
@@ -326,15 +326,7 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>minio-2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minio-2.3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -558,12 +550,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ghost
-2. Testing PV Scaling
-3. Change IP test (Terry)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,10 +735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. reboot test (Terry)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/kubernetes/perf-tests</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,10 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>es-rmm-1.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LDAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -955,16 +933,6 @@
   </si>
   <si>
     <t>User-Defined</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. RabbitMQ queue size/length (Alex)
-size : 28/7=4G=4294967269
-length : 4294967269/1000=4294967</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1064,6 +1032,72 @@
   </si>
   <si>
     <t>k8s-m1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RabbitMQ queue size/length
+size : 28/7=4G=4294967269
+length : 4294967269/1000=4294967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ghost
+2. Kubernetes Dashboard
+3. change IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ghost
+2. Kubernetes Dashboard (kubeconfig)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. reboot test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio-2.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. memory scaling
+2. pv scaling
+3. on new node
+4. RabbitMQ queue size/length
+max-length: 18681266
+max-length-bytes: 18681266761</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubeapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nexus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,7 +1407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1495,6 +1529,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,70 +1586,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1918,7 +1958,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1932,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -1949,15 +1989,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1969,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2006,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -2051,23 +2091,23 @@
         <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -2092,7 +2132,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2102,7 +2142,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -2112,7 +2152,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="43">
+      <c r="K3" s="53">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2126,12 +2166,12 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2141,13 +2181,13 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="46"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2160,17 +2200,17 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -2193,16 +2233,16 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2230,21 +2270,21 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
@@ -2262,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="38">
-        <v>1280</v>
+        <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>41</v>
@@ -2273,24 +2313,24 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -2308,13 +2348,13 @@
         <v>67</v>
       </c>
       <c r="K8" s="2">
-        <v>0.51200000000000001</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>41</v>
@@ -2322,15 +2362,15 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2338,10 +2378,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -2361,11 +2401,11 @@
       <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="2">
-        <v>32</v>
+      <c r="L9" s="38">
+        <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>41</v>
@@ -2377,15 +2417,15 @@
         <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2393,13 +2433,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -2434,25 +2474,25 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -2485,19 +2525,19 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -2530,19 +2570,19 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="60" t="s">
-        <v>224</v>
+      <c r="A13" s="51"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="43" t="s">
+        <v>217</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>215</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -2563,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>41</v>
@@ -2575,43 +2615,43 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2620,19 +2660,19 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>41</v>
@@ -2665,15 +2705,15 @@
         <v>41</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2681,13 +2721,13 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -2720,15 +2760,15 @@
         <v>41</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2736,10 +2776,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -2772,8 +2812,8 @@
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2781,13 +2821,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -2819,22 +2859,22 @@
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>198</v>
+      <c r="D19" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>236</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>41</v>
@@ -2867,21 +2907,21 @@
         <v>41</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="52"/>
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -2908,21 +2948,21 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="52"/>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -2949,113 +2989,209 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+    </row>
+    <row r="24" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="15">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="15">
         <v>0</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L25" s="15">
         <v>0</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="S22" s="21"/>
-    </row>
-    <row r="23" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="15">
-        <v>0</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="14" t="s">
+      <c r="M25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="K24" s="2">
-        <f>SUM(K5:K23)</f>
-        <v>22.406000000000002</v>
-      </c>
-      <c r="L24" s="2">
-        <f>SUM(L2:L23)</f>
-        <v>1596</v>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="K26" s="2">
+        <f>SUM(K5:K25)</f>
+        <v>22.894000000000002</v>
+      </c>
+      <c r="L26" s="2">
+        <f>SUM(L2:L25)</f>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3071,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3221,9 @@
     <col min="4" max="4" width="32.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="34.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="72.375" style="11" customWidth="1"/>
-    <col min="7" max="9" width="37.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="37.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="43.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="37.25" style="11" customWidth="1"/>
     <col min="10" max="12" width="21.375" style="11" customWidth="1"/>
     <col min="13" max="13" width="17.875" style="11" customWidth="1"/>
     <col min="14" max="14" width="26.75" style="11" customWidth="1"/>
@@ -3108,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -3128,13 +3266,13 @@
       <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="M1" s="62" t="s">
+      <c r="K1" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="45" t="s">
         <v>35</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -3159,23 +3297,23 @@
         <v>39</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -3184,12 +3322,12 @@
         <v>41</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <v>0</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M2" s="44">
         <v>0</v>
       </c>
       <c r="N2" s="15">
@@ -3205,8 +3343,8 @@
       <c r="T2" s="40"/>
       <c r="U2" s="40"/>
     </row>
-    <row r="3" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3216,7 +3354,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -3225,9 +3363,9 @@
         <v>41</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44">
         <v>1</v>
       </c>
       <c r="M3" s="64">
@@ -3244,12 +3382,12 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="40" t="s">
         <v>34</v>
       </c>
@@ -3259,17 +3397,17 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3282,8 +3420,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3292,7 +3430,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -3302,11 +3440,11 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44">
         <v>1</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="43">
         <v>4</v>
       </c>
       <c r="N5" s="15">
@@ -3319,16 +3457,16 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -3360,23 +3498,23 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -3389,15 +3527,15 @@
         <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="60">
+        <v>221</v>
+      </c>
+      <c r="L7" s="43">
         <v>1</v>
       </c>
-      <c r="M7" s="60">
+      <c r="M7" s="43">
         <v>12</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="43">
         <v>2816</v>
       </c>
       <c r="O7" s="14" t="s">
@@ -3409,24 +3547,24 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -3444,15 +3582,15 @@
         <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="60">
+        <v>221</v>
+      </c>
+      <c r="L8" s="43">
         <v>1</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="43">
         <v>1</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="43">
         <v>16</v>
       </c>
       <c r="O8" s="14" t="s">
@@ -3464,15 +3602,15 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="U8" s="40"/>
     </row>
-    <row r="9" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3480,10 +3618,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -3501,15 +3639,15 @@
         <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L9" s="60">
+        <v>221</v>
+      </c>
+      <c r="L9" s="43">
         <v>1</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="43">
         <v>12</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="43">
         <v>128</v>
       </c>
       <c r="O9" s="14" t="s">
@@ -3525,15 +3663,15 @@
         <v>41</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="U9" s="40"/>
     </row>
-    <row r="10" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -3541,13 +3679,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -3562,15 +3700,15 @@
         <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L10" s="60">
+        <v>227</v>
+      </c>
+      <c r="L10" s="43">
         <v>1</v>
       </c>
       <c r="M10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="43">
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
@@ -3588,25 +3726,25 @@
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
       <c r="U10" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -3621,9 +3759,9 @@
         <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L11" s="60">
+        <v>222</v>
+      </c>
+      <c r="L11" s="43">
         <v>1</v>
       </c>
       <c r="M11" s="18">
@@ -3645,19 +3783,19 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -3672,9 +3810,9 @@
         <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" s="60">
+        <v>222</v>
+      </c>
+      <c r="L12" s="43">
         <v>1</v>
       </c>
       <c r="M12" s="18">
@@ -3696,19 +3834,19 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="60" t="s">
-        <v>224</v>
+      <c r="A13" s="51"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="43" t="s">
+        <v>217</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>215</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -3723,9 +3861,9 @@
         <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L13" s="60">
+        <v>222</v>
+      </c>
+      <c r="L13" s="43">
         <v>1</v>
       </c>
       <c r="M13" s="18">
@@ -3735,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>41</v>
@@ -3746,49 +3884,49 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -3797,19 +3935,19 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>41</v>
@@ -3824,9 +3962,9 @@
         <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L15" s="60">
+        <v>222</v>
+      </c>
+      <c r="L15" s="43">
         <v>1</v>
       </c>
       <c r="M15" s="2">
@@ -3848,15 +3986,15 @@
         <v>41</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -3864,13 +4002,13 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -3885,15 +4023,15 @@
         <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L16" s="60">
+        <v>222</v>
+      </c>
+      <c r="L16" s="43">
         <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0.128</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="43">
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
@@ -3911,11 +4049,11 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -3923,10 +4061,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -3944,9 +4082,9 @@
         <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="60">
+        <v>222</v>
+      </c>
+      <c r="L17" s="43">
         <v>1</v>
       </c>
       <c r="M17" s="2">
@@ -3966,7 +4104,7 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
@@ -3974,13 +4112,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -3995,9 +4133,9 @@
         <v>68</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L18" s="60">
+        <v>222</v>
+      </c>
+      <c r="L18" s="43">
         <v>1</v>
       </c>
       <c r="M18" s="2">
@@ -4019,21 +4157,21 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>198</v>
+      <c r="D19" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>236</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>41</v>
@@ -4048,10 +4186,10 @@
         <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="60">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="L19" s="43">
+        <v>3</v>
       </c>
       <c r="M19" s="2">
         <v>2</v>
@@ -4071,20 +4209,20 @@
       <c r="R19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="63"/>
+      <c r="S19" s="46"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -4099,10 +4237,10 @@
         <v>67</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L20" s="60">
-        <v>2</v>
+        <v>222</v>
+      </c>
+      <c r="L20" s="43">
+        <v>6</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
@@ -4116,20 +4254,20 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="63"/>
+      <c r="S20" s="46"/>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -4144,9 +4282,9 @@
         <v>67</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L21" s="60">
+        <v>222</v>
+      </c>
+      <c r="L21" s="43">
         <v>1</v>
       </c>
       <c r="M21" s="2">
@@ -4161,324 +4299,426 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="63" t="s">
-        <v>218</v>
+      <c r="S21" s="46" t="s">
+        <v>211</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
     </row>
-    <row r="22" spans="1:21" s="67" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="69" t="s">
-        <v>206</v>
+    <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="62" t="s">
+        <v>201</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="H22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="K22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="M22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="N22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="O22" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-    </row>
-    <row r="23" spans="1:21" s="67" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="70"/>
+        <v>204</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+    </row>
+    <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="N23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="O23" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
+        <v>205</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="39" t="s">
-        <v>200</v>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="41" t="s">
+        <v>238</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+        <v>198</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>198</v>
+      </c>
       <c r="O25" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-    </row>
-    <row r="26" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-      <c r="N26" s="15">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>41</v>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="T26" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="U26" s="40"/>
-    </row>
-    <row r="27" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="44"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="39" t="s">
+        <v>195</v>
+      </c>
       <c r="C27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="T28" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="U28" s="40"/>
+    </row>
+    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15">
+      <c r="K29" s="15"/>
+      <c r="L29" s="15">
         <v>0</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M29" s="15">
         <v>0</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N29" s="15">
         <v>0</v>
       </c>
-      <c r="O27" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P27" s="14" t="s">
+      <c r="O29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="R27" s="14" t="s">
+      <c r="R29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="M28" s="2">
-        <f>SUMPRODUCT(L2:L27,M2:M27)</f>
-        <v>39.893999999999998</v>
-      </c>
-      <c r="N28" s="2">
-        <f>SUM(N2:N27)</f>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="M30" s="2">
+        <f>SUMPRODUCT(L2:L29,M2:M29)</f>
+        <v>47.893999999999998</v>
+      </c>
+      <c r="N30" s="2">
+        <f>SUM(N2:N29)</f>
         <v>3512</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="S22:S23"/>
     <mergeCell ref="T22:T23"/>
     <mergeCell ref="U22:U23"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B19:B21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4531,8 +4771,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>124</v>
+      <c r="A2" s="51" t="s">
+        <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>51</v>
@@ -4545,7 +4785,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
@@ -4557,9 +4797,9 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4567,24 +4807,24 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="51" t="s">
-        <v>86</v>
+      <c r="A5" s="51"/>
+      <c r="B5" s="60" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -4593,68 +4833,68 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="26" t="s">
         <v>58</v>
       </c>
@@ -4665,24 +4905,24 @@
         <v>57</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="51" t="s">
-        <v>140</v>
+      <c r="A16" s="51"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="60" t="s">
+        <v>137</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>54</v>
@@ -4693,9 +4933,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
@@ -4705,9 +4945,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
@@ -4717,21 +4957,21 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43" t="s">
-        <v>88</v>
+      <c r="A20" s="51"/>
+      <c r="B20" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>61</v>
@@ -4741,8 +4981,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
@@ -4751,8 +4991,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
@@ -4761,9 +5001,9 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4771,40 +5011,40 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43" t="s">
-        <v>90</v>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
@@ -4813,20 +5053,20 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4834,8 +5074,8 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>96</v>
+      <c r="A30" s="71" t="s">
+        <v>94</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>51</v>
@@ -4848,46 +5088,46 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="43" t="s">
-        <v>87</v>
+      <c r="A32" s="55"/>
+      <c r="B32" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51" t="s">
-        <v>103</v>
+      <c r="A34" s="55"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>56</v>
@@ -4896,9 +5136,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="52"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="21" t="s">
         <v>46</v>
       </c>
@@ -4906,10 +5146,10 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="53" t="s">
-        <v>104</v>
+      <c r="A36" s="55"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="70" t="s">
+        <v>102</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>56</v>
@@ -4918,21 +5158,21 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4940,9 +5180,9 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4950,9 +5190,9 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="43" t="s">
-        <v>91</v>
+      <c r="A40" s="55"/>
+      <c r="B40" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>63</v>
@@ -4962,29 +5202,29 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4992,11 +5232,11 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>166</v>
+      <c r="A44" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5004,9 +5244,9 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5014,9 +5254,9 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5038,6 +5278,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -5047,12 +5293,6 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5084,54 +5324,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C4" s="34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C5" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5170,38 +5410,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5240,56 +5480,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>181</v>
+      <c r="A2" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>179</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="246">
   <si>
     <t>Catalog</t>
   </si>
@@ -1097,7 +1097,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nexus</t>
+    <t>1. kubectl create serviceaccount kubeapps-operator -n kubeapps
+2. kubectl create clusterrolebinding kubeapps-operator --clusterrole=cluster-admin --serviceaccount=kubeapps:kubeapps-operator
+3. kubectl get -n kubeapps secret $(kubectl get -n kubeapps serviceaccount kubeapps-operator -o jsonpath='{.secrets[].name}') -o jsonpath='{.data.token}' | base64 --decode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
+2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password @dvant1cH
+3. helm push ./minin chartmuseum
+4. helm update repo
+5. helm search chartmuseum
+6. helm install --name es-minio chartmuseum/minio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChartMuseum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kubeapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2011,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3173,8 +3196,8 @@
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="K26" s="2">
-        <f>SUM(K5:K25)</f>
-        <v>22.894000000000002</v>
+        <f>SUM(K2:K25)</f>
+        <v>23.894000000000002</v>
       </c>
       <c r="L26" s="2">
         <f>SUM(L2:L25)</f>
@@ -3209,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4460,7 +4483,7 @@
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="41" t="s">
         <v>238</v>
@@ -4486,17 +4509,17 @@
       <c r="I25" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="J25" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="M25" s="38" t="s">
-        <v>198</v>
+      <c r="J25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="43">
+        <v>1</v>
+      </c>
+      <c r="M25" s="43">
+        <v>2</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>198</v>
@@ -4504,20 +4527,28 @@
       <c r="O25" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="42"/>
+      <c r="P25" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="S25" s="42" t="s">
+        <v>241</v>
+      </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="41" t="s">
         <v>240</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>198</v>
@@ -4537,17 +4568,17 @@
       <c r="I26" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>198</v>
+      <c r="J26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="43">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.51200000000000001</v>
       </c>
       <c r="N26" s="38" t="s">
         <v>198</v>
@@ -4555,10 +4586,18 @@
       <c r="O26" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="42"/>
+      <c r="P26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="R26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="S26" s="42" t="s">
+        <v>242</v>
+      </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
     </row>
@@ -4697,7 +4736,7 @@
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>47.893999999999998</v>
+        <v>50.405999999999999</v>
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
     <sheet name="single_Software" sheetId="2" r:id="rId2"/>
-    <sheet name="two_Software" sheetId="7" r:id="rId3"/>
+    <sheet name="two_Software(standand)" sheetId="7" r:id="rId3"/>
     <sheet name="Manual" sheetId="3" r:id="rId4"/>
     <sheet name="Testing" sheetId="4" r:id="rId5"/>
     <sheet name="Training" sheetId="5" r:id="rId6"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="247">
   <si>
     <t>Catalog</t>
   </si>
@@ -1015,10 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grafana-1.14.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,10 +1061,6 @@
   </si>
   <si>
     <t>minio-2.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1121,6 +1113,21 @@
   </si>
   <si>
     <t>repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Grafana Email/LINE/AlertManager Email 
+2. Mongo Exporter (Evelyn)
+3. DB Size Metric - Alert (Evelyn)
+4. Reboot Script (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana-1.14.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2032,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2196,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2256,7 +2263,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R5" s="31" t="s">
         <v>212</v>
@@ -2328,7 +2335,7 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>41</v>
@@ -2377,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>41</v>
@@ -2428,7 +2435,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>41</v>
@@ -2440,7 +2447,7 @@
         <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>180</v>
@@ -2456,10 +2463,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>130</v>
@@ -2731,7 +2738,7 @@
         <v>154</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2744,10 +2751,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>80</v>
@@ -2790,7 +2797,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -2799,10 +2806,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -2835,7 +2842,7 @@
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
@@ -2882,7 +2889,7 @@
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="60" t="s">
         <v>7</v>
@@ -2891,10 +2898,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>190</v>
@@ -2935,7 +2942,7 @@
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
@@ -2976,7 +2983,7 @@
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
@@ -3017,7 +3024,7 @@
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="41" t="s">
         <v>199</v>
@@ -3056,7 +3063,7 @@
         <v>198</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O22" s="38" t="s">
         <v>198</v>
@@ -3067,99 +3074,111 @@
       <c r="S22" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-    </row>
-    <row r="24" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53" t="s">
+      <c r="D24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="33"/>
+    </row>
+    <row r="25" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C25" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="S24" s="21"/>
-    </row>
-    <row r="25" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -3167,7 +3186,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="K25" s="15">
         <v>0</v>
@@ -3178,37 +3197,72 @@
       <c r="M25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="R25" s="42"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21" t="s">
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="K26" s="2">
-        <f>SUM(K2:K25)</f>
-        <v>23.894000000000002</v>
-      </c>
-      <c r="L26" s="2">
-        <f>SUM(L2:L25)</f>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="K27" s="2">
+        <f>SUM(K2:K26)</f>
+        <v>24.406000000000002</v>
+      </c>
+      <c r="L27" s="2">
+        <f>SUM(L2:L26)</f>
         <v>1756</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="B7:B8"/>
@@ -3232,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3459,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -3686,7 +3740,7 @@
         <v>41</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T9" s="34" t="s">
         <v>180</v>
@@ -3702,10 +3756,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>130</v>
@@ -3723,7 +3777,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3931,7 +3985,7 @@
         <v>187</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>198</v>
@@ -4009,7 +4063,7 @@
         <v>41</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T15" s="25" t="s">
         <v>182</v>
@@ -4025,10 +4079,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>80</v>
@@ -4084,10 +4138,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -4188,10 +4242,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>190</v>
@@ -4469,7 +4523,7 @@
         <v>198</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O24" s="38" t="s">
         <v>198</v>
@@ -4486,10 +4540,10 @@
     <row r="25" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>198</v>
@@ -4510,7 +4564,7 @@
         <v>198</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>222</v>
@@ -4519,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="43">
-        <v>2</v>
+        <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>198</v>
@@ -4537,7 +4591,7 @@
         <v>198</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4545,31 +4599,31 @@
     <row r="26" spans="1:21" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>222</v>
@@ -4596,7 +4650,7 @@
         <v>198</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -4736,7 +4790,7 @@
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>50.405999999999999</v>
+        <v>49.917999999999999</v>
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>
@@ -4774,7 +4828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -979,10 +979,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>prometheus-8.4.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/mongodb-exporter:v0.6.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -992,10 +988,6 @@
   </si>
   <si>
     <t>MongoDB-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB-Exporter-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1123,36 +1115,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nginx-ingress-0.28.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana-1.14.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>nginx-ingress-0.28.6</t>
+  </si>
+  <si>
+    <t>MongoDB-Exporter-1.0.1</t>
+  </si>
+  <si>
+    <t>prometheus-8.4.8</t>
+  </si>
+  <si>
+    <t>grafana-1.14.11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1206,7 +1202,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1230,7 +1226,7 @@
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1589,24 +1585,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1634,23 +1630,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1966,7 +1962,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="11" customWidth="1"/>
@@ -1974,7 +1970,7 @@
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +2002,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="50.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2013,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="340.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -2041,11 +2037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
@@ -2065,7 +2061,7 @@
     <col min="20" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2124,8 +2120,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:19" ht="52.5" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2161,8 +2157,8 @@
       <c r="R2" s="19"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+    <row r="3" spans="1:19" ht="48" customHeight="1">
+      <c r="A3" s="53"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2172,7 +2168,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -2182,7 +2178,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="53">
+      <c r="K3" s="51">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2196,12 +2192,12 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:19">
+      <c r="A4" s="53"/>
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2217,7 +2213,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="56"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2229,8 +2225,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:19" ht="50.25" customHeight="1">
+      <c r="A5" s="53"/>
       <c r="B5" s="60" t="s">
         <v>20</v>
       </c>
@@ -2263,15 +2259,15 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R5" s="31" t="s">
         <v>212</v>
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:19" ht="42.75" customHeight="1">
+      <c r="A6" s="53"/>
       <c r="B6" s="60"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
@@ -2299,9 +2295,9 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53" t="s">
+    <row r="7" spans="1:19" ht="36.75" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2335,7 +2331,7 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>41</v>
@@ -2350,9 +2346,9 @@
       </c>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54"/>
+    <row r="8" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>41</v>
@@ -2399,8 +2395,8 @@
       </c>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:19" ht="70.5" customHeight="1">
+      <c r="A9" s="53"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2435,7 +2431,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>41</v>
@@ -2447,15 +2443,15 @@
         <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>180</v>
       </c>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A10" s="53"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2463,10 +2459,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>130</v>
@@ -2507,9 +2503,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2554,9 +2550,9 @@
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="55"/>
+    <row r="12" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="18" t="s">
         <v>128</v>
       </c>
@@ -2599,20 +2595,20 @@
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -2633,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>41</v>
@@ -2644,9 +2640,9 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="55"/>
+    <row r="14" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
         <v>186</v>
       </c>
@@ -2689,17 +2685,17 @@
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="56"/>
+    <row r="15" spans="1:19" ht="89.25" customHeight="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>151</v>
@@ -2738,12 +2734,12 @@
         <v>154</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:19" ht="58.5" customHeight="1">
+      <c r="A16" s="53"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2797,8 +2793,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:19">
+      <c r="A17" s="53"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2806,10 +2802,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -2842,8 +2838,8 @@
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:19">
+      <c r="A18" s="53"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2889,8 +2885,8 @@
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:19" ht="16.5">
+      <c r="A19" s="53"/>
       <c r="B19" s="60" t="s">
         <v>7</v>
       </c>
@@ -2898,10 +2894,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>190</v>
@@ -2942,8 +2938,8 @@
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:19" ht="16.5">
+      <c r="A20" s="53"/>
       <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
         <v>45</v>
@@ -2983,8 +2979,8 @@
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+    <row r="21" spans="1:19" ht="16.5">
+      <c r="A21" s="53"/>
       <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
@@ -3024,8 +3020,8 @@
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+    <row r="22" spans="1:19">
+      <c r="A22" s="53"/>
       <c r="B22" s="41" t="s">
         <v>199</v>
       </c>
@@ -3063,7 +3059,7 @@
         <v>198</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O22" s="38" t="s">
         <v>198</v>
@@ -3075,34 +3071,34 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:19" ht="123.75" customHeight="1">
+      <c r="A23" s="53"/>
       <c r="B23" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="K23" s="2">
         <v>0.51200000000000001</v>
@@ -3123,13 +3119,13 @@
         <v>198</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+    <row r="24" spans="1:19" ht="16.5">
+      <c r="A24" s="53"/>
       <c r="B24" s="41" t="s">
         <v>195</v>
       </c>
@@ -3169,9 +3165,9 @@
       <c r="R24" s="15"/>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53" t="s">
+    <row r="25" spans="1:19" ht="83.25" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="51" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -3206,9 +3202,9 @@
       <c r="R25" s="42"/>
       <c r="S25" s="21"/>
     </row>
-    <row r="26" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="54"/>
+    <row r="26" spans="1:19" ht="54" customHeight="1">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="2" t="s">
         <v>125</v>
       </c>
@@ -3247,7 +3243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="13"/>
       <c r="K27" s="2">
         <f>SUM(K2:K26)</f>
@@ -3286,11 +3282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
@@ -3312,7 +3308,7 @@
     <col min="22" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3344,7 +3340,7 @@
         <v>65</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L1" s="45" t="s">
         <v>203</v>
@@ -3377,8 +3373,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:21" ht="52.5" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3420,8 +3416,8 @@
       <c r="T2" s="40"/>
       <c r="U2" s="40"/>
     </row>
-    <row r="3" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+    <row r="3" spans="1:21" ht="59.25" customHeight="1">
+      <c r="A3" s="53"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3431,7 +3427,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -3459,12 +3455,12 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U3" s="40"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:21">
+      <c r="A4" s="53"/>
       <c r="B4" s="40" t="s">
         <v>34</v>
       </c>
@@ -3496,8 +3492,8 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:21" ht="50.25" customHeight="1">
+      <c r="A5" s="53"/>
       <c r="B5" s="60" t="s">
         <v>20</v>
       </c>
@@ -3541,8 +3537,8 @@
       </c>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:21" ht="42.75" customHeight="1">
+      <c r="A6" s="53"/>
       <c r="B6" s="60"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
@@ -3574,9 +3570,9 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53" t="s">
+    <row r="7" spans="1:21" ht="85.5" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3604,7 +3600,7 @@
         <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3631,9 +3627,9 @@
       </c>
       <c r="U7" s="40"/>
     </row>
-    <row r="8" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54"/>
+    <row r="8" spans="1:21" ht="71.25" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3686,8 +3682,8 @@
       </c>
       <c r="U8" s="40"/>
     </row>
-    <row r="9" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:21" ht="108.75" customHeight="1">
+      <c r="A9" s="53"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3716,7 +3712,7 @@
         <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3740,15 +3736,15 @@
         <v>41</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T9" s="34" t="s">
         <v>180</v>
       </c>
       <c r="U9" s="40"/>
     </row>
-    <row r="10" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:21" ht="82.5" customHeight="1">
+      <c r="A10" s="53"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -3756,10 +3752,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>130</v>
@@ -3777,7 +3773,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3806,9 +3802,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="1:21" ht="47.25" customHeight="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -3836,7 +3832,7 @@
         <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3859,9 +3855,9 @@
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
     </row>
-    <row r="12" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="55"/>
+    <row r="12" spans="1:21" ht="47.25" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="18" t="s">
         <v>128</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -3910,20 +3906,20 @@
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
     </row>
-    <row r="13" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:21" ht="47.25" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -3938,7 +3934,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -3950,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>41</v>
@@ -3960,9 +3956,9 @@
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
     </row>
-    <row r="14" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="55"/>
+    <row r="14" spans="1:21" ht="47.25" customHeight="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
         <v>186</v>
       </c>
@@ -3985,7 +3981,7 @@
         <v>187</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>198</v>
@@ -4011,17 +4007,17 @@
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
     </row>
-    <row r="15" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="56"/>
+    <row r="15" spans="1:21" ht="89.25" customHeight="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>151</v>
@@ -4039,7 +4035,7 @@
         <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4063,15 +4059,15 @@
         <v>41</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T15" s="25" t="s">
         <v>182</v>
       </c>
       <c r="U15" s="40"/>
     </row>
-    <row r="16" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:21" ht="58.5" customHeight="1">
+      <c r="A16" s="53"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -4100,7 +4096,7 @@
         <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4129,8 +4125,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:21">
+      <c r="A17" s="53"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4138,10 +4134,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -4159,7 +4155,7 @@
         <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4180,8 +4176,8 @@
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:21">
+      <c r="A18" s="53"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>68</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4233,8 +4229,8 @@
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:21" ht="16.5">
+      <c r="A19" s="53"/>
       <c r="B19" s="60" t="s">
         <v>7</v>
       </c>
@@ -4242,10 +4238,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>190</v>
@@ -4263,7 +4259,7 @@
         <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L19" s="43">
         <v>3</v>
@@ -4290,8 +4286,8 @@
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:21" ht="16.5">
+      <c r="A20" s="53"/>
       <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
         <v>45</v>
@@ -4314,7 +4310,7 @@
         <v>67</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L20" s="43">
         <v>6</v>
@@ -4335,8 +4331,8 @@
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+    <row r="21" spans="1:21" ht="16.5">
+      <c r="A21" s="53"/>
       <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
@@ -4359,7 +4355,7 @@
         <v>67</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4382,8 +4378,8 @@
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
     </row>
-    <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+    <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A22" s="53"/>
       <c r="B22" s="62" t="s">
         <v>201</v>
       </c>
@@ -4429,14 +4425,14 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
-      <c r="S22" s="53" t="s">
+      <c r="S22" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-    </row>
-    <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+    </row>
+    <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
+      <c r="A23" s="53"/>
       <c r="B23" s="63"/>
       <c r="C23" s="22" t="s">
         <v>205</v>
@@ -4480,12 +4476,12 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="53"/>
       <c r="B24" s="39" t="s">
         <v>199</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>198</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O24" s="38" t="s">
         <v>198</v>
@@ -4537,13 +4533,13 @@
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
     </row>
-    <row r="25" spans="1:21" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+    <row r="25" spans="1:21" ht="63">
+      <c r="A25" s="53"/>
       <c r="B25" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>198</v>
@@ -4564,10 +4560,10 @@
         <v>198</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4591,42 +4587,42 @@
         <v>198</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
     </row>
-    <row r="26" spans="1:21" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+    <row r="26" spans="1:21" ht="105" customHeight="1">
+      <c r="A26" s="53"/>
       <c r="B26" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4650,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+    <row r="27" spans="1:21" ht="16.5">
+      <c r="A27" s="53"/>
       <c r="B27" s="39" t="s">
         <v>195</v>
       </c>
@@ -4698,9 +4694,9 @@
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
     </row>
-    <row r="28" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53" t="s">
+    <row r="28" spans="1:21" ht="83.25" customHeight="1">
+      <c r="A28" s="53"/>
+      <c r="B28" s="51" t="s">
         <v>123</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -4741,9 +4737,9 @@
       </c>
       <c r="U28" s="40"/>
     </row>
-    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54"/>
+    <row r="29" spans="1:21" ht="54" customHeight="1">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="2" t="s">
         <v>125</v>
       </c>
@@ -4786,7 +4782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
@@ -4799,6 +4795,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -4806,12 +4808,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4832,7 +4828,7 @@
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="37" style="11" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="11" customWidth="1"/>
@@ -4843,7 +4839,7 @@
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4863,8 +4859,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:6" ht="24" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4877,8 +4873,8 @@
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A3" s="53"/>
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
@@ -4889,8 +4885,8 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A4" s="53"/>
       <c r="B4" s="21" t="s">
         <v>139</v>
       </c>
@@ -4899,8 +4895,8 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:6" ht="24" customHeight="1">
+      <c r="A5" s="53"/>
       <c r="B5" s="60" t="s">
         <v>84</v>
       </c>
@@ -4913,8 +4909,8 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A6" s="53"/>
       <c r="B6" s="61"/>
       <c r="C6" s="6" t="s">
         <v>143</v>
@@ -4925,8 +4921,8 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
+      <c r="A7" s="53"/>
       <c r="B7" s="61"/>
       <c r="C7" s="60" t="s">
         <v>97</v>
@@ -4935,48 +4931,48 @@
       <c r="E7" s="60"/>
       <c r="F7" s="60"/>
     </row>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A8" s="53"/>
       <c r="B8" s="61"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
+      <c r="A9" s="53"/>
       <c r="B9" s="61"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
+      <c r="A10" s="53"/>
       <c r="B10" s="61"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
+      <c r="A11" s="53"/>
       <c r="B11" s="61"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-    </row>
-    <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
+      <c r="A12" s="53"/>
       <c r="B12" s="61"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1">
+      <c r="A13" s="53"/>
       <c r="B13" s="61"/>
       <c r="C13" s="6" t="s">
         <v>136</v>
@@ -4985,8 +4981,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+    <row r="14" spans="1:6" ht="39" customHeight="1">
+      <c r="A14" s="53"/>
       <c r="B14" s="61"/>
       <c r="C14" s="26" t="s">
         <v>58</v>
@@ -5001,8 +4997,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+    <row r="15" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A15" s="53"/>
       <c r="B15" s="61"/>
       <c r="C15" s="6" t="s">
         <v>99</v>
@@ -5011,8 +5007,8 @@
       <c r="E15" s="6"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A16" s="53"/>
       <c r="B16" s="61"/>
       <c r="C16" s="60" t="s">
         <v>137</v>
@@ -5025,10 +5021,10 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A17" s="53"/>
       <c r="B17" s="61"/>
-      <c r="C17" s="66"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
@@ -5037,10 +5033,10 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A18" s="53"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="66"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
@@ -5049,8 +5045,8 @@
       </c>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
         <v>96</v>
       </c>
@@ -5061,9 +5057,9 @@
       <c r="E19" s="6"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5073,9 +5069,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="68"/>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
@@ -5083,9 +5079,9 @@
       <c r="E21" s="6"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="56"/>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
@@ -5093,8 +5089,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A23" s="53"/>
       <c r="B23" s="24" t="s">
         <v>107</v>
       </c>
@@ -5103,9 +5099,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53" t="s">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5115,9 +5111,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="68"/>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="2" t="s">
         <v>142</v>
       </c>
@@ -5125,9 +5121,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="68"/>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="2" t="s">
         <v>140</v>
       </c>
@@ -5135,9 +5131,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="69"/>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
@@ -5145,8 +5141,8 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+    <row r="28" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A28" s="53"/>
       <c r="B28" s="24" t="s">
         <v>112</v>
       </c>
@@ -5156,8 +5152,8 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+    <row r="29" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A29" s="53"/>
       <c r="B29" s="12" t="s">
         <v>90</v>
       </c>
@@ -5166,8 +5162,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A30" s="68" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5180,8 +5176,8 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+    <row r="31" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A31" s="56"/>
       <c r="B31" s="21" t="s">
         <v>48</v>
       </c>
@@ -5194,9 +5190,9 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="53" t="s">
+    <row r="32" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="51" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5206,9 +5202,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="68"/>
+    <row r="33" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="2" t="s">
         <v>100</v>
       </c>
@@ -5216,9 +5212,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="68"/>
+    <row r="34" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="60" t="s">
         <v>101</v>
       </c>
@@ -5228,9 +5224,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="68"/>
+    <row r="35" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="61"/>
       <c r="D35" s="21" t="s">
         <v>46</v>
@@ -5238,10 +5234,10 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="70" t="s">
+    <row r="36" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="66" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -5250,10 +5246,10 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="69"/>
+    <row r="37" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="21" t="s">
         <v>103</v>
       </c>
@@ -5262,8 +5258,8 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+    <row r="38" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A38" s="56"/>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
@@ -5272,8 +5268,8 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+    <row r="39" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A39" s="56"/>
       <c r="B39" s="24" t="s">
         <v>107</v>
       </c>
@@ -5282,9 +5278,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="53" t="s">
+    <row r="40" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="51" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5294,9 +5290,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
+    <row r="41" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="2" t="s">
         <v>106</v>
       </c>
@@ -5304,9 +5300,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
+    <row r="42" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A42" s="56"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="2" t="s">
         <v>105</v>
       </c>
@@ -5314,8 +5310,8 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+    <row r="43" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A43" s="56"/>
       <c r="B43" s="24" t="s">
         <v>112</v>
       </c>
@@ -5324,8 +5320,8 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+    <row r="44" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A44" s="53" t="s">
         <v>162</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -5336,7 +5332,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="36" t="s">
         <v>160</v>
@@ -5346,7 +5342,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="61"/>
       <c r="B46" s="36" t="s">
         <v>161</v>
@@ -5356,7 +5352,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="20.25" customHeight="1">
       <c r="A47" s="20" t="s">
         <v>69</v>
       </c>
@@ -5366,17 +5362,11 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -5386,6 +5376,12 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5401,7 +5397,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="64.125" style="11" customWidth="1"/>
@@ -5409,7 +5405,7 @@
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="77.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -5433,7 +5429,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="77.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
@@ -5445,7 +5441,7 @@
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="142.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>145</v>
       </c>
@@ -5457,12 +5453,12 @@
       </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
         <v>184</v>
       </c>
@@ -5487,7 +5483,7 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="37.125" style="11" customWidth="1"/>
@@ -5495,7 +5491,7 @@
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5509,7 +5505,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>163</v>
       </c>
@@ -5519,7 +5515,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>164</v>
       </c>
@@ -5529,7 +5525,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>165</v>
       </c>
@@ -5539,7 +5535,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="C5" s="29"/>
     </row>
   </sheetData>
@@ -5557,7 +5553,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="37.125" style="11" customWidth="1"/>
@@ -5565,7 +5561,7 @@
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +5578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="42" customHeight="1">
       <c r="A2" s="73" t="s">
         <v>177</v>
       </c>
@@ -5595,12 +5591,12 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+    <row r="3" spans="1:5" ht="42" customHeight="1">
+      <c r="A3" s="56"/>
       <c r="B3" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="51" t="s">
         <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5608,16 +5604,16 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+    <row r="4" spans="1:5" ht="42" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>165</v>
       </c>
@@ -5628,7 +5624,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="C6" s="29"/>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1056,10 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>es-edgesense-1.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. memory scaling
 2. pv scaling
 3. on new node
@@ -1125,6 +1121,9 @@
   </si>
   <si>
     <t>grafana-1.14.11</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.2</t>
   </si>
 </sst>
 </file>
@@ -2037,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2602,10 +2601,10 @@
         <v>216</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>214</v>
@@ -2692,10 +2691,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>151</v>
@@ -2734,7 +2733,7 @@
         <v>154</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2747,10 +2746,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>80</v>
@@ -2802,10 +2801,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -2894,10 +2893,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>190</v>
@@ -3074,10 +3073,10 @@
     <row r="23" spans="1:19" ht="123.75" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>198</v>
@@ -3098,7 +3097,7 @@
         <v>198</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K23" s="2">
         <v>0.51200000000000001</v>
@@ -3119,7 +3118,7 @@
         <v>198</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
@@ -3282,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3736,7 +3735,7 @@
         <v>41</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T9" s="34" t="s">
         <v>180</v>
@@ -3913,10 +3912,10 @@
         <v>216</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>214</v>
@@ -4014,10 +4013,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>151</v>
@@ -4075,10 +4074,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>80</v>
@@ -4134,10 +4133,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -4238,10 +4237,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>190</v>
@@ -4536,11 +4535,11 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="53"/>
       <c r="B25" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D25" s="38" t="s">
         <v>198</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>198</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>220</v>
@@ -4587,7 +4586,7 @@
         <v>198</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4595,10 +4594,10 @@
     <row r="26" spans="1:21" ht="105" customHeight="1">
       <c r="A26" s="53"/>
       <c r="B26" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>198</v>
@@ -4619,7 +4618,7 @@
         <v>198</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>220</v>
@@ -4646,7 +4645,7 @@
         <v>198</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="248">
   <si>
     <t>Catalog</t>
   </si>
@@ -327,10 +327,6 @@
   </si>
   <si>
     <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/helm-rmm-grafana:latest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1120,10 +1116,16 @@
     <t>prometheus-8.4.8</t>
   </si>
   <si>
-    <t>grafana-1.14.11</t>
-  </si>
-  <si>
     <t>es-edgesense-1.0.2</t>
+  </si>
+  <si>
+    <t>postgres/@dvant1cH</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/helm-rmm-grafana:6.1.3</t>
+  </si>
+  <si>
+    <t>grafana-1.14.12</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1">
@@ -1997,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -2014,15 +2016,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2036,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2116,7 +2118,7 @@
         <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
@@ -2124,15 +2126,15 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -2167,7 +2169,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -2191,7 +2193,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2206,7 +2208,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2230,12 +2232,12 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -2258,10 +2260,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2303,13 +2305,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
@@ -2330,7 +2332,7 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>41</v>
@@ -2338,10 +2340,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2352,10 +2354,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -2379,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>41</v>
@@ -2387,10 +2389,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2403,10 +2405,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -2430,7 +2432,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>41</v>
@@ -2442,10 +2444,10 @@
         <v>41</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2458,13 +2460,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -2499,7 +2501,7 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
@@ -2508,16 +2510,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -2553,16 +2555,16 @@
       <c r="A12" s="53"/>
       <c r="B12" s="56"/>
       <c r="C12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -2598,16 +2600,16 @@
       <c r="A13" s="53"/>
       <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -2628,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>41</v>
@@ -2643,40 +2645,40 @@
       <c r="A14" s="53"/>
       <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>187</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2691,13 +2693,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>41</v>
@@ -2730,10 +2732,10 @@
         <v>41</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2746,13 +2748,13 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -2785,11 +2787,11 @@
         <v>41</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2801,10 +2803,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -2846,13 +2848,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -2893,13 +2895,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>41</v>
@@ -2932,7 +2934,7 @@
         <v>41</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
@@ -2946,7 +2948,7 @@
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -2973,7 +2975,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -2987,7 +2989,7 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -3014,7 +3016,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -3022,103 +3024,103 @@
     <row r="22" spans="1:19">
       <c r="A22" s="53"/>
       <c r="B22" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="123.75" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K23" s="2">
         <v>0.51200000000000001</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
@@ -3126,38 +3128,38 @@
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="53"/>
       <c r="B24" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
@@ -3167,13 +3169,13 @@
     <row r="25" spans="1:19" ht="83.25" customHeight="1">
       <c r="A25" s="53"/>
       <c r="B25" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -3196,7 +3198,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R25" s="42"/>
       <c r="S25" s="21"/>
@@ -3205,10 +3207,10 @@
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3216,7 +3218,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -3239,7 +3241,7 @@
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -3281,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3339,10 +3341,10 @@
         <v>65</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>35</v>
@@ -3369,7 +3371,7 @@
         <v>39</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
@@ -3377,15 +3379,15 @@
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -3426,7 +3428,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -3454,7 +3456,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -3469,7 +3471,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3502,7 +3504,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -3529,10 +3531,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -3578,13 +3580,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>41</v>
@@ -3599,7 +3601,7 @@
         <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3619,10 +3621,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -3633,10 +3635,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -3654,7 +3656,7 @@
         <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3674,10 +3676,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3690,10 +3692,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -3711,7 +3713,7 @@
         <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3735,10 +3737,10 @@
         <v>41</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -3751,13 +3753,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
@@ -3772,7 +3774,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3798,7 +3800,7 @@
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
       <c r="U10" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
@@ -3807,16 +3809,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
@@ -3831,7 +3833,7 @@
         <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3858,16 +3860,16 @@
       <c r="A12" s="53"/>
       <c r="B12" s="56"/>
       <c r="C12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -3882,7 +3884,7 @@
         <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -3909,16 +3911,16 @@
       <c r="A13" s="53"/>
       <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>41</v>
@@ -3933,7 +3935,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -3945,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>41</v>
@@ -3959,46 +3961,46 @@
       <c r="A14" s="53"/>
       <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>187</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4013,13 +4015,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>41</v>
@@ -4034,7 +4036,7 @@
         <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4058,10 +4060,10 @@
         <v>41</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -4074,13 +4076,13 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -4095,7 +4097,7 @@
         <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4121,7 +4123,7 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -4133,10 +4135,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -4154,7 +4156,7 @@
         <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4184,13 +4186,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>41</v>
@@ -4205,7 +4207,7 @@
         <v>68</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4237,13 +4239,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>41</v>
@@ -4258,7 +4260,7 @@
         <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L19" s="43">
         <v>3</v>
@@ -4294,7 +4296,7 @@
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>41</v>
@@ -4309,7 +4311,7 @@
         <v>67</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L20" s="43">
         <v>6</v>
@@ -4339,7 +4341,7 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>41</v>
@@ -4354,7 +4356,7 @@
         <v>67</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4372,7 +4374,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
@@ -4380,52 +4382,52 @@
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="53"/>
       <c r="B22" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>202</v>
-      </c>
       <c r="E22" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T22" s="51"/>
       <c r="U22" s="51"/>
@@ -4434,43 +4436,43 @@
       <c r="A23" s="53"/>
       <c r="B23" s="63"/>
       <c r="C23" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -4482,52 +4484,52 @@
     <row r="24" spans="1:21">
       <c r="A24" s="53"/>
       <c r="B24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
@@ -4535,34 +4537,34 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="53"/>
       <c r="B25" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4571,22 +4573,22 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4594,34 +4596,34 @@
     <row r="26" spans="1:21" ht="105" customHeight="1">
       <c r="A26" s="53"/>
       <c r="B26" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4630,22 +4632,22 @@
         <v>0.51200000000000001</v>
       </c>
       <c r="N26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -4653,38 +4655,38 @@
     <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="53"/>
       <c r="B27" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -4696,13 +4698,13 @@
     <row r="28" spans="1:21" ht="83.25" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -4729,10 +4731,10 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T28" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U28" s="40"/>
     </row>
@@ -4740,10 +4742,10 @@
       <c r="A29" s="54"/>
       <c r="B29" s="55"/>
       <c r="C29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4751,7 +4753,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15">
@@ -4778,7 +4780,7 @@
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -4860,7 +4862,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>51</v>
@@ -4887,7 +4889,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4897,14 +4899,14 @@
     <row r="5" spans="1:6" ht="24" customHeight="1">
       <c r="A5" s="53"/>
       <c r="B5" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -4912,7 +4914,7 @@
       <c r="A6" s="53"/>
       <c r="B6" s="61"/>
       <c r="C6" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -4924,7 +4926,7 @@
       <c r="A7" s="53"/>
       <c r="B7" s="61"/>
       <c r="C7" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -4974,7 +4976,7 @@
       <c r="A13" s="53"/>
       <c r="B13" s="61"/>
       <c r="C13" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4993,14 +4995,14 @@
         <v>57</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
       <c r="A15" s="53"/>
       <c r="B15" s="61"/>
       <c r="C15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5010,7 +5012,7 @@
       <c r="A16" s="53"/>
       <c r="B16" s="61"/>
       <c r="C16" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>54</v>
@@ -5047,10 +5049,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5059,7 +5061,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="53"/>
       <c r="B20" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>61</v>
@@ -5091,7 +5093,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5101,10 +5103,10 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5114,7 +5116,7 @@
       <c r="A25" s="53"/>
       <c r="B25" s="69"/>
       <c r="C25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5124,7 +5126,7 @@
       <c r="A26" s="53"/>
       <c r="B26" s="69"/>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5143,18 +5145,18 @@
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
       <c r="A29" s="53"/>
       <c r="B29" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5163,7 +5165,7 @@
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
       <c r="A30" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>51</v>
@@ -5181,21 +5183,21 @@
         <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
       <c r="A32" s="56"/>
       <c r="B32" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5205,7 +5207,7 @@
       <c r="A33" s="56"/>
       <c r="B33" s="69"/>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5215,7 +5217,7 @@
       <c r="A34" s="56"/>
       <c r="B34" s="69"/>
       <c r="C34" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>56</v>
@@ -5237,7 +5239,7 @@
       <c r="A36" s="56"/>
       <c r="B36" s="69"/>
       <c r="C36" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>56</v>
@@ -5250,17 +5252,17 @@
       <c r="B37" s="52"/>
       <c r="C37" s="67"/>
       <c r="D37" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
       <c r="A38" s="56"/>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5270,7 +5272,7 @@
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5280,7 +5282,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="56"/>
       <c r="B40" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>63</v>
@@ -5293,7 +5295,7 @@
       <c r="A41" s="56"/>
       <c r="B41" s="56"/>
       <c r="C41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5303,7 +5305,7 @@
       <c r="A42" s="56"/>
       <c r="B42" s="52"/>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5312,7 +5314,7 @@
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="56"/>
       <c r="B43" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5321,10 +5323,10 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5334,7 +5336,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5344,7 +5346,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="61"/>
       <c r="B46" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5412,54 +5414,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5498,38 +5500,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5568,24 +5570,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5593,13 +5595,13 @@
     <row r="3" spans="1:5" ht="42" customHeight="1">
       <c r="A3" s="56"/>
       <c r="B3" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5608,16 +5610,16 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3102,7 +3102,7 @@
         <v>239</v>
       </c>
       <c r="K23" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="L23" s="38" t="s">
         <v>197</v>
@@ -3248,7 +3248,7 @@
       <c r="A27" s="13"/>
       <c r="K27" s="2">
         <f>SUM(K2:K26)</f>
-        <v>24.406000000000002</v>
+        <v>24.022000000000002</v>
       </c>
       <c r="L27" s="2">
         <f>SUM(L2:L26)</f>
@@ -3283,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="N26" s="38" t="s">
         <v>197</v>
@@ -4787,7 +4787,7 @@
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>49.917999999999999</v>
+        <v>49.533999999999999</v>
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -1100,32 +1100,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nginx-ingress-0.28.6</t>
+  </si>
+  <si>
+    <t>MongoDB-Exporter-1.0.1</t>
+  </si>
+  <si>
+    <t>prometheus-8.4.8</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.2</t>
+  </si>
+  <si>
+    <t>postgres/@dvant1cH</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/helm-rmm-grafana:6.1.3</t>
+  </si>
+  <si>
+    <t>grafana-1.14.12</t>
+  </si>
+  <si>
     <t>1. Grafana Email/LINE/AlertManager Email 
 2. Mongo Exporter (Evelyn)
 3. DB Size Metric - Alert (Evelyn)
 4. Reboot Script (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.6</t>
-  </si>
-  <si>
-    <t>MongoDB-Exporter-1.0.1</t>
-  </si>
-  <si>
-    <t>prometheus-8.4.8</t>
-  </si>
-  <si>
-    <t>es-edgesense-1.0.2</t>
-  </si>
-  <si>
-    <t>postgres/@dvant1cH</t>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/helm-rmm-grafana:6.1.3</t>
-  </si>
-  <si>
-    <t>grafana-1.14.12</t>
   </si>
 </sst>
 </file>
@@ -2038,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2603,10 +2602,10 @@
         <v>215</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>213</v>
@@ -2693,10 +2692,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>150</v>
@@ -2735,7 +2734,7 @@
         <v>153</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2748,13 +2747,13 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -2803,10 +2802,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -2895,10 +2894,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>189</v>
@@ -3283,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3679,7 +3678,7 @@
         <v>207</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3914,10 +3913,10 @@
         <v>215</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>213</v>
@@ -4015,10 +4014,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>150</v>
@@ -4076,13 +4075,13 @@
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -4135,10 +4134,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
@@ -4239,10 +4238,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>189</v>
@@ -4263,10 +4262,10 @@
         <v>219</v>
       </c>
       <c r="L19" s="43">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2">
         <v>3</v>
-      </c>
-      <c r="M19" s="2">
-        <v>2</v>
       </c>
       <c r="N19" s="15">
         <v>0</v>
@@ -4314,10 +4313,10 @@
         <v>219</v>
       </c>
       <c r="L20" s="43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="15">
         <v>0</v>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="249">
   <si>
     <t>Catalog</t>
   </si>
@@ -1125,6 +1125,9 @@
 2. Mongo Exporter (Evelyn)
 3. DB Size Metric - Alert (Evelyn)
 4. Reboot Script (Evelyn)</t>
+  </si>
+  <si>
+    <t>ffdf</t>
   </si>
 </sst>
 </file>
@@ -1618,35 +1621,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2037,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3049,8 +3052,8 @@
       <c r="J22" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="K22" s="38" t="s">
-        <v>197</v>
+      <c r="K22" s="43">
+        <v>0.25600000000000001</v>
       </c>
       <c r="L22" s="38" t="s">
         <v>197</v>
@@ -3103,8 +3106,8 @@
       <c r="K23" s="2">
         <v>0.128</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>197</v>
+      <c r="L23" s="2">
+        <v>8</v>
       </c>
       <c r="M23" s="38" t="s">
         <v>197</v>
@@ -3247,11 +3250,11 @@
       <c r="A27" s="13"/>
       <c r="K27" s="2">
         <f>SUM(K2:K26)</f>
-        <v>24.022000000000002</v>
+        <v>24.278000000000002</v>
       </c>
       <c r="L27" s="2">
         <f>SUM(L2:L26)</f>
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
   </sheetData>
@@ -3282,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3441,7 +3444,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="62">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3480,7 +3483,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="65"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -4380,7 +4383,7 @@
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="53"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="64" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4433,7 +4436,7 @@
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
       <c r="A23" s="53"/>
-      <c r="B23" s="63"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="22" t="s">
         <v>204</v>
       </c>
@@ -4515,8 +4518,8 @@
       <c r="L24" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="M24" s="38" t="s">
-        <v>197</v>
+      <c r="M24" s="43">
+        <v>0.25600000000000001</v>
       </c>
       <c r="N24" s="38" t="s">
         <v>226</v>
@@ -4575,7 +4578,7 @@
         <v>197</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="P25" s="38" t="s">
         <v>197</v>
@@ -4630,8 +4633,8 @@
       <c r="M26" s="2">
         <v>0.128</v>
       </c>
-      <c r="N26" s="38" t="s">
-        <v>197</v>
+      <c r="N26" s="2">
+        <v>8</v>
       </c>
       <c r="O26" s="38" t="s">
         <v>197</v>
@@ -4790,17 +4793,11 @@
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>
-        <v>3512</v>
+        <v>3520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -4808,6 +4805,12 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4934,42 +4937,42 @@
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="53"/>
       <c r="B8" s="61"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="53"/>
       <c r="B9" s="61"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="53"/>
       <c r="B10" s="61"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="53"/>
       <c r="B11" s="61"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="53"/>
       <c r="B12" s="61"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" s="53"/>
@@ -5024,7 +5027,7 @@
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="53"/>
       <c r="B17" s="61"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
@@ -5036,7 +5039,7 @@
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="53"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="70"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
@@ -5071,7 +5074,7 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="53"/>
-      <c r="B21" s="69"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
@@ -5113,7 +5116,7 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="53"/>
-      <c r="B25" s="69"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="2" t="s">
         <v>141</v>
       </c>
@@ -5123,7 +5126,7 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="53"/>
-      <c r="B26" s="69"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="2" t="s">
         <v>139</v>
       </c>
@@ -5133,7 +5136,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="53"/>
-      <c r="B27" s="67"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
@@ -5163,7 +5166,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="71" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5204,7 +5207,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
       <c r="A33" s="56"/>
-      <c r="B33" s="69"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="2" t="s">
         <v>99</v>
       </c>
@@ -5214,7 +5217,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
       <c r="A34" s="56"/>
-      <c r="B34" s="69"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="60" t="s">
         <v>100</v>
       </c>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
       <c r="A35" s="56"/>
-      <c r="B35" s="69"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="61"/>
       <c r="D35" s="21" t="s">
         <v>46</v>
@@ -5236,8 +5239,8 @@
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
       <c r="A36" s="56"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="66" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -5249,7 +5252,7 @@
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
       <c r="A37" s="56"/>
       <c r="B37" s="52"/>
-      <c r="C37" s="67"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="21" t="s">
         <v>102</v>
       </c>
@@ -5367,6 +5370,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -5376,12 +5385,6 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="250">
   <si>
     <t>Catalog</t>
   </si>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>core-dns-1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Container Runtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,22 +470,6 @@
   </si>
   <si>
     <t>v2.7.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>core-dns-1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongo-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postgres-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1048,10 +1028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minio-2.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. memory scaling
 2. pv scaling
 3. on new node
@@ -1100,16 +1076,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nginx-ingress-0.28.6</t>
-  </si>
-  <si>
     <t>MongoDB-Exporter-1.0.1</t>
   </si>
   <si>
     <t>prometheus-8.4.8</t>
-  </si>
-  <si>
-    <t>es-edgesense-1.0.2</t>
   </si>
   <si>
     <t>postgres/@dvant1cH</t>
@@ -1128,6 +1098,37 @@
   </si>
   <si>
     <t>ffdf</t>
+  </si>
+  <si>
+    <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
+basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
+ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
+config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
+config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>core-dns-1.1.2</t>
+  </si>
+  <si>
+    <t>postgres-1.0.1</t>
+  </si>
+  <si>
+    <t>mongo-1.0.1</t>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.1</t>
+  </si>
+  <si>
+    <t>minio-2.3.6</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.7</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.3</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1988,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1">
@@ -2001,7 +2002,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -2018,15 +2019,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2042,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2075,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -2084,43 +2085,43 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
@@ -2128,21 +2129,21 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -2171,13 +2172,13 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -2188,29 +2189,29 @@
         <v>0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="53"/>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2234,18 +2235,18 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -2256,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2289,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -2307,25 +2308,25 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2">
         <v>6</v>
@@ -2334,18 +2335,18 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2356,25 +2357,25 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2383,18 +2384,18 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2407,25 +2408,25 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2">
         <v>6</v>
@@ -2434,22 +2435,22 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2459,28 +2460,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="18">
         <v>0.25600000000000001</v>
@@ -2489,21 +2490,21 @@
         <v>10</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
@@ -2512,28 +2513,28 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="18">
         <v>0.128</v>
@@ -2542,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -2557,28 +2558,28 @@
       <c r="A12" s="53"/>
       <c r="B12" s="56"/>
       <c r="C12" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="G12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="18">
         <v>0.128</v>
@@ -2587,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
@@ -2602,28 +2603,28 @@
       <c r="A13" s="53"/>
       <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="18">
         <v>0.192</v>
@@ -2632,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2647,40 +2648,40 @@
       <c r="A14" s="53"/>
       <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2695,25 +2696,25 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2">
         <v>2.0379999999999998</v>
@@ -2722,22 +2723,22 @@
         <v>256</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2747,28 +2748,28 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2">
         <v>0.128</v>
@@ -2777,23 +2778,23 @@
         <v>10</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2805,25 +2806,25 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -2832,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
@@ -2850,25 +2851,25 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2">
         <v>0.51200000000000001</v>
@@ -2877,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -2894,28 +2895,28 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2">
         <v>2</v>
@@ -2924,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
@@ -2945,24 +2946,24 @@
       <c r="A20" s="53"/>
       <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -2971,13 +2972,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -2991,19 +2992,19 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2">
         <v>0.51200000000000001</v>
@@ -3012,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -3026,82 +3027,82 @@
     <row r="22" spans="1:19">
       <c r="A22" s="53"/>
       <c r="B22" s="41" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="42" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="123.75" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="41" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K23" s="2">
         <v>0.128</v>
@@ -3110,19 +3111,19 @@
         <v>8</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
@@ -3130,38 +3131,38 @@
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="53"/>
       <c r="B24" s="41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
@@ -3171,13 +3172,13 @@
     <row r="25" spans="1:19" ht="83.25" customHeight="1">
       <c r="A25" s="53"/>
       <c r="B25" s="51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -3185,7 +3186,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K25" s="15">
         <v>0</v>
@@ -3194,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R25" s="42"/>
       <c r="S25" s="21"/>
@@ -3209,10 +3210,10 @@
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3220,7 +3221,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -3229,21 +3230,21 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -3285,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3322,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -3331,49 +3332,49 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
@@ -3381,21 +3382,21 @@
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="44"/>
@@ -3410,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -3430,13 +3431,13 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="44"/>
@@ -3451,29 +3452,29 @@
         <v>0</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="53"/>
       <c r="B4" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3506,13 +3507,13 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3527,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -3564,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -3582,28 +3583,28 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3615,18 +3616,18 @@
         <v>2816</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -3637,28 +3638,28 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3670,18 +3671,18 @@
         <v>16</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3694,28 +3695,28 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3727,22 +3728,22 @@
         <v>128</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -3752,31 +3753,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3788,21 +3789,21 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
       <c r="U10" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
@@ -3811,31 +3812,31 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3847,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3862,31 +3863,31 @@
       <c r="A12" s="53"/>
       <c r="B12" s="56"/>
       <c r="C12" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="G12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -3898,10 +3899,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
@@ -3913,31 +3914,31 @@
       <c r="A13" s="53"/>
       <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -3949,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="40"/>
@@ -3963,46 +3964,46 @@
       <c r="A14" s="53"/>
       <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4017,28 +4018,28 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4050,22 +4051,22 @@
         <v>512</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -4075,31 +4076,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4111,21 +4112,21 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -4137,28 +4138,28 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4170,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -4188,28 +4189,28 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>243</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4221,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
@@ -4238,31 +4239,31 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4274,16 +4275,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S19" s="46"/>
       <c r="T19" s="40"/>
@@ -4293,27 +4294,27 @@
       <c r="A20" s="53"/>
       <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4325,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -4343,22 +4344,22 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4370,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
@@ -4384,52 +4385,52 @@
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="53"/>
       <c r="B22" s="64" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="51" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T22" s="51"/>
       <c r="U22" s="51"/>
@@ -4438,43 +4439,43 @@
       <c r="A23" s="53"/>
       <c r="B23" s="65"/>
       <c r="C23" s="22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -4486,52 +4487,52 @@
     <row r="24" spans="1:21">
       <c r="A24" s="53"/>
       <c r="B24" s="39" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
@@ -4539,34 +4540,34 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="53"/>
       <c r="B25" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4575,22 +4576,22 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4598,34 +4599,34 @@
     <row r="26" spans="1:21" ht="105" customHeight="1">
       <c r="A26" s="53"/>
       <c r="B26" s="41" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4637,19 +4638,19 @@
         <v>8</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -4657,38 +4658,38 @@
     <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="53"/>
       <c r="B27" s="39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -4700,13 +4701,13 @@
     <row r="28" spans="1:21" ht="83.25" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -4714,7 +4715,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15">
@@ -4727,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="40" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="T28" s="25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="U28" s="40"/>
     </row>
@@ -4744,10 +4745,10 @@
       <c r="A29" s="54"/>
       <c r="B29" s="55"/>
       <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4755,7 +4756,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15">
@@ -4768,21 +4769,21 @@
         <v>0</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -4847,51 +4848,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
       <c r="A3" s="53"/>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4901,14 +4902,14 @@
     <row r="5" spans="1:6" ht="24" customHeight="1">
       <c r="A5" s="53"/>
       <c r="B5" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -4916,11 +4917,11 @@
       <c r="A6" s="53"/>
       <c r="B6" s="61"/>
       <c r="C6" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -4928,7 +4929,7 @@
       <c r="A7" s="53"/>
       <c r="B7" s="61"/>
       <c r="C7" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -4978,7 +4979,7 @@
       <c r="A13" s="53"/>
       <c r="B13" s="61"/>
       <c r="C13" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4988,23 +4989,23 @@
       <c r="A14" s="53"/>
       <c r="B14" s="61"/>
       <c r="C14" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
       <c r="A15" s="53"/>
       <c r="B15" s="61"/>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5014,13 +5015,13 @@
       <c r="A16" s="53"/>
       <c r="B16" s="61"/>
       <c r="C16" s="60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -5029,10 +5030,10 @@
       <c r="B17" s="61"/>
       <c r="C17" s="66"/>
       <c r="D17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -5041,20 +5042,20 @@
       <c r="B18" s="61"/>
       <c r="C18" s="66"/>
       <c r="D18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5063,10 +5064,10 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="53"/>
       <c r="B20" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5076,7 +5077,7 @@
       <c r="A21" s="53"/>
       <c r="B21" s="68"/>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5086,7 +5087,7 @@
       <c r="A22" s="53"/>
       <c r="B22" s="52"/>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -5095,7 +5096,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5105,10 +5106,10 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5118,7 +5119,7 @@
       <c r="A25" s="53"/>
       <c r="B25" s="68"/>
       <c r="C25" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5128,7 +5129,7 @@
       <c r="A26" s="53"/>
       <c r="B26" s="68"/>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5138,7 +5139,7 @@
       <c r="A27" s="53"/>
       <c r="B27" s="69"/>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5147,18 +5148,18 @@
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
       <c r="A29" s="53"/>
       <c r="B29" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5167,39 +5168,39 @@
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
       <c r="A30" s="71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
       <c r="A31" s="56"/>
       <c r="B31" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
       <c r="A32" s="56"/>
       <c r="B32" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5209,7 +5210,7 @@
       <c r="A33" s="56"/>
       <c r="B33" s="68"/>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5219,10 +5220,10 @@
       <c r="A34" s="56"/>
       <c r="B34" s="68"/>
       <c r="C34" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -5232,7 +5233,7 @@
       <c r="B35" s="68"/>
       <c r="C35" s="61"/>
       <c r="D35" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -5241,10 +5242,10 @@
       <c r="A36" s="56"/>
       <c r="B36" s="68"/>
       <c r="C36" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -5254,17 +5255,17 @@
       <c r="B37" s="52"/>
       <c r="C37" s="69"/>
       <c r="D37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
       <c r="A38" s="56"/>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5274,7 +5275,7 @@
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5284,10 +5285,10 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="56"/>
       <c r="B40" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5297,7 +5298,7 @@
       <c r="A41" s="56"/>
       <c r="B41" s="56"/>
       <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5307,7 +5308,7 @@
       <c r="A42" s="56"/>
       <c r="B42" s="52"/>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5316,7 +5317,7 @@
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="56"/>
       <c r="B43" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5325,10 +5326,10 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5338,7 +5339,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5348,7 +5349,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="61"/>
       <c r="B46" s="36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5357,7 +5358,7 @@
     </row>
     <row r="47" spans="1:6" ht="20.25" customHeight="1">
       <c r="A47" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="16"/>
@@ -5416,54 +5417,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5502,38 +5503,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5572,24 +5573,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5597,13 +5598,13 @@
     <row r="3" spans="1:5" ht="42" customHeight="1">
       <c r="A3" s="56"/>
       <c r="B3" s="72" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5612,16 +5613,16 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -3286,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="254">
   <si>
     <t>Catalog</t>
   </si>
@@ -715,14 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
-basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
-ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
-config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
-config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChangeIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,18 +837,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/coredns:1.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.98)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-rmm-worker:1.0.98)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.42)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1129,6 +1109,39 @@
   </si>
   <si>
     <t>es-edgesense-1.0.3</t>
+  </si>
+  <si>
+    <t>chartmuseum-2.2.1</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-rmm-portal:1.0.98</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-rmm-worker:1.0.98</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-ota-worker:1.0.42</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/chartmuseum:v0.8.2</t>
+  </si>
+  <si>
+    <t>/etc/charts</t>
+  </si>
+  <si>
+    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
+2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password @dvant1cH
+3. helm push ./minin chartmuseum
+4. helm repo update
+5. helm search chartmuseum
+6. helm install --name es-minio chartmuseum/minio</t>
+  </si>
+  <si>
+    <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
+basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
+ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
+config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
+config - /home/ubuntu/.kube (root,ubuntu) — 644  — fill in IP + ca /// sudo chattr -V +ia config</t>
   </si>
 </sst>
 </file>
@@ -2041,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="M16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2172,7 +2185,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -2196,7 +2209,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2235,7 +2248,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2263,10 +2276,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2308,10 +2321,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -2335,7 +2348,7 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>40</v>
@@ -2343,10 +2356,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2357,10 +2370,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -2384,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>40</v>
@@ -2392,10 +2405,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2408,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -2435,7 +2448,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>40</v>
@@ -2447,10 +2460,10 @@
         <v>40</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2463,10 +2476,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>124</v>
@@ -2603,16 +2616,16 @@
       <c r="A13" s="53"/>
       <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -2633,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>40</v>
@@ -2648,40 +2661,40 @@
       <c r="A14" s="53"/>
       <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>181</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2696,10 +2709,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>145</v>
@@ -2738,7 +2751,7 @@
         <v>148</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2751,13 +2764,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -2806,10 +2819,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -2851,13 +2864,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>40</v>
@@ -2898,13 +2911,13 @@
         <v>43</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -2937,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
@@ -2951,7 +2964,7 @@
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -2978,7 +2991,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -2992,7 +3005,7 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -3019,7 +3032,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -3027,82 +3040,82 @@
     <row r="22" spans="1:19">
       <c r="A22" s="53"/>
       <c r="B22" s="41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="123.75" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>192</v>
+        <v>227</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K23" s="2">
         <v>0.128</v>
@@ -3111,58 +3124,60 @@
         <v>8</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="O23" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="P23" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="R23" s="42"/>
+        <v>252</v>
+      </c>
+      <c r="R23" s="42" t="s">
+        <v>251</v>
+      </c>
       <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="53"/>
       <c r="B24" s="41" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
@@ -3175,7 +3190,7 @@
         <v>117</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>118</v>
@@ -3201,7 +3216,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="R25" s="42"/>
       <c r="S25" s="21"/>
@@ -3286,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3344,10 +3359,10 @@
         <v>64</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>34</v>
@@ -3431,7 +3446,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -3459,7 +3474,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -3534,10 +3549,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -3583,10 +3598,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -3604,7 +3619,7 @@
         <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3624,10 +3639,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -3638,10 +3653,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -3659,7 +3674,7 @@
         <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3679,10 +3694,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3695,10 +3710,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -3716,7 +3731,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3740,10 +3755,10 @@
         <v>40</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -3756,10 +3771,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>124</v>
@@ -3777,7 +3792,7 @@
         <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3815,13 +3830,13 @@
         <v>125</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>40</v>
@@ -3836,7 +3851,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3887,7 +3902,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -3914,16 +3929,16 @@
       <c r="A13" s="53"/>
       <c r="B13" s="56"/>
       <c r="C13" s="43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -3938,7 +3953,7 @@
         <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -3950,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>40</v>
@@ -3964,46 +3979,46 @@
       <c r="A14" s="53"/>
       <c r="B14" s="56"/>
       <c r="C14" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>181</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4018,10 +4033,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>145</v>
@@ -4039,7 +4054,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4063,10 +4078,10 @@
         <v>40</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -4079,13 +4094,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -4100,7 +4115,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4138,10 +4153,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -4159,7 +4174,7 @@
         <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4189,13 +4204,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>40</v>
@@ -4210,7 +4225,7 @@
         <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4242,13 +4257,13 @@
         <v>43</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -4263,7 +4278,7 @@
         <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4299,7 +4314,7 @@
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="18" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -4314,7 +4329,7 @@
         <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4344,7 +4359,7 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="18" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -4359,7 +4374,7 @@
         <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4377,7 +4392,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
@@ -4385,52 +4400,52 @@
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="53"/>
       <c r="B22" s="64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="51" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T22" s="51"/>
       <c r="U22" s="51"/>
@@ -4439,43 +4454,43 @@
       <c r="A23" s="53"/>
       <c r="B23" s="65"/>
       <c r="C23" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -4487,52 +4502,52 @@
     <row r="24" spans="1:21">
       <c r="A24" s="53"/>
       <c r="B24" s="39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
@@ -4540,34 +4555,34 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="53"/>
       <c r="B25" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4576,22 +4591,22 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4599,34 +4614,34 @@
     <row r="26" spans="1:21" ht="105" customHeight="1">
       <c r="A26" s="53"/>
       <c r="B26" s="41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>192</v>
+        <v>227</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4638,19 +4653,19 @@
         <v>8</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -4658,38 +4673,38 @@
     <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="53"/>
       <c r="B27" s="39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -4704,7 +4719,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>118</v>
@@ -4734,10 +4749,10 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="T28" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U28" s="40"/>
     </row>
@@ -5326,7 +5341,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>112</v>
@@ -5339,7 +5354,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5349,7 +5364,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="61"/>
       <c r="B46" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5453,18 +5468,18 @@
         <v>142</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5511,30 +5526,30 @@
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5573,10 +5588,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>108</v>
@@ -5584,13 +5599,13 @@
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5598,13 +5613,13 @@
     <row r="3" spans="1:5" ht="42" customHeight="1">
       <c r="A3" s="56"/>
       <c r="B3" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5613,16 +5628,16 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="256">
   <si>
     <t>Catalog</t>
   </si>
@@ -1142,6 +1142,12 @@
 ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
 config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
 config - /home/ubuntu/.kube (root,ubuntu) — 644  — fill in IP + ca /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>mongo-1.0.2</t>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.2</t>
   </si>
 </sst>
 </file>
@@ -2054,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2321,10 +2327,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -2421,10 +2427,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="255">
   <si>
     <t>Catalog</t>
   </si>
@@ -840,10 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.IPChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LDAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,15 +1031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
-2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password @dvant1cH
-3. helm push ./minin chartmuseum
-4. helm update repo
-5. helm search chartmuseum
-6. helm install --name es-minio chartmuseum/minio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChartMuseum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1087,21 +1074,12 @@
 config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>core-dns-1.1.2</t>
   </si>
   <si>
     <t>postgres-1.0.1</t>
   </si>
   <si>
-    <t>mongo-1.0.1</t>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.1</t>
-  </si>
-  <si>
     <t>minio-2.3.6</t>
   </si>
   <si>
@@ -1124,9 +1102,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/chartmuseum:v0.8.2</t>
-  </si>
-  <si>
-    <t>/etc/charts</t>
   </si>
   <si>
     <t>1. helm plugin install https://github.com/chartmuseum/helm-push
@@ -1137,17 +1112,38 @@
 6. helm install --name es-minio chartmuseum/minio</t>
   </si>
   <si>
+    <t>mongo-1.0.2</t>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.2</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>/etc/chart
+1. helm plugin install https://github.com/maorfr/helm-backup
+2. helm backup &lt;namespace&gt;
+3. helm backup -r &lt;namespace&gt;.tgz</t>
+  </si>
+  <si>
+    <t>scripts - /home/ubuntu/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
     <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
 basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
 ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
 config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
-config - /home/ubuntu/.kube (root,ubuntu) — 644  — fill in IP + ca /// sudo chattr -V +ia config</t>
-  </si>
-  <si>
-    <t>mongo-1.0.2</t>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.2</t>
+config —  /home/ubuntu/.kube (root,ubuntu) — 644  — fill in IP + ca /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>charts — /etc/charts — 600
+1. helm plugin install https://github.com/maorfr/helm-backup
+2. helm backup &lt;namespace&gt;
+3. helm backup -r &lt;namespace&gt;.tgz</t>
+  </si>
+  <si>
+    <t>Scripts</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1607,6 +1603,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2058,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2079,7 +2078,7 @@
     <col min="13" max="15" width="18.625" style="11" customWidth="1"/>
     <col min="16" max="16" width="16" style="11" customWidth="1"/>
     <col min="17" max="17" width="132.375" style="11" customWidth="1"/>
-    <col min="18" max="18" width="54.75" style="11" customWidth="1"/>
+    <col min="18" max="18" width="97.75" style="11" customWidth="1"/>
     <col min="19" max="19" width="71.5" style="11" customWidth="1"/>
     <col min="20" max="16384" width="9" style="11"/>
   </cols>
@@ -2144,7 +2143,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2181,7 +2180,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2191,7 +2190,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -2201,7 +2200,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="51">
+      <c r="K3" s="52">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2215,12 +2214,12 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
@@ -2236,7 +2235,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="52"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2249,12 +2248,12 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="61" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2282,16 +2281,16 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2319,18 +2318,18 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -2354,7 +2353,7 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>40</v>
@@ -2370,16 +2369,16 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -2403,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>40</v>
@@ -2419,7 +2418,7 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2427,10 +2426,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -2454,7 +2453,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>40</v>
@@ -2466,7 +2465,7 @@
         <v>40</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>173</v>
@@ -2474,7 +2473,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2482,10 +2481,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>124</v>
@@ -2527,9 +2526,9 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
-        <v>25</v>
+      <c r="A11" s="54"/>
+      <c r="B11" s="52" t="s">
+        <v>249</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>125</v>
@@ -2574,8 +2573,8 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="18" t="s">
         <v>122</v>
       </c>
@@ -2619,19 +2618,19 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -2652,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>40</v>
@@ -2664,8 +2663,8 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="18" t="s">
         <v>179</v>
       </c>
@@ -2709,16 +2708,16 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>145</v>
@@ -2757,12 +2756,12 @@
         <v>148</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2770,13 +2769,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -2817,7 +2816,7 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2825,10 +2824,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -2862,7 +2861,7 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2870,10 +2869,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>182</v>
@@ -2909,21 +2908,21 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="53"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>245</v>
+      <c r="D19" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>240</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -2962,15 +2961,15 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="53"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -3003,15 +3002,15 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="18" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -3043,85 +3042,85 @@
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="53"/>
+    <row r="22" spans="1:19" ht="16.5">
+      <c r="A22" s="54"/>
       <c r="B22" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="123.75" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="K23" s="2">
         <v>0.128</v>
@@ -3130,7 +3129,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>40</v>
@@ -3142,57 +3141,57 @@
         <v>40</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="R23" s="42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -3222,14 +3221,13 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="R25" s="42"/>
+        <v>252</v>
+      </c>
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="54" customHeight="1">
       <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="2" t="s">
         <v>119</v>
       </c>
@@ -3262,28 +3260,61 @@
       <c r="P26" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21" t="s">
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="13"/>
-      <c r="K27" s="2">
-        <f>SUM(K2:K26)</f>
+    <row r="27" spans="1:19" ht="54" customHeight="1">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="13"/>
+      <c r="K28" s="2">
+        <f>SUM(K2:K27)</f>
         <v>24.278000000000002</v>
       </c>
-      <c r="L27" s="2">
-        <f>SUM(L2:L26)</f>
+      <c r="L28" s="2">
+        <f>SUM(L2:L27)</f>
         <v>1764</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="B7:B8"/>
@@ -3305,10 +3336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3328,7 +3359,7 @@
     <col min="15" max="17" width="18.625" style="11" customWidth="1"/>
     <col min="18" max="18" width="16" style="11" customWidth="1"/>
     <col min="19" max="19" width="132.375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="54.75" style="11" customWidth="1"/>
+    <col min="20" max="20" width="83.75" style="11" customWidth="1"/>
     <col min="21" max="21" width="71.5" style="11" customWidth="1"/>
     <col min="22" max="16384" width="9" style="11"/>
   </cols>
@@ -3365,10 +3396,10 @@
         <v>64</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>34</v>
@@ -3399,7 +3430,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3442,7 +3473,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3452,7 +3483,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -3466,7 +3497,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="63">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3480,12 +3511,12 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
@@ -3505,7 +3536,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3518,8 +3549,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="61" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3555,7 +3586,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T5" s="31" t="s">
         <v>174</v>
@@ -3563,8 +3594,8 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -3596,18 +3627,18 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -3625,7 +3656,7 @@
         <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3645,7 +3676,7 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T7" s="40" t="s">
         <v>172</v>
@@ -3653,16 +3684,16 @@
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -3680,7 +3711,7 @@
         <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3700,15 +3731,15 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3716,10 +3747,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -3737,7 +3768,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3761,7 +3792,7 @@
         <v>40</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T9" s="34" t="s">
         <v>173</v>
@@ -3769,7 +3800,7 @@
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -3777,10 +3808,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>124</v>
@@ -3798,7 +3829,7 @@
         <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3828,21 +3859,21 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>40</v>
@@ -3857,7 +3888,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3881,8 +3912,8 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="18" t="s">
         <v>122</v>
       </c>
@@ -3908,7 +3939,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -3932,19 +3963,19 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -3959,7 +3990,7 @@
         <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -3971,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>40</v>
@@ -3982,8 +4013,8 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="18" t="s">
         <v>179</v>
       </c>
@@ -4006,13 +4037,13 @@
         <v>180</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M14" s="38" t="s">
         <v>180</v>
@@ -4033,16 +4064,16 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>145</v>
@@ -4060,7 +4091,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4084,7 +4115,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T15" s="25" t="s">
         <v>175</v>
@@ -4092,7 +4123,7 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -4100,13 +4131,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -4121,7 +4152,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4151,7 +4182,7 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4159,10 +4190,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -4180,7 +4211,7 @@
         <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4202,7 +4233,7 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
@@ -4210,10 +4241,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>182</v>
@@ -4231,7 +4262,7 @@
         <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4255,21 +4286,21 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="53"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>245</v>
+      <c r="D19" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>240</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -4284,7 +4315,7 @@
         <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4312,15 +4343,15 @@
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="53"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -4335,7 +4366,7 @@
         <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4357,15 +4388,15 @@
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="18" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -4380,7 +4411,7 @@
         <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4398,197 +4429,197 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>192</v>
-      </c>
       <c r="E22" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
-      <c r="S22" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
+      <c r="S22" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" ht="63">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4597,57 +4628,57 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
     </row>
     <row r="26" spans="1:21" ht="105" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4659,58 +4690,60 @@
         <v>8</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="P26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="R26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="S26" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="T26" s="42"/>
+        <v>187</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="T26" s="51" t="s">
+        <v>250</v>
+      </c>
       <c r="U26" s="42"/>
     </row>
     <row r="27" spans="1:21" ht="16.5">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -4720,8 +4753,8 @@
       <c r="U27" s="40"/>
     </row>
     <row r="28" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -4755,16 +4788,14 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="T28" s="25" t="s">
-        <v>183</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="T28" s="51"/>
       <c r="U28" s="40"/>
     </row>
     <row r="29" spans="1:21" ht="54" customHeight="1">
       <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="2" t="s">
         <v>119</v>
       </c>
@@ -4801,31 +4832,68 @@
       <c r="R29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40" t="s">
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="13"/>
-      <c r="M30" s="2">
-        <f>SUMPRODUCT(L2:L29,M2:M29)</f>
+    <row r="30" spans="1:21" ht="54" customHeight="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="13"/>
+      <c r="M31" s="2">
+        <f>SUMPRODUCT(L2:L30,M2:M30)</f>
         <v>49.533999999999999</v>
       </c>
-      <c r="N30" s="2">
-        <f>SUM(N2:N29)</f>
+      <c r="N31" s="2">
+        <f>SUM(N2:N30)</f>
         <v>3520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A2:A30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="S22:S23"/>
@@ -4885,7 +4953,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4899,7 +4967,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -4911,7 +4979,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="21" t="s">
         <v>133</v>
       </c>
@@ -4921,8 +4989,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="61" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4935,8 +5003,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="6" t="s">
         <v>137</v>
       </c>
@@ -4947,58 +5015,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="60" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="6" t="s">
         <v>130</v>
       </c>
@@ -5007,8 +5075,8 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="26" t="s">
         <v>57</v>
       </c>
@@ -5023,8 +5091,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="6" t="s">
         <v>97</v>
       </c>
@@ -5033,9 +5101,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="60" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="61" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -5047,9 +5115,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
@@ -5059,9 +5127,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="66"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
@@ -5071,7 +5139,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
@@ -5083,8 +5151,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="52" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5095,8 +5163,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
@@ -5105,8 +5173,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
@@ -5115,7 +5183,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="24" t="s">
         <v>105</v>
       </c>
@@ -5125,8 +5193,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5137,8 +5205,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="2" t="s">
         <v>136</v>
       </c>
@@ -5147,8 +5215,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="2" t="s">
         <v>134</v>
       </c>
@@ -5157,8 +5225,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="69"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
@@ -5167,7 +5235,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="24" t="s">
         <v>110</v>
       </c>
@@ -5178,7 +5246,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="12" t="s">
         <v>88</v>
       </c>
@@ -5188,7 +5256,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="72" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5202,7 +5270,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="21" t="s">
         <v>47</v>
       </c>
@@ -5216,8 +5284,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5228,8 +5296,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="2" t="s">
         <v>98</v>
       </c>
@@ -5238,9 +5306,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="60" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="61" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -5250,9 +5318,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="21" t="s">
         <v>45</v>
       </c>
@@ -5260,9 +5328,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="70" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="71" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -5272,9 +5340,9 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="69"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="21" t="s">
         <v>101</v>
       </c>
@@ -5284,7 +5352,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
@@ -5294,7 +5362,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="24" t="s">
         <v>105</v>
       </c>
@@ -5304,8 +5372,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5316,8 +5384,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="2" t="s">
         <v>104</v>
       </c>
@@ -5326,8 +5394,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="2" t="s">
         <v>103</v>
       </c>
@@ -5336,7 +5404,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="24" t="s">
         <v>110</v>
       </c>
@@ -5346,7 +5414,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="54" t="s">
         <v>155</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -5358,7 +5426,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="36" t="s">
         <v>153</v>
       </c>
@@ -5368,7 +5436,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="36" t="s">
         <v>154</v>
       </c>
@@ -5604,7 +5672,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5617,11 +5685,11 @@
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="72" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5630,9 +5698,9 @@
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2" t="s">
         <v>166</v>
       </c>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="258">
   <si>
     <t>Catalog</t>
   </si>
@@ -486,10 +486,6 @@
   </si>
   <si>
     <t>Docker-Secrets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker-Secrets-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1080,16 +1076,10 @@
     <t>postgres-1.0.1</t>
   </si>
   <si>
-    <t>minio-2.3.6</t>
-  </si>
-  <si>
     <t>nginx-ingress-0.28.7</t>
   </si>
   <si>
     <t>es-edgesense-1.0.3</t>
-  </si>
-  <si>
-    <t>chartmuseum-2.2.1</t>
   </si>
   <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.98</t>
@@ -1121,15 +1111,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>/etc/chart
-1. helm plugin install https://github.com/maorfr/helm-backup
-2. helm backup &lt;namespace&gt;
-3. helm backup -r &lt;namespace&gt;.tgz</t>
-  </si>
-  <si>
-    <t>scripts - /home/ubuntu/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia config</t>
-  </si>
-  <si>
     <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
 basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
 ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
@@ -1143,7 +1124,38 @@
 3. helm backup -r &lt;namespace&gt;.tgz</t>
   </si>
   <si>
-    <t>Scripts</t>
+    <t>/etc/chart
+1. helm plugin install https://github.com/maorfr/helm-backup
+2. kubectl create ns &lt;namespace&gt;
+3.. helm backup &lt;namespace&gt;
+4. helm backup -r &lt;namespace&gt;.tgz</t>
+  </si>
+  <si>
+    <t>chartmuseum-2.2.2</t>
+  </si>
+  <si>
+    <t>Docker-Secrets-1.0.1</t>
+  </si>
+  <si>
+    <t>minio-2.3.7</t>
+  </si>
+  <si>
+    <t>*(dashboard?) config or config-dsadmin — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>reboot scripts - /home/ubuntu/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia *
+chart-operator — /root/utilities (root,ubuntu) — 755  —  /// sudo chattr -V +ia *</t>
+  </si>
+  <si>
+    <t>shutdown-bootup - /home/ubuntu/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia *
+shutdown-bootup — /root/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia *
+chart-operator — /root/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia *</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Utility-1.0.1</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -2045,7 +2057,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2059,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" activeCellId="1" sqref="D27 F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2078,7 +2090,7 @@
     <col min="13" max="15" width="18.625" style="11" customWidth="1"/>
     <col min="16" max="16" width="16" style="11" customWidth="1"/>
     <col min="17" max="17" width="132.375" style="11" customWidth="1"/>
-    <col min="18" max="18" width="97.75" style="11" customWidth="1"/>
+    <col min="18" max="18" width="107.75" style="11" customWidth="1"/>
     <col min="19" max="19" width="71.5" style="11" customWidth="1"/>
     <col min="20" max="16384" width="9" style="11"/>
   </cols>
@@ -2190,7 +2202,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -2214,7 +2226,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2229,7 +2241,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2253,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2281,10 +2293,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2326,10 +2338,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -2353,7 +2365,7 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>40</v>
@@ -2361,10 +2373,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2375,10 +2387,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -2402,7 +2414,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>40</v>
@@ -2410,10 +2422,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2426,10 +2438,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -2453,7 +2465,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>40</v>
@@ -2465,10 +2477,10 @@
         <v>40</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2481,13 +2493,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>40</v>
@@ -2528,19 +2540,19 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>40</v>
@@ -2576,16 +2588,16 @@
       <c r="A12" s="54"/>
       <c r="B12" s="57"/>
       <c r="C12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>40</v>
@@ -2621,16 +2633,16 @@
       <c r="A13" s="54"/>
       <c r="B13" s="57"/>
       <c r="C13" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -2651,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>40</v>
@@ -2666,40 +2678,40 @@
       <c r="A14" s="54"/>
       <c r="B14" s="57"/>
       <c r="C14" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>180</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2714,13 +2726,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>40</v>
@@ -2753,10 +2765,10 @@
         <v>40</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2769,13 +2781,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -2808,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
@@ -2824,10 +2836,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -2869,13 +2881,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>40</v>
@@ -2916,13 +2928,13 @@
         <v>43</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -2955,7 +2967,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
@@ -2969,7 +2981,7 @@
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -2996,7 +3008,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -3010,7 +3022,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -3037,7 +3049,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -3045,70 +3057,70 @@
     <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="54"/>
       <c r="B22" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="D22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="123.75" customHeight="1">
       <c r="A23" s="54"/>
       <c r="B23" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>40</v>
@@ -3120,7 +3132,7 @@
         <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="2">
         <v>0.128</v>
@@ -3129,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>40</v>
@@ -3141,48 +3153,48 @@
         <v>40</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R23" s="42" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="54"/>
       <c r="B24" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="33"/>
@@ -3195,7 +3207,7 @@
         <v>117</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>118</v>
@@ -3221,7 +3233,10 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="S25" s="21"/>
     </row>
@@ -3232,7 +3247,7 @@
         <v>119</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3240,7 +3255,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -3270,9 +3285,11 @@
       <c r="A27" s="55"/>
       <c r="B27" s="56"/>
       <c r="C27" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" s="15"/>
+        <v>256</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -3291,8 +3308,8 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="42" t="s">
-        <v>251</v>
+      <c r="Q27" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21" t="s">
@@ -3338,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3359,7 +3376,7 @@
     <col min="15" max="17" width="18.625" style="11" customWidth="1"/>
     <col min="18" max="18" width="16" style="11" customWidth="1"/>
     <col min="19" max="19" width="132.375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="83.75" style="11" customWidth="1"/>
+    <col min="20" max="20" width="109.375" style="11" customWidth="1"/>
     <col min="21" max="21" width="71.5" style="11" customWidth="1"/>
     <col min="22" max="16384" width="9" style="11"/>
   </cols>
@@ -3396,10 +3413,10 @@
         <v>64</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>34</v>
@@ -3483,7 +3500,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -3511,7 +3528,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -3526,7 +3543,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3586,10 +3603,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -3635,10 +3652,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -3656,7 +3673,7 @@
         <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3676,10 +3693,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -3690,10 +3707,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -3711,7 +3728,7 @@
         <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3731,10 +3748,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3747,10 +3764,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -3768,7 +3785,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3792,10 +3809,10 @@
         <v>40</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -3808,13 +3825,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>40</v>
@@ -3829,7 +3846,7 @@
         <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3864,16 +3881,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>40</v>
@@ -3888,7 +3905,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3915,16 +3932,16 @@
       <c r="A12" s="54"/>
       <c r="B12" s="57"/>
       <c r="C12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>40</v>
@@ -3939,7 +3956,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -3966,16 +3983,16 @@
       <c r="A13" s="54"/>
       <c r="B13" s="57"/>
       <c r="C13" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -3990,7 +4007,7 @@
         <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4002,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>40</v>
@@ -4016,46 +4033,46 @@
       <c r="A14" s="54"/>
       <c r="B14" s="57"/>
       <c r="C14" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>180</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4070,13 +4087,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>40</v>
@@ -4091,7 +4108,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4115,10 +4132,10 @@
         <v>40</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -4131,13 +4148,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -4152,7 +4169,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4190,10 +4207,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -4211,7 +4228,7 @@
         <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4241,13 +4258,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>40</v>
@@ -4262,7 +4279,7 @@
         <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4294,13 +4311,13 @@
         <v>43</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -4315,7 +4332,7 @@
         <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4351,7 +4368,7 @@
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -4366,7 +4383,7 @@
         <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4396,7 +4413,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -4411,7 +4428,7 @@
         <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4429,7 +4446,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
@@ -4437,52 +4454,52 @@
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="54"/>
       <c r="B22" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="E22" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T22" s="52"/>
       <c r="U22" s="52"/>
@@ -4491,43 +4508,43 @@
       <c r="A23" s="54"/>
       <c r="B23" s="66"/>
       <c r="C23" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -4539,52 +4556,52 @@
     <row r="24" spans="1:21">
       <c r="A24" s="54"/>
       <c r="B24" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="D24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
@@ -4592,34 +4609,34 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="54"/>
       <c r="B25" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="D25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4628,22 +4645,22 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4651,19 +4668,19 @@
     <row r="26" spans="1:21" ht="105" customHeight="1">
       <c r="A26" s="54"/>
       <c r="B26" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>40</v>
@@ -4675,10 +4692,10 @@
         <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4690,7 +4707,7 @@
         <v>8</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>40</v>
@@ -4702,48 +4719,48 @@
         <v>40</v>
       </c>
       <c r="S26" s="51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T26" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U26" s="42"/>
     </row>
     <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="54"/>
       <c r="B27" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -4758,7 +4775,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>118</v>
@@ -4788,9 +4805,11 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="T28" s="51"/>
+        <v>234</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="U28" s="40"/>
     </row>
     <row r="29" spans="1:21" ht="54" customHeight="1">
@@ -4800,7 +4819,7 @@
         <v>119</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4808,7 +4827,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15">
@@ -4838,13 +4857,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="54" customHeight="1">
+    <row r="30" spans="1:21" ht="79.5" customHeight="1">
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
       <c r="C30" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>256</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -4868,7 +4889,7 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="51" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40" t="s">
@@ -4981,7 +5002,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
       <c r="A4" s="54"/>
       <c r="B4" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4994,7 +5015,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
@@ -5006,7 +5027,7 @@
       <c r="A6" s="54"/>
       <c r="B6" s="62"/>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -5068,7 +5089,7 @@
       <c r="A13" s="54"/>
       <c r="B13" s="62"/>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5104,7 +5125,7 @@
       <c r="A16" s="54"/>
       <c r="B16" s="62"/>
       <c r="C16" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>53</v>
@@ -5198,7 +5219,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5208,7 +5229,7 @@
       <c r="A25" s="54"/>
       <c r="B25" s="69"/>
       <c r="C25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5218,7 +5239,7 @@
       <c r="A26" s="54"/>
       <c r="B26" s="69"/>
       <c r="C26" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5241,7 +5262,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -5415,7 +5436,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>112</v>
@@ -5428,7 +5449,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="62"/>
       <c r="B45" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5438,7 +5459,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="62"/>
       <c r="B46" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5506,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>108</v>
@@ -5514,46 +5535,46 @@
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5592,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>108</v>
@@ -5600,30 +5621,30 @@
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5662,10 +5683,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>108</v>
@@ -5673,13 +5694,13 @@
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1">
       <c r="A2" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5687,13 +5708,13 @@
     <row r="3" spans="1:5" ht="42" customHeight="1">
       <c r="A3" s="57"/>
       <c r="B3" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5702,16 +5723,16 @@
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="257">
   <si>
     <t>Catalog</t>
   </si>
@@ -1141,10 +1141,6 @@
   </si>
   <si>
     <t>*(dashboard?) config or config-dsadmin — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
-  </si>
-  <si>
-    <t>reboot scripts - /home/ubuntu/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia *
-chart-operator — /root/utilities (root,ubuntu) — 755  —  /// sudo chattr -V +ia *</t>
   </si>
   <si>
     <t>shutdown-bootup - /home/ubuntu/scripts (root,ubuntu) — 755  —  /// sudo chattr -V +ia *
@@ -2071,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" activeCellId="1" sqref="D27 F27"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3285,10 +3281,10 @@
       <c r="A27" s="55"/>
       <c r="B27" s="56"/>
       <c r="C27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3355,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="L23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4861,10 +4857,10 @@
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
       <c r="C30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -4889,7 +4885,7 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40" t="s">

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="255">
   <si>
     <t>Catalog</t>
   </si>
@@ -497,23 +497,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Postgres-Exporter-0.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RabbitMQ-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres-Exporter-0.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ-Exporter-0.3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,10 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RabbitMQ-Exporter-0.3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,9 +1023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MongoDB-Exporter-1.0.1</t>
-  </si>
-  <si>
     <t>prometheus-8.4.8</t>
   </si>
   <si>
@@ -1049,9 +1030,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/helm-rmm-grafana:6.1.3</t>
-  </si>
-  <si>
-    <t>grafana-1.14.12</t>
   </si>
   <si>
     <t>1. Grafana Email/LINE/AlertManager Email 
@@ -1151,7 +1129,19 @@
     <t>Utility</t>
   </si>
   <si>
-    <t>Utility-1.0.1</t>
+    <t>Postgres-Exporter-0.6.3</t>
+  </si>
+  <si>
+    <t>MongoDB-Exporter-1.0.3</t>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter-0.3.2</t>
+  </si>
+  <si>
+    <t>grafana-1.14.14</t>
+  </si>
+  <si>
+    <t>Utility-1.0.2</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2018,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -2053,7 +2043,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2067,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2198,7 +2188,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -2222,7 +2212,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2237,7 +2227,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2261,7 +2251,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2289,10 +2279,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2334,10 +2324,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -2361,7 +2351,7 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>40</v>
@@ -2369,10 +2359,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2383,10 +2373,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -2410,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>40</v>
@@ -2418,10 +2408,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2434,10 +2424,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -2461,7 +2451,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>40</v>
@@ -2473,10 +2463,10 @@
         <v>40</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2489,13 +2479,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>40</v>
@@ -2536,19 +2526,19 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="52" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>40</v>
@@ -2587,13 +2577,13 @@
         <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>40</v>
@@ -2629,16 +2619,16 @@
       <c r="A13" s="54"/>
       <c r="B13" s="57"/>
       <c r="C13" s="43" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -2659,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>40</v>
@@ -2674,40 +2664,40 @@
       <c r="A14" s="54"/>
       <c r="B14" s="57"/>
       <c r="C14" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2722,13 +2712,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>40</v>
@@ -2761,10 +2751,10 @@
         <v>40</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2777,13 +2767,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -2816,7 +2806,7 @@
         <v>40</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
@@ -2832,10 +2822,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -2877,13 +2867,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>40</v>
@@ -2924,13 +2914,13 @@
         <v>43</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -2963,7 +2953,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
@@ -2977,7 +2967,7 @@
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -3004,7 +2994,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -3018,7 +3008,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -3045,7 +3035,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -3053,82 +3043,82 @@
     <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="54"/>
       <c r="B22" s="41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="123.75" customHeight="1">
       <c r="A23" s="54"/>
       <c r="B23" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="K23" s="2">
         <v>0.128</v>
@@ -3137,7 +3127,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>40</v>
@@ -3149,48 +3139,48 @@
         <v>40</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="R23" s="42" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="54"/>
       <c r="B24" s="41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="33"/>
@@ -3203,7 +3193,7 @@
         <v>117</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>118</v>
@@ -3229,10 +3219,10 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="S25" s="21"/>
     </row>
@@ -3243,7 +3233,7 @@
         <v>119</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3281,10 +3271,10 @@
       <c r="A27" s="55"/>
       <c r="B27" s="56"/>
       <c r="C27" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3305,7 +3295,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21" t="s">
@@ -3351,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="L23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3409,10 +3399,10 @@
         <v>64</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>34</v>
@@ -3496,7 +3486,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>40</v>
@@ -3524,7 +3514,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -3539,7 +3529,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3599,10 +3589,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -3648,10 +3638,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -3669,7 +3659,7 @@
         <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3689,10 +3679,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -3703,10 +3693,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -3724,7 +3714,7 @@
         <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3744,10 +3734,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3760,10 +3750,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -3781,7 +3771,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3805,10 +3795,10 @@
         <v>40</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -3821,13 +3811,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>40</v>
@@ -3842,7 +3832,7 @@
         <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3877,16 +3867,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>40</v>
@@ -3901,7 +3891,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3931,13 +3921,13 @@
         <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>40</v>
@@ -3952,7 +3942,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -3979,16 +3969,16 @@
       <c r="A13" s="54"/>
       <c r="B13" s="57"/>
       <c r="C13" s="43" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -4003,7 +3993,7 @@
         <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4015,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>40</v>
@@ -4029,46 +4019,46 @@
       <c r="A14" s="54"/>
       <c r="B14" s="57"/>
       <c r="C14" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4083,13 +4073,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>40</v>
@@ -4104,7 +4094,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4128,10 +4118,10 @@
         <v>40</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -4144,13 +4134,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -4165,7 +4155,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4203,10 +4193,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -4224,7 +4214,7 @@
         <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4254,13 +4244,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>40</v>
@@ -4275,7 +4265,7 @@
         <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4307,13 +4297,13 @@
         <v>43</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -4328,7 +4318,7 @@
         <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4364,7 +4354,7 @@
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -4379,7 +4369,7 @@
         <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4409,7 +4399,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -4424,7 +4414,7 @@
         <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4442,7 +4432,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
@@ -4450,52 +4440,52 @@
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="54"/>
       <c r="B22" s="65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="52" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="T22" s="52"/>
       <c r="U22" s="52"/>
@@ -4504,43 +4494,43 @@
       <c r="A23" s="54"/>
       <c r="B23" s="66"/>
       <c r="C23" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -4552,52 +4542,52 @@
     <row r="24" spans="1:21">
       <c r="A24" s="54"/>
       <c r="B24" s="39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
@@ -4605,34 +4595,34 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="54"/>
       <c r="B25" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4641,22 +4631,22 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4664,34 +4654,34 @@
     <row r="26" spans="1:21" ht="105" customHeight="1">
       <c r="A26" s="54"/>
       <c r="B26" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4703,7 +4693,7 @@
         <v>8</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>40</v>
@@ -4715,48 +4705,48 @@
         <v>40</v>
       </c>
       <c r="S26" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="T26" s="51" t="s">
         <v>243</v>
-      </c>
-      <c r="T26" s="51" t="s">
-        <v>249</v>
       </c>
       <c r="U26" s="42"/>
     </row>
     <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="54"/>
       <c r="B27" s="39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -4771,7 +4761,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>118</v>
@@ -4801,10 +4791,10 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="40" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="U28" s="40"/>
     </row>
@@ -4815,7 +4805,7 @@
         <v>119</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4857,10 +4847,10 @@
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
       <c r="C30" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -4885,7 +4875,7 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40" t="s">
@@ -4998,7 +4988,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
       <c r="A4" s="54"/>
       <c r="B4" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5011,7 +5001,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
@@ -5023,7 +5013,7 @@
       <c r="A6" s="54"/>
       <c r="B6" s="62"/>
       <c r="C6" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -5085,7 +5075,7 @@
       <c r="A13" s="54"/>
       <c r="B13" s="62"/>
       <c r="C13" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5121,7 +5111,7 @@
       <c r="A16" s="54"/>
       <c r="B16" s="62"/>
       <c r="C16" s="61" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>53</v>
@@ -5215,7 +5205,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5225,7 +5215,7 @@
       <c r="A25" s="54"/>
       <c r="B25" s="69"/>
       <c r="C25" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5235,7 +5225,7 @@
       <c r="A26" s="54"/>
       <c r="B26" s="69"/>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5258,7 +5248,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -5432,7 +5422,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>112</v>
@@ -5445,7 +5435,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="62"/>
       <c r="B45" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5455,7 +5445,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="62"/>
       <c r="B46" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5523,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>108</v>
@@ -5531,46 +5521,46 @@
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C4" s="34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5609,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>108</v>
@@ -5617,30 +5607,30 @@
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5679,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>108</v>
@@ -5690,13 +5680,13 @@
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1">
       <c r="A2" s="74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5704,13 +5694,13 @@
     <row r="3" spans="1:5" ht="42" customHeight="1">
       <c r="A3" s="57"/>
       <c r="B3" s="73" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5719,16 +5709,16 @@
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="256">
   <si>
     <t>Catalog</t>
   </si>
@@ -1089,13 +1089,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
-basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
-ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
-config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
-config —  /home/ubuntu/.kube (root,ubuntu) — 644  — fill in IP + ca /// sudo chattr -V +ia config</t>
-  </si>
-  <si>
     <t>charts — /etc/charts — 600
 1. helm plugin install https://github.com/maorfr/helm-backup
 2. helm backup &lt;namespace&gt;
@@ -1142,6 +1135,16 @@
   </si>
   <si>
     <t>Utility-1.0.2</t>
+  </si>
+  <si>
+    <t>config, config-dssadmin — /etc/config (root) — 600 — fill in IP
+basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
+ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
+config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
+config —  /home/ubuntu/.kube (root,ubuntu) — 644  — fill in IP + ca /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>*(dashboard?) config or config-dssadmin — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
   </si>
 </sst>
 </file>
@@ -2057,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2479,10 +2482,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>122</v>
@@ -2532,10 +2535,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>125</v>
@@ -2577,10 +2580,10 @@
         <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>124</v>
@@ -2622,10 +2625,10 @@
         <v>200</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>198</v>
@@ -2767,10 +2770,10 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>225</v>
@@ -3100,10 +3103,10 @@
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>236</v>
@@ -3142,7 +3145,7 @@
         <v>237</v>
       </c>
       <c r="R23" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S23" s="42"/>
     </row>
@@ -3219,10 +3222,10 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="S25" s="21"/>
     </row>
@@ -3233,7 +3236,7 @@
         <v>119</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3271,10 +3274,10 @@
       <c r="A27" s="55"/>
       <c r="B27" s="56"/>
       <c r="C27" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3295,7 +3298,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21" t="s">
@@ -3811,10 +3814,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>122</v>
@@ -3870,10 +3873,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>181</v>
@@ -3921,10 +3924,10 @@
         <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>124</v>
@@ -3972,10 +3975,10 @@
         <v>200</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>198</v>
@@ -4134,10 +4137,10 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>225</v>
@@ -4660,10 +4663,10 @@
         <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>236</v>
@@ -4708,7 +4711,7 @@
         <v>237</v>
       </c>
       <c r="T26" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U26" s="42"/>
     </row>
@@ -4794,7 +4797,7 @@
         <v>228</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U28" s="40"/>
     </row>
@@ -4805,7 +4808,7 @@
         <v>119</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4847,10 +4850,10 @@
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
       <c r="C30" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -4875,7 +4878,7 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40" t="s">

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Testing" sheetId="4" r:id="rId5"/>
     <sheet name="Training" sheetId="5" r:id="rId6"/>
     <sheet name="Others" sheetId="6" r:id="rId7"/>
+    <sheet name="Comparison" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="269">
   <si>
     <t>Catalog</t>
   </si>
@@ -1005,12 +1006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. kubectl create serviceaccount kubeapps-operator -n kubeapps
-2. kubectl create clusterrolebinding kubeapps-operator --clusterrole=cluster-admin --serviceaccount=kubeapps:kubeapps-operator
-3. kubectl get -n kubeapps secret $(kubectl get -n kubeapps serviceaccount kubeapps-operator -o jsonpath='{.secrets[].name}') -o jsonpath='{.data.token}' | base64 --decode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChartMuseum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1145,6 +1140,55 @@
   </si>
   <si>
     <t>*(dashboard?) config or config-dssadmin — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
+2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password @dvant1cH
+3. helm push ./minio chartmuseum
+4. helm repo update
+5. helm search chartmuseum
+6. helm install --name es-minio chartmuseum/minio</t>
+  </si>
+  <si>
+    <t>1. kubectl create serviceaccount kubeapps-operator -n kubeapps
+2. kubectl create clusterrolebinding kubeapps-operator --clusterrole=cluster-admin --serviceaccount=kubeapps:kubeapps-operator
+3. kubectl get -n kubeapps secret $(kubectl get -n kubeapps serviceaccount kubeapps-operator -o jsonpath='{.secrets[].name}') -o jsonpath='{.data.token}' | base64 --decode</t>
+  </si>
+  <si>
+    <t>Rancher</t>
+  </si>
+  <si>
+    <t>Kubeapps</t>
+  </si>
+  <si>
+    <t>Helm Integraion</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Helm Repo Integration</t>
+  </si>
+  <si>
+    <t>Chartmuseum Integration</t>
+  </si>
+  <si>
+    <t>x?</t>
+  </si>
+  <si>
+    <t>Helm Value Editor Before Deployment</t>
+  </si>
+  <si>
+    <t>UI Editor(Scaling/Yaml)</t>
+  </si>
+  <si>
+    <t>Multi-Cluster Management</t>
+  </si>
+  <si>
+    <t>Logging Recorder</t>
   </si>
 </sst>
 </file>
@@ -1620,6 +1664,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1641,16 +1688,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1658,18 +1714,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2060,7 +2104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="K7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -2250,7 +2294,7 @@
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
       <c r="A5" s="54"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2291,7 +2335,7 @@
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
       <c r="A6" s="54"/>
-      <c r="B6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2327,10 +2371,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -2371,15 +2415,15 @@
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -2427,10 +2471,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -2482,10 +2526,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>122</v>
@@ -2529,16 +2573,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>125</v>
@@ -2575,15 +2619,15 @@
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>124</v>
@@ -2620,15 +2664,15 @@
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="43" t="s">
         <v>200</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>198</v>
@@ -2665,7 +2709,7 @@
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="18" t="s">
         <v>175</v>
       </c>
@@ -2715,10 +2759,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>141</v>
@@ -2757,7 +2801,7 @@
         <v>144</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2770,13 +2814,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -2825,10 +2869,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -2870,10 +2914,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>178</v>
@@ -2910,20 +2954,20 @@
     </row>
     <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="54"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -2963,14 +3007,14 @@
     </row>
     <row r="20" spans="1:19" ht="16.5">
       <c r="A20" s="54"/>
-      <c r="B20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -3004,14 +3048,14 @@
     </row>
     <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="54"/>
-      <c r="B21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -3100,16 +3144,16 @@
         <v>218</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>40</v>
@@ -3121,7 +3165,7 @@
         <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K23" s="2">
         <v>0.128</v>
@@ -3142,10 +3186,10 @@
         <v>40</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="R23" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S23" s="42"/>
     </row>
@@ -3222,21 +3266,21 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="54" customHeight="1">
       <c r="A26" s="54"/>
-      <c r="B26" s="69"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3272,12 +3316,12 @@
     </row>
     <row r="27" spans="1:19" ht="54" customHeight="1">
       <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3298,7 +3342,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21" t="s">
@@ -3344,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="O16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3503,7 +3547,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="66">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3542,7 +3586,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3556,7 +3600,7 @@
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
       <c r="A5" s="54"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3601,7 +3645,7 @@
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
       <c r="A6" s="54"/>
-      <c r="B6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -3641,10 +3685,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>114</v>
@@ -3691,15 +3735,15 @@
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>73</v>
@@ -3740,7 +3784,7 @@
         <v>192</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3753,10 +3797,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -3814,10 +3858,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>122</v>
@@ -3873,10 +3917,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>181</v>
@@ -3919,15 +3963,15 @@
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>124</v>
@@ -3970,15 +4014,15 @@
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="43" t="s">
         <v>200</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>198</v>
@@ -4020,7 +4064,7 @@
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="18" t="s">
         <v>175</v>
       </c>
@@ -4076,10 +4120,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>141</v>
@@ -4137,13 +4181,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>40</v>
@@ -4196,10 +4240,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -4247,10 +4291,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>178</v>
@@ -4293,20 +4337,20 @@
     </row>
     <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="54"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>40</v>
@@ -4350,14 +4394,14 @@
     </row>
     <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="54"/>
-      <c r="B20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>40</v>
@@ -4395,14 +4439,14 @@
     </row>
     <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="54"/>
-      <c r="B21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>40</v>
@@ -4442,7 +4486,7 @@
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="54"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="64" t="s">
         <v>185</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4495,7 +4539,7 @@
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
       <c r="A23" s="54"/>
-      <c r="B23" s="66"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="22" t="s">
         <v>189</v>
       </c>
@@ -4622,7 +4666,7 @@
         <v>182</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>204</v>
@@ -4637,7 +4681,7 @@
         <v>182</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P25" s="38" t="s">
         <v>182</v>
@@ -4649,7 +4693,7 @@
         <v>182</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4660,16 +4704,16 @@
         <v>218</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>40</v>
@@ -4681,7 +4725,7 @@
         <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>204</v>
@@ -4708,10 +4752,10 @@
         <v>40</v>
       </c>
       <c r="S26" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T26" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U26" s="42"/>
     </row>
@@ -4794,21 +4838,21 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U28" s="40"/>
     </row>
     <row r="29" spans="1:21" ht="54" customHeight="1">
       <c r="A29" s="54"/>
-      <c r="B29" s="69"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4848,12 +4892,12 @@
     </row>
     <row r="30" spans="1:21" ht="79.5" customHeight="1">
       <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -4878,7 +4922,7 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40" t="s">
@@ -4898,6 +4942,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A2:A30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -4905,12 +4955,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5000,7 +5044,7 @@
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
       <c r="A5" s="54"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5014,7 +5058,7 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="54"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="6" t="s">
         <v>133</v>
       </c>
@@ -5026,57 +5070,57 @@
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="61" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="54"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="62"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="6" t="s">
         <v>126</v>
       </c>
@@ -5086,7 +5130,7 @@
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="26" t="s">
         <v>57</v>
       </c>
@@ -5102,7 +5146,7 @@
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
       <c r="A15" s="54"/>
-      <c r="B15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="6" t="s">
         <v>97</v>
       </c>
@@ -5112,8 +5156,8 @@
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="54"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="62" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -5126,8 +5170,8 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
@@ -5138,8 +5182,8 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="54"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
@@ -5174,7 +5218,7 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="54"/>
-      <c r="B21" s="69"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
@@ -5216,7 +5260,7 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="54"/>
-      <c r="B25" s="69"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="2" t="s">
         <v>132</v>
       </c>
@@ -5226,7 +5270,7 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="54"/>
-      <c r="B26" s="69"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="2" t="s">
         <v>130</v>
       </c>
@@ -5236,7 +5280,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="54"/>
-      <c r="B27" s="70"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
@@ -5266,7 +5310,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="70" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5280,7 +5324,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="21" t="s">
         <v>47</v>
       </c>
@@ -5294,7 +5338,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="52" t="s">
         <v>83</v>
       </c>
@@ -5306,8 +5350,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="69"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="2" t="s">
         <v>98</v>
       </c>
@@ -5316,9 +5360,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="57"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="61" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="62" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -5328,9 +5372,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="21" t="s">
         <v>45</v>
       </c>
@@ -5338,9 +5382,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="71" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -5350,9 +5394,9 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="53"/>
-      <c r="C37" s="70"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="21" t="s">
         <v>101</v>
       </c>
@@ -5362,7 +5406,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
@@ -5372,7 +5416,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="24" t="s">
         <v>105</v>
       </c>
@@ -5382,7 +5426,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="52" t="s">
         <v>87</v>
       </c>
@@ -5394,8 +5438,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="2" t="s">
         <v>104</v>
       </c>
@@ -5404,7 +5448,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="53"/>
       <c r="C42" s="2" t="s">
         <v>103</v>
@@ -5414,7 +5458,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="24" t="s">
         <v>110</v>
       </c>
@@ -5436,7 +5480,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="36" t="s">
         <v>149</v>
       </c>
@@ -5446,7 +5490,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="36" t="s">
         <v>150</v>
       </c>
@@ -5470,12 +5514,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -5485,6 +5523,12 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5695,7 +5739,7 @@
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="73" t="s">
         <v>160</v>
       </c>
@@ -5739,4 +5783,107 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="276">
   <si>
     <t>Catalog</t>
   </si>
@@ -1189,6 +1189,27 @@
   </si>
   <si>
     <t>Logging Recorder</t>
+  </si>
+  <si>
+    <t>Can't deploy charts from chartmuseum: can't find values.yaml</t>
+  </si>
+  <si>
+    <t>Wait helm template failed. Error: stat /coredns: no such file or directory : exit status 1</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Complication</t>
+  </si>
+  <si>
+    <t>Git Catalog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o(easy) </t>
+  </si>
+  <si>
+    <t>x(hard)</t>
   </si>
 </sst>
 </file>
@@ -3389,7 +3410,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView topLeftCell="O16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5787,26 +5808,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="4" max="4" width="54.875" customWidth="1"/>
+    <col min="5" max="5" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>257</v>
       </c>
       <c r="C1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -5817,7 +5843,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -5828,7 +5854,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -5838,8 +5864,14 @@
       <c r="C4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>266</v>
       </c>
@@ -5850,7 +5882,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>265</v>
       </c>
@@ -5861,7 +5893,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>267</v>
       </c>
@@ -5872,7 +5904,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>268</v>
       </c>
@@ -5880,6 +5912,28 @@
         <v>261</v>
       </c>
       <c r="C8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
         <v>260</v>
       </c>
     </row>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="286">
   <si>
     <t>Catalog</t>
   </si>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>DNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core-DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1033,20 +1029,11 @@
 4. Reboot Script (Evelyn)</t>
   </si>
   <si>
-    <t>ffdf</t>
-  </si>
-  <si>
     <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
 basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
 ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
 config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
 config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
-  </si>
-  <si>
-    <t>core-dns-1.1.2</t>
-  </si>
-  <si>
-    <t>postgres-1.0.1</t>
   </si>
   <si>
     <t>nginx-ingress-0.28.7</t>
@@ -1161,9 +1148,6 @@
     <t>Kubeapps</t>
   </si>
   <si>
-    <t>Helm Integraion</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1210,6 +1194,51 @@
   </si>
   <si>
     <t>x(hard)</t>
+  </si>
+  <si>
+    <t>Docker-Registry</t>
+  </si>
+  <si>
+    <t>CoreDNS</t>
+  </si>
+  <si>
+    <t>Helm Integraion (Helm list)</t>
+  </si>
+  <si>
+    <t>K8s Management</t>
+  </si>
+  <si>
+    <t>Helm Chart Management</t>
+  </si>
+  <si>
+    <t>Kind: HelmChart</t>
+  </si>
+  <si>
+    <t>K8s</t>
+  </si>
+  <si>
+    <t>K3s</t>
+  </si>
+  <si>
+    <t>Host HelmChart/DockerImage</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>o(low)</t>
+  </si>
+  <si>
+    <t>x(high)</t>
+  </si>
+  <si>
+    <t>coredns-1.1.3</t>
+  </si>
+  <si>
+    <t>postgres-1.0.2</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1669,6 +1698,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2072,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1">
@@ -2086,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -2103,15 +2135,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2123,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2160,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -2169,65 +2201,65 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -2236,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -2246,7 +2278,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2256,52 +2288,52 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="52">
+      <c r="K3" s="53">
         <v>1</v>
       </c>
       <c r="L3" s="15">
         <v>0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="53"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2314,23 +2346,23 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -2341,22 +2373,22 @@
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2374,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -2384,33 +2416,33 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2">
         <v>6</v>
@@ -2419,72 +2451,72 @@
         <v>1408</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L8" s="2">
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2492,25 +2524,25 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2">
         <v>6</v>
@@ -2519,53 +2551,53 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="18">
         <v>0.25600000000000001</v>
@@ -2574,51 +2606,51 @@
         <v>10</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="52" t="s">
-        <v>239</v>
+      <c r="A11" s="55"/>
+      <c r="B11" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="18">
         <v>0.128</v>
@@ -2627,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -2639,31 +2671,31 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="18">
         <v>0.128</v>
@@ -2672,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
@@ -2684,31 +2716,31 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="18">
         <v>0.192</v>
@@ -2717,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2729,43 +2761,43 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>176</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2774,31 +2806,31 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2">
         <v>2.0379999999999998</v>
@@ -2807,53 +2839,53 @@
         <v>256</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2">
         <v>0.128</v>
@@ -2862,27 +2894,27 @@
         <v>10</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2890,25 +2922,25 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -2917,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
@@ -2927,45 +2959,45 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -2974,33 +3006,33 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>231</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>227</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="2">
         <v>2</v>
@@ -3009,45 +3041,45 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="54"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
+        <v>43</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -3056,39 +3088,39 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="54"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21" s="2">
         <v>0.51200000000000001</v>
@@ -3097,211 +3129,221 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="16.5">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="123.75" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5">
+      <c r="A23" s="55"/>
+      <c r="B23" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" s="43">
+        <v>0.128</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19" ht="19.5" customHeight="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="D24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" s="2">
         <v>0.128</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="2">
         <v>8</v>
       </c>
-      <c r="M23" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="R23" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="S23" s="42"/>
-    </row>
-    <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="54"/>
-      <c r="B24" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="M24" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="S24" s="42"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.5">
+      <c r="A25" s="55"/>
+      <c r="B25" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-    </row>
-    <row r="25" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="52" t="s">
+      <c r="C25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" spans="1:19" ht="83.25" customHeight="1">
+      <c r="A26" s="55"/>
+      <c r="B26" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="15">
-        <v>0</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" spans="1:19" ht="54" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>243</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3309,7 +3351,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -3318,38 +3360,36 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51" t="s">
-        <v>80</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="54" customHeight="1">
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>252</v>
+        <v>118</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="K27" s="15">
         <v>0</v>
       </c>
@@ -3357,41 +3397,81 @@
         <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="13"/>
-      <c r="K28" s="2">
-        <f>SUM(K2:K27)</f>
-        <v>24.278000000000002</v>
-      </c>
-      <c r="L28" s="2">
-        <f>SUM(L2:L27)</f>
+        <v>39</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="54" customHeight="1">
+      <c r="A28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="13"/>
+      <c r="K29" s="2">
+        <f>SUM(K2:K28)</f>
+        <v>23.662000000000003</v>
+      </c>
+      <c r="L29" s="2">
+        <f>SUM(L2:L28)</f>
         <v>1764</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3407,10 +3487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="O16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3446,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -3455,71 +3535,71 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="44"/>
@@ -3534,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -3544,7 +3624,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3554,13 +3634,13 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="44"/>
@@ -3568,36 +3648,36 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="67">
         <v>2</v>
       </c>
       <c r="N3" s="15">
         <v>0</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3607,7 +3687,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="67"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3620,8 +3700,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3630,13 +3710,13 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3651,22 +3731,22 @@
         <v>0</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -3688,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -3698,36 +3778,36 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3739,50 +3819,50 @@
         <v>2816</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3794,23 +3874,23 @@
         <v>16</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3818,28 +3898,28 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3851,56 +3931,56 @@
         <v>128</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -3912,54 +3992,54 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
       <c r="U10" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -3971,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3983,34 +4063,34 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -4022,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
@@ -4034,34 +4114,34 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4073,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="40"/>
@@ -4084,49 +4164,49 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>176</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4135,34 +4215,34 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4174,56 +4254,56 @@
         <v>512</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4235,25 +4315,25 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4261,28 +4341,28 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4294,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -4304,51 +4384,51 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="N18" s="15">
         <v>0</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
@@ -4357,36 +4437,36 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>231</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>227</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4398,46 +4478,46 @@
         <v>0</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S19" s="46"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="54"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
+        <v>43</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4449,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -4459,30 +4539,30 @@
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5">
-      <c r="A21" s="54"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4494,203 +4574,203 @@
         <v>0</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>186</v>
-      </c>
       <c r="E22" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
-      <c r="S22" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
+      <c r="S22" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" ht="63">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="D25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4699,57 +4779,53 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
     </row>
-    <row r="26" spans="1:21" ht="105" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="41" t="s">
-        <v>218</v>
+    <row r="26" spans="1:21">
+      <c r="A26" s="55"/>
+      <c r="B26" s="53" t="s">
+        <v>217</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4757,123 +4833,137 @@
       <c r="M26" s="2">
         <v>0.128</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+    </row>
+    <row r="27" spans="1:21" ht="105" customHeight="1">
+      <c r="A27" s="55"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" s="43">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="N27" s="2">
         <v>8</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S26" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="T26" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="U26" s="42"/>
-    </row>
-    <row r="27" spans="1:21" ht="16.5">
-      <c r="A27" s="54"/>
-      <c r="B27" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="O27" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="T27" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="U27" s="42"/>
+    </row>
+    <row r="28" spans="1:21" ht="16.5">
+      <c r="A28" s="55"/>
+      <c r="B28" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-    </row>
-    <row r="28" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="2" t="s">
-        <v>66</v>
+      <c r="C28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="K28" s="15"/>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-      <c r="N28" s="15">
-        <v>0</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>40</v>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
-      <c r="S28" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>245</v>
-      </c>
+      <c r="S28" s="33"/>
+      <c r="T28" s="40"/>
       <c r="U28" s="40"/>
     </row>
-    <row r="29" spans="1:21" ht="54" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="2" t="s">
-        <v>119</v>
+    <row r="29" spans="1:21" ht="83.25" customHeight="1">
+      <c r="A29" s="55"/>
+      <c r="B29" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4881,7 +4971,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15">
@@ -4894,38 +4984,36 @@
         <v>0</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="79.5" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="U29" s="40"/>
+    </row>
+    <row r="30" spans="1:21" ht="54" customHeight="1">
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>252</v>
+        <v>118</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15">
         <v>0</v>
@@ -4937,45 +5025,89 @@
         <v>0</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="13"/>
-      <c r="M31" s="2">
-        <f>SUMPRODUCT(L2:L30,M2:M30)</f>
-        <v>49.533999999999999</v>
-      </c>
-      <c r="N31" s="2">
-        <f>SUM(N2:N30)</f>
+        <v>39</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="79.5" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="13"/>
+      <c r="M32" s="2">
+        <f>SUMPRODUCT(L2:L31,M2:M31)</f>
+        <v>49.405999999999999</v>
+      </c>
+      <c r="N32" s="2">
+        <f>SUM(N2:N31)</f>
         <v>3520</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="S22:S23"/>
     <mergeCell ref="T22:T23"/>
     <mergeCell ref="U22:U23"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A2:A31"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5012,51 +5144,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5064,203 +5196,203 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="62" t="s">
-        <v>82</v>
+      <c r="A5" s="55"/>
+      <c r="B5" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62" t="s">
-        <v>127</v>
+      <c r="A16" s="55"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63" t="s">
+        <v>126</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A17" s="55"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A18" s="55"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="52" t="s">
-        <v>84</v>
+      <c r="A20" s="55"/>
+      <c r="B20" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5268,62 +5400,62 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="52" t="s">
-        <v>86</v>
+      <c r="A24" s="55"/>
+      <c r="B24" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="69"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5331,105 +5463,105 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="70" t="s">
-        <v>92</v>
+      <c r="A30" s="71" t="s">
+        <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="52" t="s">
-        <v>83</v>
+      <c r="A32" s="59"/>
+      <c r="B32" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="62" t="s">
-        <v>99</v>
+      <c r="A34" s="59"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="63"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="68" t="s">
-        <v>100</v>
+      <c r="A36" s="59"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="69" t="s">
+        <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="69"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="58"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5437,9 +5569,9 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="58"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5447,41 +5579,41 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="52" t="s">
-        <v>87</v>
+      <c r="A40" s="59"/>
+      <c r="B40" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="53"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5489,11 +5621,11 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A44" s="54" t="s">
-        <v>151</v>
+      <c r="A44" s="55" t="s">
+        <v>150</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5501,9 +5633,9 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="63"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5511,9 +5643,9 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="63"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5522,7 +5654,7 @@
     </row>
     <row r="47" spans="1:6" ht="20.25" customHeight="1">
       <c r="A47" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="16"/>
@@ -5581,54 +5713,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5667,38 +5799,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5737,56 +5869,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>
@@ -5808,133 +5940,194 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
         <v>264</v>
       </c>
-      <c r="C4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" t="s">
-        <v>269</v>
-      </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1039,9 +1039,6 @@
     <t>nginx-ingress-0.28.7</t>
   </si>
   <si>
-    <t>es-edgesense-1.0.3</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.98</t>
   </si>
   <si>
@@ -1062,12 +1059,6 @@
 6. helm install --name es-minio chartmuseum/minio</t>
   </si>
   <si>
-    <t>mongo-1.0.2</t>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.2</t>
-  </si>
-  <si>
     <t>Monitor</t>
   </si>
   <si>
@@ -1239,6 +1230,15 @@
   </si>
   <si>
     <t>postgres-1.0.2</t>
+  </si>
+  <si>
+    <t>mongo-1.0.3</t>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.3</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.4</t>
   </si>
 </sst>
 </file>
@@ -2157,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2424,10 +2424,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2473,10 +2473,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2524,10 +2524,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2579,10 +2579,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -2626,16 +2626,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="55"/>
       <c r="B11" s="53" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>124</v>
@@ -2677,10 +2677,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>123</v>
@@ -2722,10 +2722,10 @@
         <v>199</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>197</v>
@@ -2867,10 +2867,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>223</v>
@@ -2964,13 +2964,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>177</v>
@@ -3014,13 +3014,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3067,7 +3067,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3108,7 +3108,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3197,7 +3197,7 @@
         <v>217</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>181</v>
@@ -3247,13 +3247,13 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3286,10 +3286,10 @@
         <v>39</v>
       </c>
       <c r="Q24" s="42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S24" s="42"/>
     </row>
@@ -3366,10 +3366,10 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S26" s="21"/>
     </row>
@@ -3380,7 +3380,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3418,10 +3418,10 @@
       <c r="A28" s="56"/>
       <c r="B28" s="58"/>
       <c r="C28" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3442,7 +3442,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21" t="s">
@@ -3489,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3786,10 +3786,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3841,10 +3841,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3898,10 +3898,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -3959,10 +3959,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -4018,10 +4018,10 @@
         <v>122</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>180</v>
@@ -4069,10 +4069,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>123</v>
@@ -4120,10 +4120,10 @@
         <v>199</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>197</v>
@@ -4282,10 +4282,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>223</v>
@@ -4389,13 +4389,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>177</v>
@@ -4445,13 +4445,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4502,7 +4502,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4547,7 +4547,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4794,7 +4794,7 @@
         <v>181</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4805,7 +4805,7 @@
         <v>217</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>181</v>
@@ -4859,13 +4859,13 @@
         <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>39</v>
@@ -4904,10 +4904,10 @@
         <v>39</v>
       </c>
       <c r="S27" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T27" s="51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U27" s="42"/>
     </row>
@@ -4993,7 +4993,7 @@
         <v>225</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U29" s="40"/>
     </row>
@@ -5004,7 +5004,7 @@
         <v>118</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5046,10 +5046,10 @@
       <c r="A31" s="56"/>
       <c r="B31" s="58"/>
       <c r="C31" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -5074,7 +5074,7 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T31" s="40"/>
       <c r="U31" s="40" t="s">
@@ -5956,178 +5956,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
         <v>267</v>
       </c>
-      <c r="B9" t="s">
-        <v>270</v>
-      </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -1036,9 +1036,6 @@
 config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
   </si>
   <si>
-    <t>nginx-ingress-0.28.7</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.98</t>
   </si>
   <si>
@@ -1075,13 +1072,7 @@
 4. helm backup -r &lt;namespace&gt;.tgz</t>
   </si>
   <si>
-    <t>chartmuseum-2.2.2</t>
-  </si>
-  <si>
     <t>Docker-Secrets-1.0.1</t>
-  </si>
-  <si>
-    <t>minio-2.3.7</t>
   </si>
   <si>
     <t>*(dashboard?) config or config-dsadmin — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
@@ -1226,19 +1217,28 @@
     <t>x(high)</t>
   </si>
   <si>
-    <t>coredns-1.1.3</t>
-  </si>
-  <si>
-    <t>postgres-1.0.2</t>
-  </si>
-  <si>
-    <t>mongo-1.0.3</t>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.3</t>
-  </si>
-  <si>
     <t>es-edgesense-1.0.4</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.8</t>
+  </si>
+  <si>
+    <t>chartmuseum-2.2.3</t>
+  </si>
+  <si>
+    <t>coredns-1.1.4</t>
+  </si>
+  <si>
+    <t>minio-2.3.8</t>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.4</t>
+  </si>
+  <si>
+    <t>postgres-1.0.3</t>
+  </si>
+  <si>
+    <t>mongo-1.0.4</t>
   </si>
 </sst>
 </file>
@@ -2157,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2424,10 +2424,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2473,10 +2473,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2524,10 +2524,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2579,10 +2579,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -2626,16 +2626,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="55"/>
       <c r="B11" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>124</v>
@@ -2677,10 +2677,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>123</v>
@@ -2722,10 +2722,10 @@
         <v>199</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>197</v>
@@ -2867,10 +2867,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>223</v>
@@ -2922,10 +2922,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>226</v>
+        <v>279</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -2964,12 +2964,12 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="18" t="s">
         <v>281</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3014,13 +3014,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3067,7 +3067,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3108,7 +3108,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3197,7 +3197,7 @@
         <v>217</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>181</v>
@@ -3240,20 +3240,20 @@
       <c r="R23" s="33"/>
       <c r="S23" s="52"/>
     </row>
-    <row r="24" spans="1:19" ht="19.5" customHeight="1">
+    <row r="24" spans="1:19" ht="117" customHeight="1">
       <c r="A24" s="55"/>
       <c r="B24" s="54"/>
       <c r="C24" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3286,10 +3286,10 @@
         <v>39</v>
       </c>
       <c r="Q24" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S24" s="42"/>
     </row>
@@ -3366,10 +3366,10 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S26" s="21"/>
     </row>
@@ -3380,7 +3380,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3418,10 +3418,10 @@
       <c r="A28" s="56"/>
       <c r="B28" s="58"/>
       <c r="C28" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3442,7 +3442,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="51" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21" t="s">
@@ -3489,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3786,10 +3786,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3841,10 +3841,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3898,10 +3898,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -3959,10 +3959,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -4018,10 +4018,10 @@
         <v>122</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>180</v>
@@ -4069,10 +4069,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>123</v>
@@ -4120,10 +4120,10 @@
         <v>199</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>197</v>
@@ -4282,10 +4282,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>223</v>
@@ -4341,10 +4341,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4389,7 +4389,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>281</v>
@@ -4445,13 +4445,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4502,7 +4502,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4547,7 +4547,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4794,7 +4794,7 @@
         <v>181</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4805,7 +4805,7 @@
         <v>217</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>181</v>
@@ -4859,13 +4859,13 @@
         <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>39</v>
@@ -4904,10 +4904,10 @@
         <v>39</v>
       </c>
       <c r="S27" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T27" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U27" s="42"/>
     </row>
@@ -4993,7 +4993,7 @@
         <v>225</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="U29" s="40"/>
     </row>
@@ -5004,7 +5004,7 @@
         <v>118</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5046,10 +5046,10 @@
       <c r="A31" s="56"/>
       <c r="B31" s="58"/>
       <c r="C31" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -5074,7 +5074,7 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="51" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T31" s="40"/>
       <c r="U31" s="40" t="s">
@@ -5956,178 +5956,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
         <v>264</v>
       </c>
-      <c r="B9" t="s">
-        <v>267</v>
-      </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="289">
   <si>
     <t>Catalog</t>
   </si>
@@ -1239,6 +1239,15 @@
   </si>
   <si>
     <t>mongo-1.0.4</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>128 (left)</t>
+  </si>
+  <si>
+    <t>256 (left)</t>
   </si>
 </sst>
 </file>
@@ -2155,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2447,8 +2456,8 @@
       <c r="K7" s="2">
         <v>6</v>
       </c>
-      <c r="L7" s="38">
-        <v>1408</v>
+      <c r="L7" s="18">
+        <v>1152</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>204</v>
@@ -2547,7 +2556,7 @@
       <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="18">
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
@@ -3172,8 +3181,8 @@
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>181</v>
+      <c r="L22" s="2">
+        <v>10</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>181</v>
@@ -3223,8 +3232,8 @@
       <c r="K23" s="43">
         <v>0.128</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>181</v>
+      <c r="L23" s="18">
+        <v>128</v>
       </c>
       <c r="M23" s="38" t="s">
         <v>181</v>
@@ -3457,7 +3466,12 @@
       </c>
       <c r="L29" s="2">
         <f>SUM(L2:L28)</f>
-        <v>1764</v>
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="L30" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3487,10 +3501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3816,7 +3830,7 @@
         <v>12</v>
       </c>
       <c r="N7" s="43">
-        <v>2816</v>
+        <v>2304</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>39</v>
@@ -4675,7 +4689,7 @@
         <v>181</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="O23" s="47" t="s">
         <v>181</v>
@@ -4725,8 +4739,8 @@
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
       </c>
-      <c r="N24" s="38" t="s">
-        <v>210</v>
+      <c r="N24" s="18">
+        <v>20</v>
       </c>
       <c r="O24" s="38" t="s">
         <v>181</v>
@@ -4833,8 +4847,8 @@
       <c r="M26" s="2">
         <v>0.128</v>
       </c>
-      <c r="N26" s="38" t="s">
-        <v>181</v>
+      <c r="N26" s="2">
+        <v>256</v>
       </c>
       <c r="O26" s="38" t="s">
         <v>181</v>
@@ -4889,7 +4903,7 @@
         <v>0.128</v>
       </c>
       <c r="N27" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O27" s="38" t="s">
         <v>181</v>
@@ -5089,7 +5103,12 @@
       </c>
       <c r="N32" s="2">
         <f>SUM(N2:N31)</f>
-        <v>3520</v>
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -2166,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -3503,8 +3503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -1220,9 +1220,6 @@
     <t>es-edgesense-1.0.4</t>
   </si>
   <si>
-    <t>nginx-ingress-0.28.8</t>
-  </si>
-  <si>
     <t>chartmuseum-2.2.3</t>
   </si>
   <si>
@@ -1238,9 +1235,6 @@
     <t>postgres-1.0.3</t>
   </si>
   <si>
-    <t>mongo-1.0.4</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -1248,6 +1242,12 @@
   </si>
   <si>
     <t>256 (left)</t>
+  </si>
+  <si>
+    <t>mongo-1.0.5</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.9</t>
   </si>
 </sst>
 </file>
@@ -2166,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2433,10 +2433,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2482,10 +2482,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2533,10 +2533,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2588,10 +2588,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -2931,10 +2931,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -2976,10 +2976,10 @@
         <v>266</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>177</v>
@@ -3256,10 +3256,10 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>229</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="L30" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3503,8 +3503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F16" activeCellId="1" sqref="E17 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3800,10 +3800,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3855,10 +3855,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3912,10 +3912,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -3973,10 +3973,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -4355,10 +4355,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4406,10 +4406,10 @@
         <v>266</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>177</v>
@@ -4689,7 +4689,7 @@
         <v>181</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O23" s="47" t="s">
         <v>181</v>
@@ -4873,10 +4873,10 @@
         <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>229</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -1217,9 +1217,6 @@
     <t>x(high)</t>
   </si>
   <si>
-    <t>es-edgesense-1.0.4</t>
-  </si>
-  <si>
     <t>chartmuseum-2.2.3</t>
   </si>
   <si>
@@ -1248,6 +1245,9 @@
   </si>
   <si>
     <t>nginx-ingress-0.28.9</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.5</t>
   </si>
 </sst>
 </file>
@@ -2166,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2433,10 +2433,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2482,10 +2482,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2533,10 +2533,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2588,10 +2588,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -2931,10 +2931,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -2976,10 +2976,10 @@
         <v>266</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>177</v>
@@ -3023,10 +3023,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>226</v>
@@ -3256,10 +3256,10 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>229</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="L30" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3503,8 +3503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F16" activeCellId="1" sqref="E17 F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3800,10 +3800,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3855,10 +3855,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3912,10 +3912,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -3973,10 +3973,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>121</v>
@@ -4355,10 +4355,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4406,10 +4406,10 @@
         <v>266</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>177</v>
@@ -4459,10 +4459,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>226</v>
@@ -4689,7 +4689,7 @@
         <v>181</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O23" s="47" t="s">
         <v>181</v>
@@ -4873,10 +4873,10 @@
         <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>229</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
-    <sheet name="single_Software" sheetId="2" r:id="rId2"/>
-    <sheet name="two_Software(standand)" sheetId="7" r:id="rId3"/>
-    <sheet name="Manual" sheetId="3" r:id="rId4"/>
-    <sheet name="Testing" sheetId="4" r:id="rId5"/>
-    <sheet name="Training" sheetId="5" r:id="rId6"/>
-    <sheet name="Others" sheetId="6" r:id="rId7"/>
-    <sheet name="Comparison" sheetId="8" r:id="rId8"/>
+    <sheet name="single 2T" sheetId="2" r:id="rId2"/>
+    <sheet name="two_2T" sheetId="7" r:id="rId3"/>
+    <sheet name="single_5T" sheetId="9" r:id="rId4"/>
+    <sheet name="Manual" sheetId="3" r:id="rId5"/>
+    <sheet name="Testing" sheetId="4" r:id="rId6"/>
+    <sheet name="Training" sheetId="5" r:id="rId7"/>
+    <sheet name="Others" sheetId="6" r:id="rId8"/>
+    <sheet name="Comparison" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="287">
   <si>
     <t>Catalog</t>
   </si>
@@ -475,10 +476,6 @@
   </si>
   <si>
     <t>Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBAC-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,38 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spec for each customers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Provided Form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>where?? tool??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>postgres/@dvant1cH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,6 +1213,51 @@
   </si>
   <si>
     <t>es-edgesense-1.0.5</t>
+  </si>
+  <si>
+    <t>RBAC-1.0.3</t>
+  </si>
+  <si>
+    <t>install rancher</t>
+  </si>
+  <si>
+    <t>https://rancher.com/docs/rancher/v2.x/en/installation/ha/helm-rancher/#optional-install-cert-manager</t>
+  </si>
+  <si>
+    <t>DS718+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> AFP, FTP,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> iSCSI, NFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, SMB, and WebDAV</t>
+    </r>
+  </si>
+  <si>
+    <t>NFS Provisioning Client</t>
+  </si>
+  <si>
+    <t>https://hub.kubeapps.com/charts/stable/nfs-client-provisioner
+https://github.com/helm/charts/tree/master/stable/nfs-client-provisioner</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1776,12 +1786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2127,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -2152,7 +2156,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2166,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2297,7 +2301,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -2321,7 +2325,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2336,7 +2340,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2360,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2388,10 +2392,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2433,10 +2437,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2460,7 +2464,7 @@
         <v>1152</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -2468,10 +2472,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2482,10 +2486,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2509,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -2517,10 +2521,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2533,10 +2537,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2560,7 +2564,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -2572,10 +2576,10 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2588,13 +2592,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
@@ -2635,19 +2639,19 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="55"/>
       <c r="B11" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>240</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -2683,16 +2687,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="59"/>
       <c r="C12" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
@@ -2728,16 +2732,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="59"/>
       <c r="C13" s="43" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -2758,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>39</v>
@@ -2773,40 +2777,40 @@
       <c r="A14" s="55"/>
       <c r="B14" s="59"/>
       <c r="C14" s="18" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2821,13 +2825,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>39</v>
@@ -2860,10 +2864,10 @@
         <v>39</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2876,13 +2880,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -2915,7 +2919,7 @@
         <v>39</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
@@ -2931,10 +2935,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -2973,16 +2977,16 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -3023,13 +3027,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3062,7 +3066,7 @@
         <v>39</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
@@ -3076,7 +3080,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3103,7 +3107,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -3117,7 +3121,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3144,7 +3148,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -3152,31 +3156,31 @@
     <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="55"/>
       <c r="B22" s="41" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K22" s="43">
         <v>0.25600000000000001</v>
@@ -3185,49 +3189,49 @@
         <v>10</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="55"/>
       <c r="B23" s="53" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K23" s="43">
         <v>0.128</v>
@@ -3236,13 +3240,13 @@
         <v>128</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="33"/>
@@ -3253,16 +3257,16 @@
       <c r="A24" s="55"/>
       <c r="B24" s="54"/>
       <c r="C24" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3274,7 +3278,7 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K24" s="2">
         <v>0.128</v>
@@ -3283,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>39</v>
@@ -3295,48 +3299,48 @@
         <v>39</v>
       </c>
       <c r="Q24" s="42" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="55"/>
       <c r="B25" s="41" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="33"/>
@@ -3349,10 +3353,10 @@
         <v>116</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3375,10 +3379,10 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="21" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="S26" s="21"/>
     </row>
@@ -3386,10 +3390,10 @@
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3397,7 +3401,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -3427,10 +3431,10 @@
       <c r="A28" s="56"/>
       <c r="B28" s="58"/>
       <c r="C28" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3451,7 +3455,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="51" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21" t="s">
@@ -3471,7 +3475,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="L30" s="11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3503,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3561,10 +3565,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>33</v>
@@ -3648,7 +3652,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -3676,7 +3680,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -3691,7 +3695,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3751,10 +3755,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -3800,10 +3804,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3821,7 +3825,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3841,10 +3845,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -3855,10 +3859,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3876,7 +3880,7 @@
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -3896,10 +3900,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -3912,10 +3916,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -3933,7 +3937,7 @@
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -3957,10 +3961,10 @@
         <v>39</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -3973,13 +3977,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
@@ -3994,7 +3998,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -4029,16 +4033,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -4053,7 +4057,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -4080,16 +4084,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="59"/>
       <c r="C12" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
@@ -4104,7 +4108,7 @@
         <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -4131,16 +4135,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="59"/>
       <c r="C13" s="43" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -4155,7 +4159,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4167,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>39</v>
@@ -4181,46 +4185,46 @@
       <c r="A14" s="55"/>
       <c r="B14" s="59"/>
       <c r="C14" s="18" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4235,13 +4239,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>39</v>
@@ -4256,7 +4260,7 @@
         <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4280,10 +4284,10 @@
         <v>39</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -4296,13 +4300,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -4317,7 +4321,7 @@
         <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4355,10 +4359,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4376,7 +4380,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4403,16 +4407,16 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -4427,7 +4431,7 @@
         <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4459,13 +4463,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4480,7 +4484,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4516,7 +4520,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4531,7 +4535,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4561,7 +4565,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="18" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4576,7 +4580,7 @@
         <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4594,7 +4598,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
@@ -4602,52 +4606,52 @@
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="55"/>
       <c r="B22" s="65" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O22" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="53" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="T22" s="53"/>
       <c r="U22" s="53"/>
@@ -4656,43 +4660,43 @@
       <c r="A23" s="55"/>
       <c r="B23" s="66"/>
       <c r="C23" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O23" s="47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -4704,37 +4708,37 @@
     <row r="24" spans="1:21">
       <c r="A24" s="55"/>
       <c r="B24" s="39" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M24" s="43">
         <v>0.25600000000000001</v>
@@ -4743,13 +4747,13 @@
         <v>20</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="40" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
@@ -4757,34 +4761,34 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="55"/>
       <c r="B25" s="41" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4793,22 +4797,22 @@
         <v>1.512</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4816,30 +4820,30 @@
     <row r="26" spans="1:21">
       <c r="A26" s="55"/>
       <c r="B26" s="53" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4851,16 +4855,16 @@
         <v>256</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="S26" s="52"/>
       <c r="T26" s="52"/>
@@ -4870,16 +4874,16 @@
       <c r="A27" s="55"/>
       <c r="B27" s="54"/>
       <c r="C27" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>39</v>
@@ -4891,10 +4895,10 @@
         <v>39</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L27" s="43">
         <v>1</v>
@@ -4906,7 +4910,7 @@
         <v>16</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>39</v>
@@ -4918,48 +4922,48 @@
         <v>39</v>
       </c>
       <c r="S27" s="51" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="T27" s="51" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="55"/>
       <c r="B28" s="39" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
@@ -4974,10 +4978,10 @@
         <v>116</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5004,10 +5008,10 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="40" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="U29" s="40"/>
     </row>
@@ -5015,10 +5019,10 @@
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5026,7 +5030,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15">
@@ -5060,10 +5064,10 @@
       <c r="A31" s="56"/>
       <c r="B31" s="58"/>
       <c r="C31" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -5088,7 +5092,7 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="51" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="T31" s="40"/>
       <c r="U31" s="40" t="s">
@@ -5108,7 +5112,7 @@
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5141,6 +5145,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5207,7 +5225,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
       <c r="A4" s="55"/>
       <c r="B4" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5220,7 +5238,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
@@ -5232,7 +5250,7 @@
       <c r="A6" s="55"/>
       <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -5294,7 +5312,7 @@
       <c r="A13" s="55"/>
       <c r="B13" s="64"/>
       <c r="C13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5330,7 +5348,7 @@
       <c r="A16" s="55"/>
       <c r="B16" s="64"/>
       <c r="C16" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>52</v>
@@ -5424,7 +5442,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5434,7 +5452,7 @@
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5444,7 +5462,7 @@
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5467,7 +5485,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -5641,7 +5659,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>111</v>
@@ -5654,7 +5672,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="64"/>
       <c r="B45" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5664,7 +5682,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="64"/>
       <c r="B46" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5708,7 +5726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -5732,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>107</v>
@@ -5740,46 +5758,46 @@
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5794,7 +5812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5818,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>107</v>
@@ -5826,30 +5844,30 @@
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -5864,104 +5882,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="11" customWidth="1"/>
-    <col min="4" max="5" width="34.625" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="28.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1">
-      <c r="A2" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="42" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="29"/>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5">
+      <c r="A4" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5">
+      <c r="A5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="optional-install-cert-manager"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://hub.kubeapps.com/charts/stable/nfs-client-provisioner"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -5975,178 +5949,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
         <v>250</v>
-      </c>
-      <c r="D4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
     <sheet name="single 2T" sheetId="2" r:id="rId2"/>
     <sheet name="two_2T" sheetId="7" r:id="rId3"/>
-    <sheet name="single_5T" sheetId="9" r:id="rId4"/>
+    <sheet name="single_10T" sheetId="9" r:id="rId4"/>
     <sheet name="Manual" sheetId="3" r:id="rId5"/>
     <sheet name="Testing" sheetId="4" r:id="rId6"/>
     <sheet name="Training" sheetId="5" r:id="rId7"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="287">
   <si>
     <t>Catalog</t>
   </si>
@@ -1566,7 +1566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1719,6 +1719,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2170,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView topLeftCell="I10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2254,7 +2257,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2291,7 +2294,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2311,7 +2314,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="53">
+      <c r="K3" s="54">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2330,7 +2333,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2346,7 +2349,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="54"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2359,8 +2362,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2400,8 +2403,8 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2429,8 +2432,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="54" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2480,8 +2483,8 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2529,7 +2532,7 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2587,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2637,8 +2640,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2684,8 +2687,8 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -2729,8 +2732,8 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="43" t="s">
         <v>190</v>
       </c>
@@ -2774,8 +2777,8 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -2819,8 +2822,8 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -2872,7 +2875,7 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2930,7 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2972,7 +2975,7 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -3019,17 +3022,17 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="55"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="61" t="s">
         <v>279</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3072,13 +3075,13 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="55"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="18" t="s">
         <v>218</v>
       </c>
@@ -3113,13 +3116,13 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="18" t="s">
         <v>219</v>
       </c>
@@ -3154,7 +3157,7 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="16.5">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="41" t="s">
         <v>173</v>
       </c>
@@ -3205,8 +3208,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="55"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="54" t="s">
         <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3251,11 +3254,11 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="52"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="24" spans="1:19" ht="117" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="2" t="s">
         <v>209</v>
       </c>
@@ -3307,7 +3310,7 @@
       <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" ht="16.5">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="41" t="s">
         <v>170</v>
       </c>
@@ -3348,8 +3351,8 @@
       <c r="S25" s="33"/>
     </row>
     <row r="26" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="54" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -3387,8 +3390,8 @@
       <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="54" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="2" t="s">
         <v>117</v>
       </c>
@@ -3428,8 +3431,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="2" t="s">
         <v>228</v>
       </c>
@@ -3507,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="G13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3599,7 +3602,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3642,7 +3645,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3666,7 +3669,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="68">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3685,7 +3688,7 @@
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
@@ -3705,7 +3708,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="68"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3718,8 +3721,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3763,8 +3766,8 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -3796,8 +3799,8 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="54" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3853,8 +3856,8 @@
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3908,7 +3911,7 @@
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3969,7 +3972,7 @@
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -4028,8 +4031,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -4081,8 +4084,8 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -4132,8 +4135,8 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="43" t="s">
         <v>190</v>
       </c>
@@ -4182,8 +4185,8 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -4233,8 +4236,8 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -4292,7 +4295,7 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -4351,7 +4354,7 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4402,7 +4405,7 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
@@ -4455,17 +4458,17 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="55"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="61" t="s">
         <v>279</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -4512,13 +4515,13 @@
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="55"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="18" t="s">
         <v>218</v>
       </c>
@@ -4557,13 +4560,13 @@
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="18" t="s">
         <v>219</v>
       </c>
@@ -4604,8 +4607,8 @@
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="66" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4650,15 +4653,15 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
-      <c r="S22" s="53" t="s">
+      <c r="S22" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="22" t="s">
         <v>179</v>
       </c>
@@ -4701,12 +4704,12 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="39" t="s">
         <v>173</v>
       </c>
@@ -4759,7 +4762,7 @@
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" ht="63">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="41" t="s">
         <v>206</v>
       </c>
@@ -4818,8 +4821,8 @@
       <c r="U25" s="42"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="55"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="54" t="s">
         <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -4866,13 +4869,13 @@
       <c r="R26" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21" ht="105" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="2" t="s">
         <v>209</v>
       </c>
@@ -4930,7 +4933,7 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="16.5">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="39" t="s">
         <v>170</v>
       </c>
@@ -4973,8 +4976,8 @@
       <c r="U28" s="40"/>
     </row>
     <row r="29" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="56"/>
+      <c r="B29" s="54" t="s">
         <v>116</v>
       </c>
       <c r="C29" s="43" t="s">
@@ -5016,8 +5019,8 @@
       <c r="U29" s="40"/>
     </row>
     <row r="30" spans="1:21" ht="54" customHeight="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="57"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="2" t="s">
         <v>117</v>
       </c>
@@ -5061,8 +5064,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="79.5" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="2" t="s">
         <v>228</v>
       </c>
@@ -5145,14 +5148,1335 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="72.375" style="11" customWidth="1"/>
+    <col min="7" max="9" width="37.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="26.75" style="11" customWidth="1"/>
+    <col min="13" max="15" width="18.625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="16" style="11" customWidth="1"/>
+    <col min="17" max="17" width="132.375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="107.75" style="11" customWidth="1"/>
+    <col min="19" max="19" width="71.5" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="52.5" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+    </row>
+    <row r="3" spans="1:19" ht="48" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="54">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="S3" s="53"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="56"/>
+      <c r="B4" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="50.25" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="42.75" customHeight="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="36.75" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6</v>
+      </c>
+      <c r="L7" s="18">
+        <v>5760</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="S7" s="53"/>
+    </row>
+    <row r="8" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>40</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="53"/>
+    </row>
+    <row r="9" spans="1:19" ht="70.5" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="18">
+        <v>320</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="53"/>
+    </row>
+    <row r="10" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>50</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.128</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+    </row>
+    <row r="12" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.128</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+    </row>
+    <row r="13" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+    </row>
+    <row r="14" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+    </row>
+    <row r="15" spans="1:19" ht="89.25" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1280</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="S15" s="53"/>
+    </row>
+    <row r="16" spans="1:19" ht="58.5" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="L16" s="2">
+        <v>50</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="56"/>
+      <c r="B17" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="56"/>
+      <c r="B18" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5">
+      <c r="A19" s="56"/>
+      <c r="B19" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5">
+      <c r="A20" s="56"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5">
+      <c r="A21" s="56"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.5">
+      <c r="A22" s="56"/>
+      <c r="B22" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" s="43">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <v>50</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5">
+      <c r="A23" s="56"/>
+      <c r="B23" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="43">
+        <v>0.128</v>
+      </c>
+      <c r="L23" s="18">
+        <v>640</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="53"/>
+    </row>
+    <row r="24" spans="1:19" ht="117" customHeight="1">
+      <c r="A24" s="56"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="L24" s="2">
+        <v>40</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="R24" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="S24" s="53"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.5">
+      <c r="A25" s="56"/>
+      <c r="B25" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" spans="1:19" ht="83.25" customHeight="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="S26" s="53"/>
+    </row>
+    <row r="27" spans="1:19" ht="54" customHeight="1">
+      <c r="A27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="54" customHeight="1">
+      <c r="A28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="13"/>
+      <c r="K29" s="2">
+        <f>SUM(K2:K28)</f>
+        <v>23.662000000000003</v>
+      </c>
+      <c r="L29" s="2">
+        <f>SUM(L2:L28)</f>
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="L30" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B28"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="R8" r:id="rId2"/>
+    <hyperlink ref="R9" r:id="rId3"/>
+    <hyperlink ref="R5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5197,7 +6521,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5211,7 +6535,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -5223,7 +6547,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="21" t="s">
         <v>127</v>
       </c>
@@ -5233,8 +6557,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="64" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5247,8 +6571,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
@@ -5259,58 +6583,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="63" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="6" t="s">
         <v>124</v>
       </c>
@@ -5319,8 +6643,8 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="26" t="s">
         <v>56</v>
       </c>
@@ -5335,8 +6659,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="6" t="s">
         <v>96</v>
       </c>
@@ -5345,9 +6669,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="63" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -5359,9 +6683,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -5371,9 +6695,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -5383,7 +6707,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
@@ -5395,8 +6719,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="54" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5407,8 +6731,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
@@ -5417,8 +6741,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
@@ -5427,7 +6751,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
@@ -5437,8 +6761,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="54" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5449,8 +6773,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="2" t="s">
         <v>130</v>
       </c>
@@ -5459,8 +6783,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -5469,8 +6793,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -5479,7 +6803,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="24" t="s">
         <v>109</v>
       </c>
@@ -5490,7 +6814,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>87</v>
       </c>
@@ -5500,7 +6824,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="72" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5514,7 +6838,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="21" t="s">
         <v>46</v>
       </c>
@@ -5528,8 +6852,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="54" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5540,8 +6864,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
@@ -5550,9 +6874,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="63" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="64" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -5562,9 +6886,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="64"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="21" t="s">
         <v>44</v>
       </c>
@@ -5572,9 +6896,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="69" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="70" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -5584,9 +6908,9 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="70"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -5596,7 +6920,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="59"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
@@ -5606,7 +6930,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="59"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="24" t="s">
         <v>104</v>
       </c>
@@ -5616,8 +6940,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="59"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="54" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5628,8 +6952,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -5638,8 +6962,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="59"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -5648,7 +6972,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="24" t="s">
         <v>109</v>
       </c>
@@ -5658,7 +6982,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="56" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -5670,7 +6994,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="64"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="36" t="s">
         <v>147</v>
       </c>
@@ -5680,7 +7004,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="64"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="36" t="s">
         <v>148</v>
       </c>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="289">
   <si>
     <t>Catalog</t>
   </si>
@@ -1191,12 +1191,6 @@
     <t>minio-2.3.8</t>
   </si>
   <si>
-    <t>rabbitmq-1.0.4</t>
-  </si>
-  <si>
-    <t>postgres-1.0.3</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -1206,13 +1200,7 @@
     <t>256 (left)</t>
   </si>
   <si>
-    <t>mongo-1.0.5</t>
-  </si>
-  <si>
     <t>nginx-ingress-0.28.9</t>
-  </si>
-  <si>
-    <t>es-edgesense-1.0.5</t>
   </si>
   <si>
     <t>RBAC-1.0.3</t>
@@ -1258,6 +1246,30 @@
   <si>
     <t>https://hub.kubeapps.com/charts/stable/nfs-client-provisioner
 https://github.com/helm/charts/tree/master/stable/nfs-client-provisioner</t>
+  </si>
+  <si>
+    <t>mongo-1.0.6</t>
+  </si>
+  <si>
+    <t>postgres-1.0.4</t>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.5</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.6</t>
+  </si>
+  <si>
+    <t>config, config-root — /etc/config (root) — 600 — fill in IP
+basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
+ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
+config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
+config —  /home/ubuntu/.kube (root,ubuntu) — 644  — fill in IP + ca /// sudo chattr -V +ia config
+ca.pem — /home/root/ca (root,ubuntu) — /// sudo chattr -V +ia ca.pem
+config — /home/root/config (root,ubuntu) — fill in IP /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>*(dashboard?) config or config-root — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
   </si>
 </sst>
 </file>
@@ -2171,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2440,10 +2452,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2489,10 +2501,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2540,10 +2552,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2618,8 +2630,8 @@
       <c r="K10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L10" s="2">
-        <v>10</v>
+      <c r="L10" s="38">
+        <v>128</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>39</v>
@@ -2938,10 +2950,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3030,10 +3042,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>217</v>
@@ -3156,13 +3168,13 @@
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5">
+    <row r="22" spans="1:19" ht="110.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="41" t="s">
-        <v>173</v>
+      <c r="B22" s="52" t="s">
+        <v>206</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>172</v>
@@ -3182,38 +3194,40 @@
       <c r="I22" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="38" t="s">
-        <v>172</v>
+      <c r="J22" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K22" s="43">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="L22" s="2">
-        <v>10</v>
+        <v>1.512</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>172</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="O22" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="42" t="s">
-        <v>180</v>
+      <c r="P22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="56"/>
-      <c r="B23" s="54" t="s">
-        <v>208</v>
+      <c r="B23" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>172</v>
@@ -3234,169 +3248,183 @@
         <v>172</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="K23" s="43">
-        <v>0.128</v>
-      </c>
-      <c r="L23" s="18">
-        <v>128</v>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>10</v>
       </c>
       <c r="M23" s="38" t="s">
         <v>172</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="O23" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="24" spans="1:19" ht="117" customHeight="1">
+      <c r="S23" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="56"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="54" t="s">
+        <v>208</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>39</v>
+        <v>256</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="43">
         <v>0.128</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="53"/>
+    </row>
+    <row r="25" spans="1:19" ht="117" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="L25" s="2">
         <v>8</v>
       </c>
-      <c r="M24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="42" t="s">
+      <c r="M25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R25" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="S24" s="42"/>
-    </row>
-    <row r="25" spans="1:19" ht="16.5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="41" t="s">
+      <c r="S25" s="42"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.5">
+      <c r="A26" s="56"/>
+      <c r="B26" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-    </row>
-    <row r="26" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="54" t="s">
+      <c r="D26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+    </row>
+    <row r="27" spans="1:19" ht="150" customHeight="1">
+      <c r="A27" s="56"/>
+      <c r="B27" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C27" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="S26" s="21"/>
-    </row>
-    <row r="27" spans="1:19" ht="54" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D27" s="18" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3404,7 +3432,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -3415,36 +3443,34 @@
       <c r="M27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51" t="s">
-        <v>79</v>
-      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="S27" s="21"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>233</v>
+        <v>117</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>225</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="K28" s="15">
         <v>0</v>
       </c>
@@ -3454,45 +3480,84 @@
       <c r="M28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="51" t="s">
+      <c r="N28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="54" customHeight="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21" t="s">
+      <c r="R29" s="21"/>
+      <c r="S29" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="13"/>
-      <c r="K29" s="2">
-        <f>SUM(K2:K28)</f>
-        <v>23.662000000000003</v>
-      </c>
-      <c r="L29" s="2">
-        <f>SUM(L2:L28)</f>
-        <v>1646</v>
-      </c>
-    </row>
     <row r="30" spans="1:19">
-      <c r="L30" s="11" t="s">
-        <v>275</v>
+      <c r="A30" s="13"/>
+      <c r="K30" s="2">
+        <f>SUM(K2:K29)</f>
+        <v>25.174000000000003</v>
+      </c>
+      <c r="L30" s="2">
+        <f>SUM(L2:L29)</f>
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="L31" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3510,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3807,10 +3872,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3862,10 +3927,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3919,10 +3984,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4009,8 +4074,8 @@
       <c r="M10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="N10" s="43">
-        <v>20</v>
+      <c r="N10" s="38">
+        <v>256</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>39</v>
@@ -4362,10 +4427,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4466,10 +4531,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>217</v>
@@ -4696,7 +4761,7 @@
         <v>172</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O23" s="47" t="s">
         <v>172</v>
@@ -4854,8 +4919,8 @@
       <c r="M26" s="2">
         <v>0.128</v>
       </c>
-      <c r="N26" s="2">
-        <v>256</v>
+      <c r="N26" s="15">
+        <v>0</v>
       </c>
       <c r="O26" s="38" t="s">
         <v>172</v>
@@ -4984,7 +5049,7 @@
         <v>167</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5110,12 +5175,12 @@
       </c>
       <c r="N32" s="2">
         <f>SUM(N2:N31)</f>
-        <v>3292</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5151,7 +5216,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5417,10 +5482,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5466,10 +5531,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5517,10 +5582,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5595,8 +5660,8 @@
       <c r="K10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L10" s="2">
-        <v>50</v>
+      <c r="L10" s="38">
+        <v>640</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>39</v>
@@ -5915,10 +5980,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6007,10 +6072,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>217</v>
@@ -6336,7 +6401,7 @@
         <v>167</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -6450,12 +6515,12 @@
       </c>
       <c r="L29" s="2">
         <f>SUM(L2:L28)</f>
-        <v>8230</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="L30" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -7223,26 +7288,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -1188,9 +1188,6 @@
     <t>coredns-1.1.4</t>
   </si>
   <si>
-    <t>minio-2.3.8</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -1270,6 +1267,9 @@
   </si>
   <si>
     <t>*(dashboard?) config or config-root — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
+  </si>
+  <si>
+    <t>minio-2.3.9</t>
   </si>
 </sst>
 </file>
@@ -2452,10 +2452,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2501,10 +2501,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2552,10 +2552,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2607,10 +2607,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2630,7 +2630,7 @@
       <c r="K10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="18">
         <v>128</v>
       </c>
       <c r="M10" s="14" t="s">
@@ -2950,10 +2950,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3042,10 +3042,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>217</v>
@@ -3424,7 +3424,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3447,10 +3447,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="S27" s="21"/>
     </row>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -3872,10 +3872,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3927,10 +3927,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3984,10 +3984,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4045,10 +4045,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4074,7 +4074,7 @@
       <c r="M10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="18">
         <v>256</v>
       </c>
       <c r="O10" s="14" t="s">
@@ -4427,10 +4427,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4531,10 +4531,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>217</v>
@@ -4761,7 +4761,7 @@
         <v>172</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O23" s="47" t="s">
         <v>172</v>
@@ -5049,7 +5049,7 @@
         <v>167</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5215,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5482,10 +5482,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5531,10 +5531,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5582,10 +5582,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5637,10 +5637,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5660,7 +5660,7 @@
       <c r="K10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="18">
         <v>640</v>
       </c>
       <c r="M10" s="14" t="s">
@@ -5980,10 +5980,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6072,10 +6072,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>217</v>
@@ -6401,7 +6401,7 @@
         <v>167</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="L30" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7288,26 +7288,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="293">
   <si>
     <t>Catalog</t>
   </si>
@@ -1270,6 +1270,21 @@
   </si>
   <si>
     <t>minio-2.3.9</t>
+  </si>
+  <si>
+    <t>https://github.com/gyselroth/kube-ldap (webhook)</t>
+  </si>
+  <si>
+    <t>https://github.com/krishnapmv/k8s-ldap (dex)</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.10</t>
+  </si>
+  <si>
+    <t>https://github.com/mintel/dex-k8s-authenticator
+https://github.com/fydrah/loginapp
+https://github.com/heptiolabs/gangway
+https://github.com/gini/dexter</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1736,7 +1751,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2185,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2269,7 +2290,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2306,7 +2327,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +2347,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="54">
+      <c r="K3" s="56">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2345,7 +2366,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2361,7 +2382,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="55"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2374,8 +2395,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="66" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2415,8 +2436,8 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2444,8 +2465,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2495,8 +2516,8 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2544,7 +2565,7 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2599,7 +2620,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2652,8 +2673,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="56" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2699,8 +2720,8 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -2744,8 +2765,8 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="43" t="s">
         <v>190</v>
       </c>
@@ -2789,8 +2810,8 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -2834,8 +2855,8 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -2887,7 +2908,7 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2942,7 +2963,7 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2950,10 +2971,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -2971,7 +2992,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -2987,7 +3008,7 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="56"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -3034,17 +3055,17 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="56"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="63" t="s">
         <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3087,13 +3108,13 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
         <v>218</v>
       </c>
@@ -3128,13 +3149,13 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
         <v>219</v>
       </c>
@@ -3169,7 +3190,7 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="110.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="52" t="s">
         <v>206</v>
       </c>
@@ -3198,7 +3219,7 @@
         <v>210</v>
       </c>
       <c r="K22" s="43">
-        <v>1.512</v>
+        <v>1.28</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -3215,14 +3236,14 @@
       <c r="P22" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53" t="s">
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="41" t="s">
         <v>173</v>
       </c>
@@ -3273,8 +3294,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="56"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="56" t="s">
         <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3319,11 +3340,11 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
-      <c r="S24" s="53"/>
+      <c r="S24" s="54"/>
     </row>
     <row r="25" spans="1:19" ht="117" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="2" t="s">
         <v>209</v>
       </c>
@@ -3374,8 +3395,8 @@
       </c>
       <c r="S25" s="42"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5">
-      <c r="A26" s="56"/>
+    <row r="26" spans="1:19" ht="103.5" customHeight="1">
+      <c r="A26" s="58"/>
       <c r="B26" s="41" t="s">
         <v>170</v>
       </c>
@@ -3403,7 +3424,9 @@
       <c r="J26" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="2">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
@@ -3411,13 +3434,19 @@
         <v>172</v>
       </c>
       <c r="P26" s="15"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
+      <c r="Q26" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="S26" s="55" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -3452,11 +3481,11 @@
       <c r="R27" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="S27" s="21"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
@@ -3496,8 +3525,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="2" t="s">
         <v>228</v>
       </c>
@@ -3534,7 +3563,7 @@
       <c r="A30" s="13"/>
       <c r="K30" s="2">
         <f>SUM(K2:K29)</f>
-        <v>25.174000000000003</v>
+        <v>24.632000000000005</v>
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
@@ -3565,9 +3594,11 @@
     <hyperlink ref="R8" r:id="rId2"/>
     <hyperlink ref="R9" r:id="rId3"/>
     <hyperlink ref="R5" r:id="rId4"/>
+    <hyperlink ref="Q26" r:id="rId5"/>
+    <hyperlink ref="R26" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3575,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3667,7 +3698,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3710,7 +3741,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3734,7 +3765,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="70">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3753,7 +3784,7 @@
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
@@ -3773,7 +3804,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3786,8 +3817,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="66" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3831,8 +3862,8 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -3864,8 +3895,8 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3921,8 +3952,8 @@
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3976,7 +4007,7 @@
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -4037,7 +4068,7 @@
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -4096,8 +4127,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -4149,8 +4180,8 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -4200,8 +4231,8 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="43" t="s">
         <v>190</v>
       </c>
@@ -4250,8 +4281,8 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -4301,8 +4332,8 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -4360,7 +4391,7 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -4419,7 +4450,7 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4470,7 +4501,7 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="56"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
@@ -4523,17 +4554,17 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="56"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="63" t="s">
         <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -4580,13 +4611,13 @@
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
         <v>218</v>
       </c>
@@ -4625,13 +4656,13 @@
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
         <v>219</v>
       </c>
@@ -4672,8 +4703,8 @@
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="66" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="68" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4718,15 +4749,15 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
-      <c r="S22" s="54" t="s">
+      <c r="S22" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="22" t="s">
         <v>179</v>
       </c>
@@ -4769,12 +4800,12 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="56"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="39" t="s">
         <v>173</v>
       </c>
@@ -4827,7 +4858,7 @@
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" ht="63">
-      <c r="A25" s="56"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="41" t="s">
         <v>206</v>
       </c>
@@ -4862,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="43">
-        <v>1.512</v>
+        <v>1.28</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>172</v>
@@ -4886,8 +4917,8 @@
       <c r="U25" s="42"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="56"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="56" t="s">
         <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -4934,13 +4965,13 @@
       <c r="R26" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
     </row>
     <row r="27" spans="1:21" ht="105" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="2" t="s">
         <v>209</v>
       </c>
@@ -4997,8 +5028,8 @@
       </c>
       <c r="U27" s="42"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
-      <c r="A28" s="56"/>
+    <row r="28" spans="1:21" ht="71.25" customHeight="1">
+      <c r="A28" s="58"/>
       <c r="B28" s="39" t="s">
         <v>170</v>
       </c>
@@ -5027,8 +5058,12 @@
         <v>172</v>
       </c>
       <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="L28" s="43">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="N28" s="15"/>
       <c r="O28" s="38" t="s">
         <v>172</v>
@@ -5041,8 +5076,8 @@
       <c r="U28" s="40"/>
     </row>
     <row r="29" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C29" s="43" t="s">
@@ -5084,8 +5119,8 @@
       <c r="U29" s="40"/>
     </row>
     <row r="30" spans="1:21" ht="54" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="2" t="s">
         <v>117</v>
       </c>
@@ -5129,8 +5164,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="79.5" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="2" t="s">
         <v>228</v>
       </c>
@@ -5171,7 +5206,7 @@
       <c r="A32" s="13"/>
       <c r="M32" s="2">
         <f>SUMPRODUCT(L2:L31,M2:M31)</f>
-        <v>49.405999999999999</v>
+        <v>49.351999999999997</v>
       </c>
       <c r="N32" s="2">
         <f>SUM(N2:N31)</f>
@@ -5213,10 +5248,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5299,10 +5334,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5331,13 +5366,13 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5356,7 +5391,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="54">
+      <c r="K3" s="56">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -5368,15 +5403,15 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="S3" s="53"/>
+      <c r="S3" s="54"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="56"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5391,7 +5426,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="55"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -5404,11 +5439,11 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>187</v>
       </c>
       <c r="D5" s="15"/>
@@ -5436,7 +5471,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="54" t="s">
         <v>204</v>
       </c>
       <c r="R5" s="31" t="s">
@@ -5445,9 +5480,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="15"/>
@@ -5474,8 +5509,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5516,17 +5551,17 @@
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="53" t="s">
+      <c r="Q7" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="S7" s="53"/>
+      <c r="S7" s="54"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -5571,11 +5606,11 @@
       <c r="R8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="S8" s="53"/>
+      <c r="S8" s="54"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5626,11 +5661,11 @@
       <c r="R9" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="S9" s="53"/>
+      <c r="S9" s="54"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5675,15 +5710,15 @@
       <c r="P10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53" t="s">
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="56" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -5725,12 +5760,12 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="35"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -5769,13 +5804,13 @@
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="43" t="s">
         <v>190</v>
       </c>
@@ -5814,13 +5849,13 @@
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -5859,13 +5894,13 @@
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -5908,17 +5943,17 @@
       <c r="P15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="53" t="s">
+      <c r="Q15" s="54" t="s">
         <v>142</v>
       </c>
       <c r="R15" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="S15" s="53"/>
+      <c r="S15" s="54"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -5963,27 +5998,27 @@
       <c r="P16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="53" t="s">
+      <c r="Q16" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53" t="s">
+      <c r="R16" s="54"/>
+      <c r="S16" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="56"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6001,7 +6036,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -6012,13 +6047,13 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="56"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -6059,22 +6094,22 @@
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="56"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="63" t="s">
         <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -6113,17 +6148,17 @@
       <c r="Q19" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
         <v>218</v>
       </c>
@@ -6154,17 +6189,17 @@
       <c r="Q20" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
         <v>219</v>
       </c>
@@ -6195,95 +6230,97 @@
       <c r="Q21" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-    </row>
-    <row r="22" spans="1:19" ht="16.5">
-      <c r="A22" s="56"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+    </row>
+    <row r="22" spans="1:19" ht="110.25">
+      <c r="A22" s="58"/>
       <c r="B22" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="43">
+        <v>1.28</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5">
+      <c r="A23" s="58"/>
+      <c r="B23" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="43">
+      <c r="D23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="43">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L23" s="2">
         <v>50</v>
       </c>
-      <c r="M22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="N22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="O22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="56"/>
-      <c r="B23" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" s="43">
-        <v>0.128</v>
-      </c>
-      <c r="L23" s="18">
-        <v>640</v>
-      </c>
       <c r="M23" s="38" t="s">
         <v>172</v>
       </c>
@@ -6293,152 +6330,168 @@
       <c r="O23" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="24" spans="1:19" ht="117" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="55"/>
+      <c r="S23" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.5">
+      <c r="A24" s="58"/>
+      <c r="B24" s="56" t="s">
+        <v>208</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>39</v>
+        <v>256</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="43">
         <v>0.128</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="18">
+        <v>640</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="54"/>
+    </row>
+    <row r="25" spans="1:19" ht="117" customHeight="1">
+      <c r="A25" s="58"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="L25" s="2">
         <v>40</v>
       </c>
-      <c r="M24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="53" t="s">
+      <c r="M25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="R24" s="53" t="s">
+      <c r="R25" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="S24" s="53"/>
-    </row>
-    <row r="25" spans="1:19" ht="16.5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="52" t="s">
+      <c r="S25" s="54"/>
+    </row>
+    <row r="26" spans="1:19" ht="91.5" customHeight="1">
+      <c r="A26" s="58"/>
+      <c r="B26" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-    </row>
-    <row r="26" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="54" t="s">
+      <c r="D26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+    </row>
+    <row r="27" spans="1:19" ht="83.25" customHeight="1">
+      <c r="A27" s="58"/>
+      <c r="B27" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C27" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="S26" s="53"/>
-    </row>
-    <row r="27" spans="1:19" ht="54" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6446,7 +6499,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -6457,36 +6510,34 @@
       <c r="M27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53" t="s">
-        <v>79</v>
-      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="S27" s="54"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>233</v>
+        <v>117</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>225</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="K28" s="15">
         <v>0</v>
       </c>
@@ -6496,36 +6547,75 @@
       <c r="M28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="53" t="s">
+      <c r="N28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="54" customHeight="1">
+      <c r="A29" s="59"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53" t="s">
+      <c r="R29" s="54"/>
+      <c r="S29" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="13"/>
-      <c r="K29" s="2">
-        <f>SUM(K2:K28)</f>
-        <v>23.662000000000003</v>
-      </c>
-      <c r="L29" s="2">
-        <f>SUM(L2:L28)</f>
+    <row r="30" spans="1:19">
+      <c r="A30" s="13"/>
+      <c r="K30" s="2">
+        <f>SUM(K2:K29)</f>
+        <v>24.632000000000005</v>
+      </c>
+      <c r="L30" s="2">
+        <f>SUM(L2:L29)</f>
         <v>8820</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="L30" s="11" t="s">
+    <row r="31" spans="1:19">
+      <c r="L31" s="11" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A2:A29"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -6533,8 +6623,8 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1"/>
@@ -6586,7 +6676,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6600,7 +6690,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -6612,7 +6702,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="21" t="s">
         <v>127</v>
       </c>
@@ -6622,8 +6712,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="66" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6636,8 +6726,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
@@ -6648,58 +6738,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="64" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="6" t="s">
         <v>124</v>
       </c>
@@ -6708,8 +6798,8 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="26" t="s">
         <v>56</v>
       </c>
@@ -6724,8 +6814,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="65"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="6" t="s">
         <v>96</v>
       </c>
@@ -6734,9 +6824,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="66" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -6748,9 +6838,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="73"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6760,9 +6850,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -6772,7 +6862,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
@@ -6784,8 +6874,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6796,8 +6886,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
@@ -6806,8 +6896,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
@@ -6816,7 +6906,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
@@ -6826,8 +6916,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="56" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6838,8 +6928,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="2" t="s">
         <v>130</v>
       </c>
@@ -6848,8 +6938,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -6858,8 +6948,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -6868,7 +6958,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="56"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="24" t="s">
         <v>109</v>
       </c>
@@ -6879,7 +6969,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="12" t="s">
         <v>87</v>
       </c>
@@ -6889,7 +6979,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="74" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -6903,7 +6993,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="60"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="21" t="s">
         <v>46</v>
       </c>
@@ -6917,8 +7007,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="54" t="s">
+      <c r="A32" s="62"/>
+      <c r="B32" s="56" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6929,8 +7019,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
@@ -6939,9 +7029,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="64" t="s">
+      <c r="A34" s="62"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -6951,9 +7041,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="21" t="s">
         <v>44</v>
       </c>
@@ -6961,9 +7051,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="70" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="72" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -6973,9 +7063,9 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="71"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -6985,7 +7075,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="60"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
@@ -6995,7 +7085,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="60"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="24" t="s">
         <v>104</v>
       </c>
@@ -7005,8 +7095,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="60"/>
-      <c r="B40" s="54" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="56" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7017,8 +7107,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -7027,8 +7117,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -7037,7 +7127,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="60"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="24" t="s">
         <v>109</v>
       </c>
@@ -7047,7 +7137,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="58" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -7059,7 +7149,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="65"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="36" t="s">
         <v>147</v>
       </c>
@@ -7069,7 +7159,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="65"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="36" t="s">
         <v>148</v>
       </c>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="291">
   <si>
     <t>Catalog</t>
   </si>
@@ -877,10 +877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO (Terry)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MongoDB-Exporter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1182,9 +1178,6 @@
     <t>x(high)</t>
   </si>
   <si>
-    <t>chartmuseum-2.2.3</t>
-  </si>
-  <si>
     <t>coredns-1.1.4</t>
   </si>
   <si>
@@ -1195,12 +1188,6 @@
   </si>
   <si>
     <t>256 (left)</t>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.9</t>
-  </si>
-  <si>
-    <t>RBAC-1.0.3</t>
   </si>
   <si>
     <t>install rancher</t>
@@ -1245,15 +1232,6 @@
 https://github.com/helm/charts/tree/master/stable/nfs-client-provisioner</t>
   </si>
   <si>
-    <t>mongo-1.0.6</t>
-  </si>
-  <si>
-    <t>postgres-1.0.4</t>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.5</t>
-  </si>
-  <si>
     <t>es-edgesense-1.0.6</t>
   </si>
   <si>
@@ -1269,22 +1247,37 @@
     <t>*(dashboard?) config or config-root — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
   </si>
   <si>
-    <t>minio-2.3.9</t>
-  </si>
-  <si>
     <t>https://github.com/gyselroth/kube-ldap (webhook)</t>
   </si>
   <si>
     <t>https://github.com/krishnapmv/k8s-ldap (dex)</t>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.10</t>
   </si>
   <si>
     <t>https://github.com/mintel/dex-k8s-authenticator
 https://github.com/fydrah/loginapp
 https://github.com/heptiolabs/gangway
 https://github.com/gini/dexter</t>
+  </si>
+  <si>
+    <t>minio-2.3.10</t>
+  </si>
+  <si>
+    <t>mongo-1.0.7</t>
+  </si>
+  <si>
+    <t>postgres-1.0.5</t>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.6</t>
+  </si>
+  <si>
+    <t>chartmuseum-2.2.4</t>
+  </si>
+  <si>
+    <t>RBAC-1.0.4</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.11</t>
   </si>
 </sst>
 </file>
@@ -2206,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2337,7 +2330,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -2361,7 +2354,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2428,7 +2421,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R5" s="31" t="s">
         <v>186</v>
@@ -2473,10 +2466,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2500,7 +2493,7 @@
         <v>1152</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -2522,10 +2515,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2549,7 +2542,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -2557,7 +2550,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>157</v>
@@ -2573,10 +2566,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2600,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -2612,7 +2605,7 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>159</v>
@@ -2628,10 +2621,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2675,16 +2668,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -2726,10 +2719,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -2768,13 +2761,13 @@
       <c r="A13" s="58"/>
       <c r="B13" s="62"/>
       <c r="C13" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>188</v>
@@ -2797,8 +2790,8 @@
       <c r="L13" s="15">
         <v>0</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>189</v>
+      <c r="M13" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>39</v>
@@ -2861,10 +2854,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>139</v>
@@ -2903,7 +2896,7 @@
         <v>142</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -2916,13 +2909,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -2962,7 +2955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="42.75" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -2971,10 +2964,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3007,19 +3000,19 @@
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="63.75" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>168</v>
@@ -3063,13 +3056,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3116,7 +3109,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3157,7 +3150,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3192,11 +3185,11 @@
     <row r="22" spans="1:19" ht="110.25">
       <c r="A22" s="58"/>
       <c r="B22" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D22" s="38" t="s">
         <v>172</v>
       </c>
@@ -3216,7 +3209,7 @@
         <v>172</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K22" s="43">
         <v>1.28</v>
@@ -3239,7 +3232,7 @@
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
@@ -3281,7 +3274,7 @@
         <v>172</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O23" s="38" t="s">
         <v>172</v>
@@ -3296,10 +3289,10 @@
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="58"/>
       <c r="B24" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>172</v>
@@ -3320,7 +3313,7 @@
         <v>172</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K24" s="43">
         <v>0.128</v>
@@ -3346,16 +3339,16 @@
       <c r="A25" s="58"/>
       <c r="B25" s="57"/>
       <c r="C25" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>39</v>
@@ -3367,7 +3360,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K25" s="2">
         <v>0.128</v>
@@ -3375,8 +3368,8 @@
       <c r="L25" s="2">
         <v>8</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>172</v>
+      <c r="M25" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>39</v>
@@ -3388,10 +3381,10 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R25" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S25" s="42"/>
     </row>
@@ -3435,13 +3428,13 @@
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="29" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="R26" s="31" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="S26" s="55" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
@@ -3453,7 +3446,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3476,10 +3469,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="21" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="S27" s="53"/>
     </row>
@@ -3490,7 +3483,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3528,10 +3521,10 @@
       <c r="A29" s="59"/>
       <c r="B29" s="61"/>
       <c r="C29" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -3552,7 +3545,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21" t="s">
@@ -3572,7 +3565,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3606,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J12"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3664,7 +3657,7 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L1" s="45" t="s">
         <v>177</v>
@@ -3751,7 +3744,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -3779,7 +3772,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -3903,10 +3896,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3924,7 +3917,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -3958,10 +3951,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -3979,7 +3972,7 @@
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -4002,7 +3995,7 @@
         <v>182</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -4015,10 +4008,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4036,7 +4029,7 @@
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -4060,7 +4053,7 @@
         <v>39</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T9" s="34" t="s">
         <v>159</v>
@@ -4076,10 +4069,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4097,7 +4090,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -4135,10 +4128,10 @@
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>171</v>
@@ -4156,7 +4149,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -4186,10 +4179,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -4207,7 +4200,7 @@
         <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -4234,13 +4227,13 @@
       <c r="A13" s="58"/>
       <c r="B13" s="62"/>
       <c r="C13" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>188</v>
@@ -4258,7 +4251,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4269,8 +4262,8 @@
       <c r="N13" s="15">
         <v>0</v>
       </c>
-      <c r="O13" s="38" t="s">
-        <v>189</v>
+      <c r="O13" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>39</v>
@@ -4305,7 +4298,7 @@
         <v>166</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>172</v>
@@ -4338,10 +4331,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>139</v>
@@ -4359,7 +4352,7 @@
         <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4383,7 +4376,7 @@
         <v>39</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T15" s="25" t="s">
         <v>161</v>
@@ -4399,13 +4392,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -4420,7 +4413,7 @@
         <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4449,7 +4442,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="55.5" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
@@ -4458,10 +4451,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4479,7 +4472,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4500,19 +4493,19 @@
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="40.5" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>168</v>
@@ -4530,7 +4523,7 @@
         <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4562,13 +4555,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4583,7 +4576,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4619,7 +4612,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4634,7 +4627,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4664,7 +4657,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4679,7 +4672,7 @@
         <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4792,7 +4785,7 @@
         <v>172</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O23" s="47" t="s">
         <v>172</v>
@@ -4860,11 +4853,11 @@
     <row r="25" spans="1:21" ht="63">
       <c r="A25" s="58"/>
       <c r="B25" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D25" s="38" t="s">
         <v>172</v>
       </c>
@@ -4884,10 +4877,10 @@
         <v>172</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -4911,7 +4904,7 @@
         <v>172</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4919,10 +4912,10 @@
     <row r="26" spans="1:21">
       <c r="A26" s="58"/>
       <c r="B26" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>172</v>
@@ -4939,10 +4932,10 @@
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L26" s="43">
         <v>1</v>
@@ -4973,16 +4966,16 @@
       <c r="A27" s="58"/>
       <c r="B27" s="57"/>
       <c r="C27" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>39</v>
@@ -4994,10 +4987,10 @@
         <v>39</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L27" s="43">
         <v>1</v>
@@ -5008,8 +5001,8 @@
       <c r="N27" s="2">
         <v>16</v>
       </c>
-      <c r="O27" s="38" t="s">
-        <v>172</v>
+      <c r="O27" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>39</v>
@@ -5021,10 +5014,10 @@
         <v>39</v>
       </c>
       <c r="S27" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T27" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U27" s="42"/>
     </row>
@@ -5084,7 +5077,7 @@
         <v>167</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5111,10 +5104,10 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U29" s="40"/>
     </row>
@@ -5125,7 +5118,7 @@
         <v>117</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5167,10 +5160,10 @@
       <c r="A31" s="59"/>
       <c r="B31" s="61"/>
       <c r="C31" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -5195,7 +5188,7 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T31" s="40"/>
       <c r="U31" s="40" t="s">
@@ -5215,7 +5208,7 @@
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5250,8 +5243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5381,7 +5374,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -5405,7 +5398,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="54"/>
       <c r="R3" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S3" s="54"/>
     </row>
@@ -5472,7 +5465,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R5" s="31" t="s">
         <v>186</v>
@@ -5517,10 +5510,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5544,7 +5537,7 @@
         <v>5760</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -5566,10 +5559,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5593,7 +5586,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -5617,10 +5610,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5644,7 +5637,7 @@
         <v>320</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -5656,7 +5649,7 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>159</v>
@@ -5672,10 +5665,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5719,16 +5712,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -5770,10 +5763,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -5812,13 +5805,13 @@
       <c r="A13" s="58"/>
       <c r="B13" s="62"/>
       <c r="C13" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>188</v>
@@ -5841,8 +5834,8 @@
       <c r="L13" s="15">
         <v>0</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>189</v>
+      <c r="M13" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>39</v>
@@ -5905,10 +5898,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>139</v>
@@ -5947,7 +5940,7 @@
         <v>142</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S15" s="54"/>
     </row>
@@ -5960,13 +5953,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -6006,7 +5999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="45.75" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="54" t="s">
         <v>8</v>
@@ -6015,10 +6008,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6051,19 +6044,19 @@
       <c r="R17" s="54"/>
       <c r="S17" s="54"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="51" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>168</v>
@@ -6107,13 +6100,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6160,7 +6153,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6201,7 +6194,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -6236,11 +6229,11 @@
     <row r="22" spans="1:19" ht="110.25">
       <c r="A22" s="58"/>
       <c r="B22" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D22" s="38" t="s">
         <v>172</v>
       </c>
@@ -6260,7 +6253,7 @@
         <v>172</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K22" s="43">
         <v>1.28</v>
@@ -6283,7 +6276,7 @@
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
@@ -6340,10 +6333,10 @@
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="58"/>
       <c r="B24" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>172</v>
@@ -6364,7 +6357,7 @@
         <v>172</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K24" s="43">
         <v>0.128</v>
@@ -6390,16 +6383,16 @@
       <c r="A25" s="58"/>
       <c r="B25" s="57"/>
       <c r="C25" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>39</v>
@@ -6411,7 +6404,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K25" s="2">
         <v>0.128</v>
@@ -6419,8 +6412,8 @@
       <c r="L25" s="2">
         <v>40</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>172</v>
+      <c r="M25" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>39</v>
@@ -6432,10 +6425,10 @@
         <v>39</v>
       </c>
       <c r="Q25" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R25" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S25" s="54"/>
     </row>
@@ -6491,7 +6484,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6514,10 +6507,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="S27" s="54"/>
     </row>
@@ -6528,7 +6521,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -6566,10 +6559,10 @@
       <c r="A29" s="59"/>
       <c r="B29" s="61"/>
       <c r="C29" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -6590,7 +6583,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R29" s="54"/>
       <c r="S29" s="54" t="s">
@@ -6610,7 +6603,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7378,26 +7371,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7428,178 +7421,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
         <v>238</v>
       </c>
-      <c r="C1" t="s">
-        <v>239</v>
-      </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
         <v>243</v>
       </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
         <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
         <v>240</v>
-      </c>
-      <c r="C6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
         <v>259</v>
-      </c>
-      <c r="C11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" t="s">
         <v>240</v>
-      </c>
-      <c r="C20" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" t="s">
         <v>266</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>267</v>
-      </c>
-      <c r="C21" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="290">
   <si>
     <t>Catalog</t>
   </si>
@@ -997,12 +997,6 @@
 config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
   </si>
   <si>
-    <t>adveiss.azurecr.io/es-rmm-portal:1.0.98</t>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/es-rmm-worker:1.0.98</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-ota-worker:1.0.42</t>
   </si>
   <si>
@@ -1232,9 +1226,6 @@
 https://github.com/helm/charts/tree/master/stable/nfs-client-provisioner</t>
   </si>
   <si>
-    <t>es-edgesense-1.0.6</t>
-  </si>
-  <si>
     <t>config, config-root — /etc/config (root) — 600 — fill in IP
 basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
 ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
@@ -1278,6 +1269,12 @@
   </si>
   <si>
     <t>nginx-ingress-0.28.11</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.7</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-rmm-portal:1.0.99</t>
   </si>
 </sst>
 </file>
@@ -1789,25 +1786,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1815,6 +1803,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2200,7 +2197,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2466,10 +2463,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2515,10 +2512,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2566,10 +2563,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2621,10 +2618,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2668,16 +2665,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -2719,10 +2716,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -2764,10 +2761,10 @@
         <v>189</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>188</v>
@@ -2909,10 +2906,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>213</v>
@@ -2964,10 +2961,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3006,13 +3003,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>168</v>
@@ -3056,13 +3053,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3109,7 +3106,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3150,7 +3147,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3232,7 +3229,7 @@
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
@@ -3292,7 +3289,7 @@
         <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>172</v>
@@ -3342,13 +3339,13 @@
         <v>208</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>39</v>
@@ -3381,10 +3378,10 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R25" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S25" s="42"/>
     </row>
@@ -3428,13 +3425,13 @@
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R26" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S26" s="55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
@@ -3446,7 +3443,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3469,10 +3466,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S27" s="53"/>
     </row>
@@ -3483,7 +3480,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3521,10 +3518,10 @@
       <c r="A29" s="59"/>
       <c r="B29" s="61"/>
       <c r="C29" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -3545,7 +3542,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21" t="s">
@@ -3565,7 +3562,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3597,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:XFD17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3758,7 +3755,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="68">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3797,7 +3794,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3896,10 +3893,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -3951,10 +3948,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4008,10 +4005,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4069,10 +4066,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4128,10 +4125,10 @@
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>171</v>
@@ -4179,10 +4176,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -4230,10 +4227,10 @@
         <v>189</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>188</v>
@@ -4392,10 +4389,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>213</v>
@@ -4451,10 +4448,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4499,13 +4496,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>168</v>
@@ -4555,13 +4552,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4612,7 +4609,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4657,7 +4654,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="70" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4750,7 +4747,7 @@
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="69"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="22" t="s">
         <v>179</v>
       </c>
@@ -4785,7 +4782,7 @@
         <v>172</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O23" s="47" t="s">
         <v>172</v>
@@ -4904,7 +4901,7 @@
         <v>172</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -4915,7 +4912,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>172</v>
@@ -4969,13 +4966,13 @@
         <v>208</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>39</v>
@@ -5014,10 +5011,10 @@
         <v>39</v>
       </c>
       <c r="S27" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T27" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="U27" s="42"/>
     </row>
@@ -5077,7 +5074,7 @@
         <v>167</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5107,7 +5104,7 @@
         <v>215</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U29" s="40"/>
     </row>
@@ -5118,7 +5115,7 @@
         <v>117</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5160,10 +5157,10 @@
       <c r="A31" s="59"/>
       <c r="B31" s="61"/>
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -5188,7 +5185,7 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T31" s="40"/>
       <c r="U31" s="40" t="s">
@@ -5208,17 +5205,11 @@
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -5227,6 +5218,12 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5243,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5510,10 +5507,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5559,10 +5556,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5610,10 +5607,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5665,10 +5662,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5712,16 +5709,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -5763,10 +5760,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -5808,10 +5805,10 @@
         <v>189</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>188</v>
@@ -5953,10 +5950,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>213</v>
@@ -6008,10 +6005,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6050,13 +6047,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>168</v>
@@ -6100,13 +6097,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6153,7 +6150,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6194,7 +6191,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
       <c r="F21" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -6276,7 +6273,7 @@
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
@@ -6336,7 +6333,7 @@
         <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>172</v>
@@ -6386,13 +6383,13 @@
         <v>208</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>39</v>
@@ -6425,10 +6422,10 @@
         <v>39</v>
       </c>
       <c r="Q25" s="54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R25" s="54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S25" s="54"/>
     </row>
@@ -6484,7 +6481,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6507,10 +6504,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S27" s="54"/>
     </row>
@@ -6521,7 +6518,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -6559,10 +6556,10 @@
       <c r="A29" s="59"/>
       <c r="B29" s="61"/>
       <c r="C29" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -6583,7 +6580,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R29" s="54"/>
       <c r="S29" s="54" t="s">
@@ -6603,7 +6600,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6743,42 +6740,42 @@
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="58"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="58"/>
       <c r="B9" s="67"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="58"/>
       <c r="B10" s="67"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="58"/>
       <c r="B12" s="67"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" s="58"/>
@@ -6833,7 +6830,7 @@
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="75"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6845,7 +6842,7 @@
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="75"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -6942,7 +6939,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="73"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -6972,7 +6969,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="76" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7046,7 +7043,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
       <c r="A36" s="62"/>
       <c r="B36" s="60"/>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="75" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -7058,7 +7055,7 @@
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
       <c r="A37" s="62"/>
       <c r="B37" s="57"/>
-      <c r="C37" s="73"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -7176,6 +7173,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -7185,12 +7188,6 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7371,26 +7368,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -7421,178 +7418,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
         <v>251</v>
-      </c>
-      <c r="B9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" t="s">
         <v>265</v>
-      </c>
-      <c r="B21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5240,7 +5240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1271,10 +1271,10 @@
     <t>nginx-ingress-0.28.11</t>
   </si>
   <si>
-    <t>es-edgesense-1.0.7</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.99</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.8</t>
   </si>
 </sst>
 </file>
@@ -1786,16 +1786,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1803,15 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3053,13 +3053,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3106,7 +3106,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3596,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3755,7 +3755,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="70">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3794,7 +3794,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -4552,13 +4552,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4609,7 +4609,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="68" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4747,7 +4747,7 @@
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="22" t="s">
         <v>179</v>
       </c>
@@ -5210,6 +5210,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -5218,12 +5224,6 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5240,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6097,13 +6097,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6150,7 +6150,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6740,42 +6740,42 @@
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="58"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="58"/>
       <c r="B9" s="67"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="58"/>
       <c r="B10" s="67"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="58"/>
       <c r="B12" s="67"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" s="58"/>
@@ -6830,7 +6830,7 @@
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6842,7 +6842,7 @@
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="72"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="74"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="74" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7043,7 +7043,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
       <c r="A36" s="62"/>
       <c r="B36" s="60"/>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="72" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -7055,7 +7055,7 @@
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
       <c r="A37" s="62"/>
       <c r="B37" s="57"/>
-      <c r="C37" s="74"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -7173,12 +7173,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -7188,6 +7182,12 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="465" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -6623,6 +6623,7 @@
     <hyperlink ref="R5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="465" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1268,13 +1268,13 @@
     <t>RBAC-1.0.4</t>
   </si>
   <si>
-    <t>nginx-ingress-0.28.11</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.99</t>
   </si>
   <si>
     <t>es-edgesense-1.0.8</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.12</t>
   </si>
 </sst>
 </file>
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2961,10 +2961,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3053,13 +3053,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3106,7 +3106,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3596,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4448,10 +4448,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4552,13 +4552,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4609,7 +4609,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -5240,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6005,10 +6005,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6097,13 +6097,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6150,7 +6150,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="465" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="465" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1265,9 +1265,6 @@
     <t>chartmuseum-2.2.4</t>
   </si>
   <si>
-    <t>RBAC-1.0.4</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.99</t>
   </si>
   <si>
@@ -1275,6 +1272,9 @@
   </si>
   <si>
     <t>nginx-ingress-0.28.12</t>
+  </si>
+  <si>
+    <t>RBAC-1.0.5</t>
   </si>
 </sst>
 </file>
@@ -1786,25 +1786,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1812,6 +1803,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2961,10 +2961,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3053,13 +3053,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3106,7 +3106,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3443,7 +3443,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3597,7 +3597,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3755,7 +3755,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="68">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3794,7 +3794,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -4448,10 +4448,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4552,13 +4552,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4609,7 +4609,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="70" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4747,7 +4747,7 @@
     </row>
     <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="69"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="22" t="s">
         <v>179</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>167</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5210,12 +5210,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -5224,6 +5218,12 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5240,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6005,10 +6005,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6097,13 +6097,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6150,7 +6150,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6481,7 +6481,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6741,42 +6741,42 @@
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="58"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="58"/>
       <c r="B9" s="67"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="58"/>
       <c r="B10" s="67"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="58"/>
       <c r="B12" s="67"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" s="58"/>
@@ -6831,7 +6831,7 @@
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="75"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6843,7 +6843,7 @@
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="75"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="73"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="76" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7044,7 +7044,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
       <c r="A36" s="62"/>
       <c r="B36" s="60"/>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="75" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -7056,7 +7056,7 @@
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
       <c r="A37" s="62"/>
       <c r="B37" s="57"/>
-      <c r="C37" s="73"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -7174,6 +7174,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -7183,12 +7189,6 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="465" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Training" sheetId="5" r:id="rId7"/>
     <sheet name="Others" sheetId="6" r:id="rId8"/>
     <sheet name="Comparison" sheetId="8" r:id="rId9"/>
+    <sheet name="AI" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="290">
   <si>
     <t>Catalog</t>
   </si>
@@ -1281,7 +1282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1371,14 +1372,6 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1583,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1729,9 +1722,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,6 +1738,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1795,9 +1791,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1811,6 +1804,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2192,12 +2191,261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="48.875" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="19" max="19" width="33.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="47.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="135.75" customHeight="1">
+      <c r="A2" s="78"/>
+      <c r="B2" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="78"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="2">
+        <f>SUMPRODUCT(L2:L3,M2:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f>SUM(N2:N3)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="F10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2280,7 +2528,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2317,7 +2565,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2337,7 +2585,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="56">
+      <c r="K3" s="57">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2356,7 +2604,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2372,7 +2620,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="57"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2385,8 +2633,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2426,8 +2674,8 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2455,8 +2703,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2506,8 +2754,8 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2555,7 +2803,7 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2610,7 +2858,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2647,8 +2895,8 @@
       <c r="M10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>39</v>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>39</v>
@@ -2663,8 +2911,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="57" t="s">
         <v>219</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2710,8 +2958,8 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -2755,8 +3003,8 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="43" t="s">
         <v>189</v>
       </c>
@@ -2800,8 +3048,8 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -2845,8 +3093,8 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -2898,7 +3146,7 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +3201,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2998,7 +3246,7 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -3045,17 +3293,17 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>287</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3098,13 +3346,13 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="18" t="s">
         <v>286</v>
       </c>
@@ -3139,13 +3387,13 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="18" t="s">
         <v>216</v>
       </c>
@@ -3180,8 +3428,8 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="110.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="51" t="s">
         <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3226,14 +3474,14 @@
       <c r="P22" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54" t="s">
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="41" t="s">
         <v>173</v>
       </c>
@@ -3284,8 +3532,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="57" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3330,11 +3578,11 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
-      <c r="S24" s="54"/>
+      <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19" ht="117" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="2" t="s">
         <v>208</v>
       </c>
@@ -3368,8 +3616,8 @@
       <c r="M25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>39</v>
+      <c r="N25" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>39</v>
@@ -3386,7 +3634,7 @@
       <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" ht="103.5" customHeight="1">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="41" t="s">
         <v>170</v>
       </c>
@@ -3430,13 +3678,13 @@
       <c r="R26" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="S26" s="55" t="s">
+      <c r="S26" s="54" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="57" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -3471,11 +3719,11 @@
       <c r="R27" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="S27" s="53"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
@@ -3508,15 +3756,15 @@
       <c r="P28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51" t="s">
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="2" t="s">
         <v>225</v>
       </c>
@@ -3541,7 +3789,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="51" t="s">
+      <c r="Q29" s="50" t="s">
         <v>224</v>
       </c>
       <c r="R29" s="21"/>
@@ -3594,10 +3842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3688,7 +3936,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3731,7 +3979,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3755,7 +4003,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="69">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3774,7 +4022,7 @@
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
@@ -3794,7 +4042,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -3807,8 +4055,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3852,8 +4100,8 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -3885,8 +4133,8 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3942,8 +4190,8 @@
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3997,7 +4245,7 @@
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -4058,7 +4306,7 @@
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -4101,8 +4349,8 @@
       <c r="O10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="14" t="s">
-        <v>39</v>
+      <c r="P10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>39</v>
@@ -4117,8 +4365,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -4170,8 +4418,8 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -4221,8 +4469,8 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="43" t="s">
         <v>189</v>
       </c>
@@ -4271,8 +4519,8 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -4322,8 +4570,8 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -4381,7 +4629,7 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -4440,7 +4688,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="55.5" customHeight="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4491,7 +4739,7 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
@@ -4544,17 +4792,17 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>287</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -4601,13 +4849,13 @@
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="18" t="s">
         <v>286</v>
       </c>
@@ -4646,13 +4894,13 @@
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="18" t="s">
         <v>216</v>
       </c>
@@ -4692,115 +4940,125 @@
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
     </row>
-    <row r="22" spans="1:21" s="49" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="N22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="O22" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
+    <row r="22" spans="1:21" ht="63">
+      <c r="A22" s="59"/>
+      <c r="B22" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" s="43">
+        <v>1</v>
+      </c>
+      <c r="M22" s="43">
+        <v>1.28</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>172</v>
+      </c>
       <c r="S22" s="56" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
     </row>
-    <row r="23" spans="1:21" s="49" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="L23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="M23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="N23" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="O23" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
+    <row r="23" spans="1:21">
+      <c r="A23" s="59"/>
+      <c r="B23" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" s="43">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="N23" s="18">
+        <v>20</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="58"/>
-      <c r="B24" s="39" t="s">
-        <v>173</v>
+      <c r="A24" s="59"/>
+      <c r="B24" s="57" t="s">
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>172</v>
@@ -4814,67 +5072,65 @@
       <c r="G24" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="M24" s="43">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="N24" s="18">
-        <v>20</v>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="43">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0</v>
       </c>
       <c r="O24" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-    </row>
-    <row r="25" spans="1:21" ht="63">
-      <c r="A25" s="58"/>
-      <c r="B25" s="41" t="s">
-        <v>205</v>
-      </c>
+      <c r="P24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+    </row>
+    <row r="25" spans="1:21" ht="105" customHeight="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>172</v>
+        <v>208</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>193</v>
@@ -4882,37 +5138,39 @@
       <c r="L25" s="43">
         <v>1</v>
       </c>
-      <c r="M25" s="43">
-        <v>1.28</v>
-      </c>
-      <c r="N25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="O25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="R25" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="S25" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="T25" s="42"/>
+      <c r="M25" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="N25" s="2">
+        <v>16</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="T25" s="50" t="s">
+        <v>221</v>
+      </c>
       <c r="U25" s="42"/>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="58"/>
-      <c r="B26" s="56" t="s">
-        <v>207</v>
+    <row r="26" spans="1:21" ht="71.25" customHeight="1">
+      <c r="A26" s="59"/>
+      <c r="B26" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>172</v>
@@ -4926,164 +5184,136 @@
       <c r="G26" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="H26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="15"/>
       <c r="L26" s="43">
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="N26" s="15">
-        <v>0</v>
-      </c>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="N26" s="15"/>
       <c r="O26" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="R26" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-    </row>
-    <row r="27" spans="1:21" ht="105" customHeight="1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+    </row>
+    <row r="27" spans="1:21" ht="83.25" customHeight="1">
+      <c r="A27" s="59"/>
+      <c r="B27" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L27" s="43">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="N27" s="2">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="T27" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="U27" s="42"/>
-    </row>
-    <row r="28" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="39" t="s">
-        <v>170</v>
-      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21" ht="54" customHeight="1">
+      <c r="A28" s="59"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>172</v>
+        <v>117</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="K28" s="15"/>
-      <c r="L28" s="43">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-    </row>
-    <row r="29" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>289</v>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="79.5" customHeight="1">
+      <c r="A29" s="60"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15">
         <v>0</v>
@@ -5100,128 +5330,40 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="U29" s="40"/>
-    </row>
-    <row r="30" spans="1:21" ht="54" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-      <c r="N30" s="15">
-        <v>0</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51" t="s">
+      <c r="S29" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="79.5" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <v>0</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="13"/>
-      <c r="M32" s="2">
-        <f>SUMPRODUCT(L2:L31,M2:M31)</f>
+    <row r="30" spans="1:21">
+      <c r="A30" s="13"/>
+      <c r="M30" s="2">
+        <f>SUMPRODUCT(L2:L29,M2:M29)</f>
         <v>49.351999999999997</v>
       </c>
-      <c r="N32" s="2">
-        <f>SUM(N2:N31)</f>
+      <c r="N30" s="2">
+        <f>SUM(N2:N29)</f>
         <v>3272</v>
       </c>
     </row>
-    <row r="33" spans="14:14">
-      <c r="N33" s="11" t="s">
+    <row r="31" spans="1:21">
+      <c r="N31" s="11" t="s">
         <v>269</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:A31"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A29"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
   </mergeCells>
@@ -5240,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5324,10 +5466,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5356,13 +5498,13 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5381,7 +5523,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="56">
+      <c r="K3" s="57">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -5393,15 +5535,15 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="S3" s="54"/>
+      <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="58"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5416,7 +5558,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="57"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -5429,11 +5571,11 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>187</v>
       </c>
       <c r="D5" s="15"/>
@@ -5461,7 +5603,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="54" t="s">
+      <c r="Q5" s="53" t="s">
         <v>203</v>
       </c>
       <c r="R5" s="31" t="s">
@@ -5470,9 +5612,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="15"/>
@@ -5499,8 +5641,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5541,17 +5683,17 @@
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="S7" s="54"/>
+      <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -5596,11 +5738,11 @@
       <c r="R8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="S8" s="54"/>
+      <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="53" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5651,11 +5793,11 @@
       <c r="R9" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="S9" s="54"/>
+      <c r="S9" s="53"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5700,15 +5842,15 @@
       <c r="P10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54" t="s">
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="57" t="s">
         <v>219</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -5750,12 +5892,12 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="35"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -5794,13 +5936,13 @@
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="43" t="s">
         <v>189</v>
       </c>
@@ -5839,13 +5981,13 @@
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="18" t="s">
         <v>165</v>
       </c>
@@ -5884,13 +6026,13 @@
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -5933,17 +6075,17 @@
       <c r="P15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="54" t="s">
+      <c r="Q15" s="53" t="s">
         <v>142</v>
       </c>
       <c r="R15" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="S15" s="54"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="53" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -5988,17 +6130,17 @@
       <c r="P16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="54" t="s">
+      <c r="Q16" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54" t="s">
+      <c r="R16" s="53"/>
+      <c r="S16" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -6037,13 +6179,13 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
     </row>
     <row r="18" spans="1:19" ht="51" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -6084,22 +6226,22 @@
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>287</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -6138,17 +6280,17 @@
       <c r="Q19" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="18" t="s">
         <v>286</v>
       </c>
@@ -6179,17 +6321,17 @@
       <c r="Q20" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="18" t="s">
         <v>216</v>
       </c>
@@ -6220,12 +6362,12 @@
       <c r="Q21" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
     </row>
     <row r="22" spans="1:19" ht="110.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="51" t="s">
         <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -6270,15 +6412,15 @@
       <c r="P22" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54" t="s">
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="58"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="51" t="s">
         <v>173</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6323,13 +6465,13 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="54" t="s">
+      <c r="S23" s="53" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="57" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6374,11 +6516,11 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
-      <c r="S24" s="54"/>
+      <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19" ht="117" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="2" t="s">
         <v>208</v>
       </c>
@@ -6421,17 +6563,17 @@
       <c r="P25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="54" t="s">
+      <c r="Q25" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="R25" s="54" t="s">
+      <c r="R25" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="S25" s="54"/>
+      <c r="S25" s="53"/>
     </row>
     <row r="26" spans="1:19" ht="91.5" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="51" t="s">
         <v>170</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6473,8 +6615,8 @@
       <c r="S26" s="33"/>
     </row>
     <row r="27" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="57" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -6503,17 +6645,17 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="54" t="s">
+      <c r="Q27" s="53" t="s">
         <v>231</v>
       </c>
       <c r="R27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="S27" s="54"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
@@ -6546,15 +6688,15 @@
       <c r="P28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54" t="s">
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="2" t="s">
         <v>225</v>
       </c>
@@ -6579,11 +6721,11 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="54" t="s">
+      <c r="Q29" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54" t="s">
+      <c r="R29" s="53"/>
+      <c r="S29" s="53" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6667,7 +6809,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6681,7 +6823,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -6693,7 +6835,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="21" t="s">
         <v>127</v>
       </c>
@@ -6703,8 +6845,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="67" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6717,8 +6859,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
@@ -6729,58 +6871,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="66" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="72"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="72"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="72"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="72"/>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="72"/>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="6" t="s">
         <v>124</v>
       </c>
@@ -6789,8 +6931,8 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="26" t="s">
         <v>56</v>
       </c>
@@ -6805,8 +6947,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="6" t="s">
         <v>96</v>
       </c>
@@ -6815,9 +6957,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="66" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="67" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -6829,8 +6971,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="72"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
@@ -6841,8 +6983,8 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="72"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
@@ -6853,7 +6995,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
@@ -6865,8 +7007,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6877,8 +7019,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
@@ -6887,8 +7029,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
@@ -6897,7 +7039,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
@@ -6907,8 +7049,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="57" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6919,8 +7061,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="2" t="s">
         <v>130</v>
       </c>
@@ -6929,8 +7071,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -6939,7 +7081,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="74"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
@@ -6949,7 +7091,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="24" t="s">
         <v>109</v>
       </c>
@@ -6960,7 +7102,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="12" t="s">
         <v>87</v>
       </c>
@@ -6984,7 +7126,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="21" t="s">
         <v>46</v>
       </c>
@@ -6998,8 +7140,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="57" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -7010,8 +7152,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
@@ -7020,9 +7162,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="66" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="67" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -7032,9 +7174,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="67"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="21" t="s">
         <v>44</v>
       </c>
@@ -7042,8 +7184,8 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="75" t="s">
         <v>99</v>
       </c>
@@ -7054,8 +7196,8 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="74"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
@@ -7066,7 +7208,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
@@ -7076,7 +7218,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="24" t="s">
         <v>104</v>
       </c>
@@ -7086,8 +7228,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="62"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="57" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7098,8 +7240,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -7108,8 +7250,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="62"/>
-      <c r="B42" s="57"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -7118,7 +7260,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="24" t="s">
         <v>109</v>
       </c>
@@ -7128,7 +7270,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="59" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -7140,7 +7282,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="67"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="36" t="s">
         <v>147</v>
       </c>
@@ -7150,7 +7292,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="67"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="36" t="s">
         <v>148</v>
       </c>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="290">
   <si>
     <t>Catalog</t>
   </si>
@@ -2444,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="F13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3844,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4552,7 +4552,7 @@
         <v>172</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
@@ -5031,8 +5031,8 @@
       <c r="K23" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>172</v>
+      <c r="L23" s="43">
+        <v>1</v>
       </c>
       <c r="M23" s="43">
         <v>0.25600000000000001</v>
@@ -5342,7 +5342,7 @@
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>49.351999999999997</v>
+        <v>49.607999999999997</v>
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>
@@ -5382,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="G13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5833,8 +5833,8 @@
       <c r="M10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>39</v>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>39</v>
@@ -6554,8 +6554,8 @@
       <c r="M25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>39</v>
+      <c r="N25" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>39</v>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -3845,7 +3845,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4720,10 +4720,10 @@
         <v>193</v>
       </c>
       <c r="L17" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="N17" s="15">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0.51200000000000001</v>
+        <v>1</v>
       </c>
       <c r="N21" s="15">
         <v>0</v>
@@ -5342,7 +5342,7 @@
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>49.607999999999997</v>
+        <v>50.12</v>
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -2444,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="F4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3844,7 +3844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -4720,10 +4720,10 @@
         <v>193</v>
       </c>
       <c r="L17" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0.51200000000000001</v>
+        <v>1</v>
       </c>
       <c r="N17" s="15">
         <v>0</v>
@@ -5342,7 +5342,7 @@
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>50.12</v>
+        <v>50.095999999999997</v>
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -734,19 +734,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postgres/@dvant1cH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wisepaas/wisepaas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/@dvant1cH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecgwe/@dvant1cH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -866,10 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ecgwc/@dvant1cH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Ceph </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -979,9 +963,6 @@
     <t>prometheus-8.4.8</t>
   </si>
   <si>
-    <t>postgres/@dvant1cH</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/helm-rmm-grafana:6.1.3</t>
   </si>
   <si>
@@ -1002,14 +983,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/chartmuseum:v0.8.2</t>
-  </si>
-  <si>
-    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
-2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password @dvant1cH
-3. helm push ./minin chartmuseum
-4. helm repo update
-5. helm search chartmuseum
-6. helm install --name es-minio chartmuseum/minio</t>
   </si>
   <si>
     <t>Monitor</t>
@@ -1276,6 +1249,29 @@
   </si>
   <si>
     <t>RBAC-1.0.5</t>
+  </si>
+  <si>
+    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
+2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password advant1cH
+3. helm push ./minin chartmuseum
+4. helm repo update
+5. helm search chartmuseum
+6. helm install --name es-minio chartmuseum/minio</t>
+  </si>
+  <si>
+    <t>ecgwe/advant1cH</t>
+  </si>
+  <si>
+    <t>wisepaas/wisepaas</t>
+  </si>
+  <si>
+    <t>postgres/advant1cH</t>
+  </si>
+  <si>
+    <t>admin/advant1cH</t>
+  </si>
+  <si>
+    <t>ecgwc/advant1cH</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1784,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1797,13 +1799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2207,7 +2203,7 @@
     <col min="19" max="19" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="47.25">
+    <row r="1" spans="1:21" ht="31.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2239,10 +2235,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>33</v>
@@ -2274,53 +2270,53 @@
     </row>
     <row r="2" spans="1:21" ht="135.75" customHeight="1">
       <c r="A2" s="78"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="D2" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
       <c r="S2" s="57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T2" s="57"/>
       <c r="U2" s="57"/>
@@ -2329,43 +2325,43 @@
       <c r="A3" s="78"/>
       <c r="B3" s="77"/>
       <c r="C3" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
@@ -2418,7 +2414,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2444,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2575,7 +2571,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -2599,7 +2595,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2638,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2666,10 +2662,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2711,10 +2707,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2738,7 +2734,7 @@
         <v>1152</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -2746,10 +2742,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2760,10 +2756,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2787,7 +2783,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -2795,10 +2791,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2811,10 +2807,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2838,7 +2834,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -2850,10 +2846,10 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2866,10 +2862,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2913,16 +2909,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="59"/>
       <c r="B11" s="57" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -2964,10 +2960,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -3006,16 +3002,16 @@
       <c r="A13" s="59"/>
       <c r="B13" s="63"/>
       <c r="C13" s="43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -3051,40 +3047,40 @@
       <c r="A14" s="59"/>
       <c r="B14" s="63"/>
       <c r="C14" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -3099,10 +3095,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>139</v>
@@ -3141,7 +3137,7 @@
         <v>142</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S15" s="21"/>
     </row>
@@ -3154,13 +3150,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -3209,10 +3205,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3251,16 +3247,16 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -3301,13 +3297,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3354,7 +3350,7 @@
       <c r="D20" s="65"/>
       <c r="E20" s="65"/>
       <c r="F20" s="18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3395,7 +3391,7 @@
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
       <c r="F21" s="18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3430,31 +3426,31 @@
     <row r="22" spans="1:19" ht="110.25">
       <c r="A22" s="59"/>
       <c r="B22" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="K22" s="43">
         <v>1.28</v>
@@ -3463,48 +3459,48 @@
         <v>0</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="59"/>
       <c r="B23" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>64</v>
@@ -3516,49 +3512,49 @@
         <v>10</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="59"/>
       <c r="B24" s="57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K24" s="43">
         <v>0.128</v>
@@ -3567,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="33"/>
@@ -3584,16 +3580,16 @@
       <c r="A25" s="59"/>
       <c r="B25" s="58"/>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>39</v>
@@ -3605,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K25" s="2">
         <v>0.128</v>
@@ -3626,41 +3622,41 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="R25" s="42" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" ht="103.5" customHeight="1">
       <c r="A26" s="59"/>
       <c r="B26" s="41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K26" s="2">
         <v>0.17799999999999999</v>
@@ -3669,17 +3665,17 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="29" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R26" s="31" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="S26" s="54" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
@@ -3688,10 +3684,10 @@
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3714,10 +3710,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="21" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="S27" s="52"/>
     </row>
@@ -3728,7 +3724,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3766,10 +3762,10 @@
       <c r="A29" s="60"/>
       <c r="B29" s="62"/>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -3790,7 +3786,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21" t="s">
@@ -3810,7 +3806,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3828,12 +3824,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1"/>
-    <hyperlink ref="R8" r:id="rId2"/>
-    <hyperlink ref="R9" r:id="rId3"/>
-    <hyperlink ref="R5" r:id="rId4"/>
-    <hyperlink ref="Q26" r:id="rId5"/>
-    <hyperlink ref="R26" r:id="rId6"/>
+    <hyperlink ref="Q8" r:id="rId1" display="postgres/@dvant1cH"/>
+    <hyperlink ref="R5" r:id="rId2" display="ecgwc/@dvant1cH"/>
+    <hyperlink ref="Q26" r:id="rId3"/>
+    <hyperlink ref="R26" r:id="rId4"/>
+    <hyperlink ref="R9" r:id="rId5" display="admin/@dvant1cH"/>
+    <hyperlink ref="R8" r:id="rId6" display="postgres/@dvant1cH"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -3844,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3902,10 +3898,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>33</v>
@@ -3989,7 +3985,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -4017,7 +4013,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -4092,10 +4088,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -4141,10 +4137,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -4162,7 +4158,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -4182,10 +4178,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -4196,10 +4192,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4217,7 +4213,7 @@
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -4237,10 +4233,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -4253,10 +4249,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4274,7 +4270,7 @@
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -4298,10 +4294,10 @@
         <v>39</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>159</v>
+        <v>200</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -4314,10 +4310,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4335,7 +4331,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -4373,13 +4369,13 @@
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -4394,7 +4390,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -4424,10 +4420,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -4445,7 +4441,7 @@
         <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -4472,16 +4468,16 @@
       <c r="A13" s="59"/>
       <c r="B13" s="63"/>
       <c r="C13" s="43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -4496,7 +4492,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4522,46 +4518,46 @@
       <c r="A14" s="59"/>
       <c r="B14" s="63"/>
       <c r="C14" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -4576,10 +4572,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>139</v>
@@ -4597,7 +4593,7 @@
         <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
@@ -4621,10 +4617,10 @@
         <v>39</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -4637,13 +4633,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -4658,7 +4654,7 @@
         <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4696,10 +4692,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4717,7 +4713,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4744,16 +4740,16 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -4768,7 +4764,7 @@
         <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4800,13 +4796,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4821,7 +4817,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4857,7 +4853,7 @@
       <c r="D20" s="65"/>
       <c r="E20" s="65"/>
       <c r="F20" s="18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4872,7 +4868,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4902,7 +4898,7 @@
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
       <c r="F21" s="18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4917,7 +4913,7 @@
         <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4935,7 +4931,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
@@ -4943,34 +4939,34 @@
     <row r="22" spans="1:21" ht="63">
       <c r="A22" s="59"/>
       <c r="B22" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L22" s="43">
         <v>1</v>
@@ -4979,22 +4975,22 @@
         <v>1.28</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S22" s="56" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
@@ -5002,34 +4998,34 @@
     <row r="23" spans="1:21">
       <c r="A23" s="59"/>
       <c r="B23" s="39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L23" s="43">
         <v>1</v>
@@ -5041,13 +5037,13 @@
         <v>20</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
@@ -5055,30 +5051,30 @@
     <row r="24" spans="1:21">
       <c r="A24" s="59"/>
       <c r="B24" s="57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L24" s="43">
         <v>1</v>
@@ -5090,16 +5086,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S24" s="53"/>
       <c r="T24" s="53"/>
@@ -5109,16 +5105,16 @@
       <c r="A25" s="59"/>
       <c r="B25" s="58"/>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>39</v>
@@ -5130,10 +5126,10 @@
         <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -5157,41 +5153,41 @@
         <v>39</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="T25" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="U25" s="42"/>
     </row>
     <row r="26" spans="1:21" ht="71.25" customHeight="1">
       <c r="A26" s="59"/>
       <c r="B26" s="39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="43">
@@ -5202,7 +5198,7 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
@@ -5217,10 +5213,10 @@
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5247,10 +5243,10 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U27" s="40"/>
     </row>
@@ -5261,7 +5257,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -5303,10 +5299,10 @@
       <c r="A29" s="60"/>
       <c r="B29" s="62"/>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5331,7 +5327,7 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T29" s="40"/>
       <c r="U29" s="40" t="s">
@@ -5351,11 +5347,14 @@
     </row>
     <row r="31" spans="1:21">
       <c r="N31" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -5363,15 +5362,12 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T8" r:id="rId1"/>
-    <hyperlink ref="T9" r:id="rId2"/>
-    <hyperlink ref="T5" r:id="rId3"/>
+    <hyperlink ref="T8" r:id="rId1" display="postgres/@dvant1cH"/>
+    <hyperlink ref="T5" r:id="rId2" display="ecgwe/@dvant1cH"/>
+    <hyperlink ref="T9" r:id="rId3" display="postgres/@dvant1cH"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -5382,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5513,7 +5509,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -5537,7 +5533,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="53" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="S3" s="53"/>
     </row>
@@ -5576,7 +5572,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -5604,10 +5600,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -5649,10 +5645,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5676,7 +5672,7 @@
         <v>5760</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -5684,10 +5680,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R7" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S7" s="53"/>
     </row>
@@ -5698,10 +5694,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5725,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -5733,10 +5729,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="S8" s="53"/>
     </row>
@@ -5749,10 +5745,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5776,22 +5772,22 @@
         <v>320</v>
       </c>
       <c r="M9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>159</v>
+      <c r="R9" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="S9" s="53"/>
     </row>
@@ -5804,10 +5800,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5851,16 +5847,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="59"/>
       <c r="B11" s="57" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -5902,10 +5898,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -5944,16 +5940,16 @@
       <c r="A13" s="59"/>
       <c r="B13" s="63"/>
       <c r="C13" s="43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -5989,40 +5985,40 @@
       <c r="A14" s="59"/>
       <c r="B14" s="63"/>
       <c r="C14" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -6037,10 +6033,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>139</v>
@@ -6079,7 +6075,7 @@
         <v>142</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S15" s="53"/>
     </row>
@@ -6092,13 +6088,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -6147,10 +6143,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6189,16 +6185,16 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -6239,13 +6235,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6292,7 +6288,7 @@
       <c r="D20" s="65"/>
       <c r="E20" s="65"/>
       <c r="F20" s="18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6333,7 +6329,7 @@
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
       <c r="F21" s="18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -6368,31 +6364,31 @@
     <row r="22" spans="1:19" ht="110.25">
       <c r="A22" s="59"/>
       <c r="B22" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="K22" s="43">
         <v>1.28</v>
@@ -6401,48 +6397,48 @@
         <v>0</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="59"/>
       <c r="B23" s="51" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>64</v>
@@ -6454,49 +6450,49 @@
         <v>50</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="59"/>
       <c r="B24" s="57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K24" s="43">
         <v>0.128</v>
@@ -6505,13 +6501,13 @@
         <v>640</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="33"/>
@@ -6522,16 +6518,16 @@
       <c r="A25" s="59"/>
       <c r="B25" s="58"/>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>39</v>
@@ -6543,7 +6539,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K25" s="2">
         <v>0.128</v>
@@ -6564,41 +6560,41 @@
         <v>39</v>
       </c>
       <c r="Q25" s="53" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="S25" s="53"/>
     </row>
     <row r="26" spans="1:19" ht="91.5" customHeight="1">
       <c r="A26" s="59"/>
       <c r="B26" s="51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K26" s="2">
         <v>0.17799999999999999</v>
@@ -6607,7 +6603,7 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="33"/>
@@ -6620,10 +6616,10 @@
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6646,10 +6642,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="53" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="S27" s="53"/>
     </row>
@@ -6660,7 +6656,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -6698,10 +6694,10 @@
       <c r="A29" s="60"/>
       <c r="B29" s="62"/>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -6722,7 +6718,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="53" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="53" t="s">
@@ -6742,7 +6738,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6759,10 +6755,10 @@
     <mergeCell ref="B27:B29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1"/>
-    <hyperlink ref="R8" r:id="rId2"/>
-    <hyperlink ref="R9" r:id="rId3"/>
-    <hyperlink ref="R5" r:id="rId4"/>
+    <hyperlink ref="Q8" r:id="rId1" display="postgres/@dvant1cH"/>
+    <hyperlink ref="R8" r:id="rId2" display="postgres/@dvant1cH"/>
+    <hyperlink ref="R9" r:id="rId3" display="postgres/@dvant1cH"/>
+    <hyperlink ref="R5" r:id="rId4" display="ecgwe/@dvant1cH"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -6883,42 +6879,42 @@
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="59"/>
       <c r="B8" s="68"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="59"/>
       <c r="B9" s="68"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="59"/>
       <c r="B10" s="68"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="59"/>
       <c r="B11" s="68"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="59"/>
       <c r="B12" s="68"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" s="59"/>
@@ -6973,7 +6969,7 @@
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="59"/>
       <c r="B17" s="68"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6985,7 +6981,7 @@
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="59"/>
       <c r="B18" s="68"/>
-      <c r="C18" s="72"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -7082,7 +7078,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="59"/>
-      <c r="B27" s="74"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -7112,7 +7108,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="73" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7186,7 +7182,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
       <c r="A36" s="63"/>
       <c r="B36" s="61"/>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="71" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -7198,7 +7194,7 @@
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
       <c r="A37" s="63"/>
       <c r="B37" s="58"/>
-      <c r="C37" s="74"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -7316,12 +7312,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -7331,6 +7321,12 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7398,18 +7394,18 @@
         <v>136</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="C5" s="37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -7511,26 +7507,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7561,178 +7557,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
         <v>240</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>241</v>
-      </c>
-      <c r="C4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1242,9 +1242,6 @@
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.99</t>
   </si>
   <si>
-    <t>es-edgesense-1.0.8</t>
-  </si>
-  <si>
     <t>nginx-ingress-0.28.12</t>
   </si>
   <si>
@@ -1272,6 +1269,9 @@
   </si>
   <si>
     <t>ecgwc/advant1cH</t>
+  </si>
+  <si>
+    <t>es-edgesense-1.0.9</t>
   </si>
 </sst>
 </file>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2665,7 +2665,7 @@
         <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2791,10 +2791,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2849,7 +2849,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -3205,10 +3205,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3297,10 +3297,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>280</v>
@@ -3687,7 +3687,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3840,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4091,7 +4091,7 @@
         <v>180</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -4181,7 +4181,7 @@
         <v>178</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -4236,7 +4236,7 @@
         <v>179</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -4297,7 +4297,7 @@
         <v>200</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -4692,10 +4692,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4796,10 +4796,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>280</v>
@@ -5153,7 +5153,7 @@
         <v>39</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>215</v>
@@ -5216,7 +5216,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5378,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5603,7 +5603,7 @@
         <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -5729,10 +5729,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S8" s="53"/>
     </row>
@@ -5787,7 +5787,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S9" s="53"/>
     </row>
@@ -6143,10 +6143,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6235,10 +6235,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>280</v>
@@ -6619,7 +6619,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="291">
   <si>
     <t>Catalog</t>
   </si>
@@ -1040,14 +1040,6 @@
     <t>*(dashboard?) config or config-dssadmin — /root/config from /root/.kube — /// sudo chattr -V +ia config</t>
   </si>
   <si>
-    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
-2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password @dvant1cH
-3. helm push ./minio chartmuseum
-4. helm repo update
-5. helm search chartmuseum
-6. helm install --name es-minio chartmuseum/minio</t>
-  </si>
-  <si>
     <t>1. kubectl create serviceaccount kubeapps-operator -n kubeapps
 2. kubectl create clusterrolebinding kubeapps-operator --clusterrole=cluster-admin --serviceaccount=kubeapps:kubeapps-operator
 3. kubectl get -n kubeapps secret $(kubectl get -n kubeapps serviceaccount kubeapps-operator -o jsonpath='{.secrets[].name}') -o jsonpath='{.data.token}' | base64 --decode</t>
@@ -1272,6 +1264,18 @@
   </si>
   <si>
     <t>es-edgesense-1.0.9</t>
+  </si>
+  <si>
+    <t>1. helm plugin install https://github.com/chartmuseum/helm-push
+2. helm repo add chartmuseum http://192.168.11.7:8081 --username admin --password advant1cH
+3. helm push ./minio chartmuseum
+4. helm repo update
+5. helm search chartmuseum
+6. helm install --name es-minio chartmuseum/minio</t>
+  </si>
+  <si>
+    <t>Lots of hard drives in a Ceph server means you need a faster network for the best throughput.
+Faster Storage Needs Faster Networks</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1737,6 +1741,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2269,8 +2276,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="135.75" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="76" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="77" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2315,15 +2322,15 @@
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="78"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="22" t="s">
         <v>176</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>169</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O3" s="47" t="s">
         <v>169</v>
@@ -2366,9 +2373,9 @@
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="13"/>
@@ -2414,7 +2421,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2440,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2524,7 +2531,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2561,7 +2568,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2581,7 +2588,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="57">
+      <c r="K3" s="58">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2600,7 +2607,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2616,7 +2623,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="58"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2629,8 +2636,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="68" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2662,16 +2669,16 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2699,18 +2706,18 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2750,16 +2757,16 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2791,15 +2798,15 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2807,10 +2814,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2849,12 +2856,12 @@
         <v>194</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2862,10 +2869,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2907,8 +2914,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="58" t="s">
         <v>213</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2954,8 +2961,8 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -2999,8 +3006,8 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="43" t="s">
         <v>185</v>
       </c>
@@ -3044,8 +3051,8 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="18" t="s">
         <v>162</v>
       </c>
@@ -3089,8 +3096,8 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3149,7 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -3197,7 +3204,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -3205,10 +3212,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3242,18 +3249,18 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>165</v>
@@ -3289,21 +3296,21 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="59"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>289</v>
+      <c r="D19" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3342,15 +3349,15 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="59"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3383,13 +3390,13 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="59"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="18" t="s">
         <v>211</v>
       </c>
@@ -3424,7 +3431,7 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="110.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51" t="s">
         <v>201</v>
       </c>
@@ -3473,11 +3480,11 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="41" t="s">
         <v>170</v>
       </c>
@@ -3528,12 +3535,12 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="59"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="58" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>169</v>
@@ -3577,16 +3584,16 @@
       <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19" ht="117" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -3622,7 +3629,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="R25" s="42" t="s">
         <v>214</v>
@@ -3630,7 +3637,7 @@
       <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" ht="103.5" customHeight="1">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="41" t="s">
         <v>167</v>
       </c>
@@ -3669,25 +3676,25 @@
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="R26" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="R26" s="31" t="s">
+      <c r="S26" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="S26" s="54" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3710,16 +3717,16 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>271</v>
-      </c>
       <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
@@ -3759,8 +3766,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="2" t="s">
         <v>219</v>
       </c>
@@ -3806,7 +3813,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3840,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+    <sheetView topLeftCell="J13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3932,7 +3939,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3975,7 +3982,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3999,7 +4006,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="70">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -4018,7 +4025,7 @@
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
@@ -4038,7 +4045,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="70"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -4051,8 +4058,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="68" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -4091,13 +4098,13 @@
         <v>180</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -4129,18 +4136,18 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -4181,21 +4188,21 @@
         <v>178</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4236,12 +4243,12 @@
         <v>179</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -4249,10 +4256,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4297,12 +4304,12 @@
         <v>200</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -4310,10 +4317,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4361,8 +4368,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -4414,8 +4421,8 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -4465,8 +4472,8 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="43" t="s">
         <v>185</v>
       </c>
@@ -4515,8 +4522,8 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="18" t="s">
         <v>162</v>
       </c>
@@ -4566,8 +4573,8 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -4625,7 +4632,7 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -4684,7 +4691,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="55.5" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4692,10 +4699,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4735,18 +4742,18 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>165</v>
@@ -4788,21 +4795,21 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="59"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>289</v>
+      <c r="D19" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4845,15 +4852,15 @@
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="59"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4890,13 +4897,13 @@
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5">
-      <c r="A21" s="59"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="18" t="s">
         <v>211</v>
       </c>
@@ -4937,7 +4944,7 @@
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" ht="63">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="55" t="s">
         <v>201</v>
       </c>
@@ -4990,13 +4997,13 @@
         <v>169</v>
       </c>
       <c r="S22" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="39" t="s">
         <v>170</v>
       </c>
@@ -5049,12 +5056,12 @@
       <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="59"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="58" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>169</v>
@@ -5102,16 +5109,16 @@
       <c r="U24" s="53"/>
     </row>
     <row r="25" spans="1:21" ht="105" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -5153,7 +5160,7 @@
         <v>39</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>215</v>
@@ -5161,7 +5168,7 @@
       <c r="U25" s="42"/>
     </row>
     <row r="26" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="39" t="s">
         <v>167</v>
       </c>
@@ -5208,15 +5215,15 @@
       <c r="U26" s="40"/>
     </row>
     <row r="27" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5251,8 +5258,8 @@
       <c r="U27" s="40"/>
     </row>
     <row r="28" spans="1:21" ht="54" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
@@ -5296,8 +5303,8 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="79.5" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="2" t="s">
         <v>219</v>
       </c>
@@ -5347,7 +5354,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="N31" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5378,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5462,7 +5469,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -5499,7 +5506,7 @@
       <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
@@ -5519,7 +5526,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="57">
+      <c r="K3" s="58">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -5538,7 +5545,7 @@
       <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
@@ -5554,7 +5561,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="58"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -5567,8 +5574,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="68" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="53" t="s">
@@ -5603,13 +5610,13 @@
         <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="53" t="s">
         <v>30</v>
       </c>
@@ -5637,18 +5644,18 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5688,16 +5695,16 @@
       <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5729,15 +5736,15 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="53" t="s">
         <v>5</v>
       </c>
@@ -5745,10 +5752,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5787,12 +5794,12 @@
         <v>194</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S9" s="53"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
@@ -5800,10 +5807,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5845,8 +5852,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="58" t="s">
         <v>213</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -5892,8 +5899,8 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -5937,8 +5944,8 @@
       <c r="S12" s="53"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="43" t="s">
         <v>185</v>
       </c>
@@ -5982,8 +5989,8 @@
       <c r="S13" s="53"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="18" t="s">
         <v>162</v>
       </c>
@@ -6027,8 +6034,8 @@
       <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -6080,7 +6087,7 @@
       <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="53" t="s">
         <v>9</v>
       </c>
@@ -6135,7 +6142,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="53" t="s">
         <v>8</v>
       </c>
@@ -6143,10 +6150,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6180,18 +6187,18 @@
       <c r="S17" s="53"/>
     </row>
     <row r="18" spans="1:19" ht="51" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>165</v>
@@ -6227,21 +6234,21 @@
       <c r="S18" s="53"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="59"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>289</v>
+      <c r="D19" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>288</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6280,15 +6287,15 @@
       <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="59"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6321,13 +6328,13 @@
       <c r="S20" s="53"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="59"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="18" t="s">
         <v>211</v>
       </c>
@@ -6362,7 +6369,7 @@
       <c r="S21" s="53"/>
     </row>
     <row r="22" spans="1:19" ht="110.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51" t="s">
         <v>201</v>
       </c>
@@ -6411,11 +6418,11 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51" t="s">
         <v>170</v>
       </c>
@@ -6466,12 +6473,12 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="59"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="58" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>169</v>
@@ -6515,16 +6522,16 @@
       <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19" ht="117" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -6559,8 +6566,8 @@
       <c r="P25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="53" t="s">
-        <v>227</v>
+      <c r="Q25" s="57" t="s">
+        <v>289</v>
       </c>
       <c r="R25" s="53" t="s">
         <v>214</v>
@@ -6568,7 +6575,7 @@
       <c r="S25" s="53"/>
     </row>
     <row r="26" spans="1:19" ht="91.5" customHeight="1">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51" t="s">
         <v>167</v>
       </c>
@@ -6611,15 +6618,15 @@
       <c r="S26" s="33"/>
     </row>
     <row r="27" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6650,8 +6657,8 @@
       <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
@@ -6691,8 +6698,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="2" t="s">
         <v>219</v>
       </c>
@@ -6738,7 +6745,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6805,7 +6812,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6819,7 +6826,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -6831,7 +6838,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="21" t="s">
         <v>127</v>
       </c>
@@ -6841,8 +6848,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="68" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6855,8 +6862,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
@@ -6867,58 +6874,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="67" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="6" t="s">
         <v>124</v>
       </c>
@@ -6927,8 +6934,8 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="26" t="s">
         <v>56</v>
       </c>
@@ -6943,8 +6950,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="68"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="6" t="s">
         <v>96</v>
       </c>
@@ -6953,9 +6960,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="67" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="68" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -6967,9 +6974,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="74"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6979,9 +6986,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -6991,7 +6998,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
@@ -7003,8 +7010,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="57" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -7015,8 +7022,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
@@ -7025,8 +7032,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
@@ -7035,7 +7042,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
@@ -7045,8 +7052,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="58" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -7057,8 +7064,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="2" t="s">
         <v>130</v>
       </c>
@@ -7067,8 +7074,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -7077,8 +7084,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="72"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -7087,7 +7094,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="24" t="s">
         <v>109</v>
       </c>
@@ -7098,7 +7105,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="12" t="s">
         <v>87</v>
       </c>
@@ -7108,7 +7115,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="74" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7122,7 +7129,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="63"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="21" t="s">
         <v>46</v>
       </c>
@@ -7136,8 +7143,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="57" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="58" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -7148,8 +7155,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
@@ -7158,9 +7165,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="67" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -7170,9 +7177,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="68"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="21" t="s">
         <v>44</v>
       </c>
@@ -7180,9 +7187,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="71" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="72" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -7192,9 +7199,9 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="72"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -7204,7 +7211,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="63"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
@@ -7214,7 +7221,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="63"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="24" t="s">
         <v>104</v>
       </c>
@@ -7224,8 +7231,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="58" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7236,8 +7243,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -7246,8 +7253,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -7256,7 +7263,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="63"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="24" t="s">
         <v>109</v>
       </c>
@@ -7266,7 +7273,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="60" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -7278,7 +7285,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="36" t="s">
         <v>147</v>
       </c>
@@ -7288,7 +7295,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="68"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="36" t="s">
         <v>148</v>
       </c>
@@ -7507,26 +7514,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7557,178 +7564,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" t="s">
-        <v>230</v>
-      </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
         <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
         <v>234</v>
       </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
         <v>240</v>
-      </c>
-      <c r="E4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
         <v>231</v>
-      </c>
-      <c r="C6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
         <v>250</v>
-      </c>
-      <c r="C11" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
         <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
         <v>257</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>258</v>
-      </c>
-      <c r="C21" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -1216,9 +1216,6 @@
 https://github.com/gini/dexter</t>
   </si>
   <si>
-    <t>minio-2.3.10</t>
-  </si>
-  <si>
     <t>mongo-1.0.7</t>
   </si>
   <si>
@@ -1232,9 +1229,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.99</t>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.12</t>
   </si>
   <si>
     <t>RBAC-1.0.5</t>
@@ -1276,6 +1270,12 @@
   <si>
     <t>Lots of hard drives in a Ceph server means you need a faster network for the best throughput.
 Faster Storage Needs Faster Networks</t>
+  </si>
+  <si>
+    <t>minio-2.3.11</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.13</t>
   </si>
 </sst>
 </file>
@@ -2447,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2657,7 +2657,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" s="15">
         <v>0</v>
@@ -2669,10 +2669,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2763,10 +2763,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2798,10 +2798,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2814,10 +2814,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2856,7 +2856,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2869,10 +2869,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2892,8 +2892,8 @@
       <c r="K10" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L10" s="18">
-        <v>128</v>
+      <c r="L10" s="2">
+        <v>10</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>39</v>
@@ -3212,10 +3212,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3304,13 +3304,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3357,7 +3357,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3566,8 +3566,8 @@
       <c r="K24" s="43">
         <v>0.128</v>
       </c>
-      <c r="L24" s="15">
-        <v>0</v>
+      <c r="L24" s="2">
+        <v>128</v>
       </c>
       <c r="M24" s="38" t="s">
         <v>169</v>
@@ -3590,10 +3590,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -3629,7 +3629,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R25" s="42" t="s">
         <v>214</v>
@@ -3694,7 +3694,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3804,11 +3804,11 @@
       <c r="A30" s="13"/>
       <c r="K30" s="2">
         <f>SUM(K2:K29)</f>
-        <v>24.632000000000005</v>
+        <v>26.632000000000005</v>
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
-        <v>1636</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3847,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4098,7 +4098,7 @@
         <v>180</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -4144,10 +4144,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -4188,7 +4188,7 @@
         <v>178</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -4199,10 +4199,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4243,7 +4243,7 @@
         <v>179</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -4256,10 +4256,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4304,7 +4304,7 @@
         <v>200</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -4317,10 +4317,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4347,7 +4347,7 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="N10" s="18">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>39</v>
@@ -4699,10 +4699,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4803,13 +4803,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4860,7 +4860,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -5089,8 +5089,8 @@
       <c r="M24" s="2">
         <v>0.128</v>
       </c>
-      <c r="N24" s="15">
-        <v>0</v>
+      <c r="N24" s="18">
+        <v>256</v>
       </c>
       <c r="O24" s="38" t="s">
         <v>169</v>
@@ -5115,10 +5115,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -5160,7 +5160,7 @@
         <v>39</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>215</v>
@@ -5223,7 +5223,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>
-        <v>3272</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -5385,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5595,7 +5595,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L5" s="15">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -5652,10 +5652,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5701,10 +5701,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5736,10 +5736,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S8" s="53"/>
     </row>
@@ -5752,10 +5752,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5794,7 +5794,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S9" s="53"/>
     </row>
@@ -5807,10 +5807,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5831,7 +5831,7 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="L10" s="18">
-        <v>640</v>
+        <v>50</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>39</v>
@@ -6150,10 +6150,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6242,13 +6242,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6295,7 +6295,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6528,10 +6528,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -6567,7 +6567,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R25" s="53" t="s">
         <v>214</v>
@@ -6626,7 +6626,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6736,11 +6736,11 @@
       <c r="A30" s="13"/>
       <c r="K30" s="2">
         <f>SUM(K2:K29)</f>
-        <v>24.632000000000005</v>
+        <v>34.632000000000005</v>
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
-        <v>8820</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="31" spans="1:19">

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -2447,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3847,7 +3847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1268,14 +1268,15 @@
 6. helm install --name es-minio chartmuseum/minio</t>
   </si>
   <si>
+    <t>minio-2.3.11</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.13</t>
+  </si>
+  <si>
     <t>Lots of hard drives in a Ceph server means you need a faster network for the best throughput.
-Faster Storage Needs Faster Networks</t>
-  </si>
-  <si>
-    <t>minio-2.3.11</t>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.13</t>
+Faster Storage Needs Faster Networks
+https://192.168.11.6:8443</t>
   </si>
 </sst>
 </file>
@@ -1791,20 +1792,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2447,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2669,7 +2670,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R5" s="31" t="s">
         <v>285</v>
@@ -2869,10 +2870,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -3212,10 +3213,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3847,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4317,10 +4318,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4699,10 +4700,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -5807,10 +5808,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -6150,10 +6151,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6886,42 +6887,42 @@
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="60"/>
       <c r="B8" s="69"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A9" s="60"/>
       <c r="B9" s="69"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A10" s="60"/>
       <c r="B10" s="69"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A11" s="60"/>
       <c r="B11" s="69"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
       <c r="A12" s="60"/>
       <c r="B12" s="69"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" s="60"/>
@@ -6976,7 +6977,7 @@
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="60"/>
       <c r="B17" s="69"/>
-      <c r="C17" s="75"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6988,7 +6989,7 @@
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="60"/>
       <c r="B18" s="69"/>
-      <c r="C18" s="75"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -7085,7 +7086,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="73"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
@@ -7115,7 +7116,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="76" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7189,7 +7190,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
       <c r="A36" s="64"/>
       <c r="B36" s="62"/>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="75" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -7201,7 +7202,7 @@
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
       <c r="A37" s="64"/>
       <c r="B37" s="59"/>
-      <c r="C37" s="73"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
@@ -7319,6 +7320,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -7328,12 +7335,6 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="293">
   <si>
     <t>Catalog</t>
   </si>
@@ -1277,6 +1277,12 @@
     <t>Lots of hard drives in a Ceph server means you need a faster network for the best throughput.
 Faster Storage Needs Faster Networks
 https://192.168.11.6:8443</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/registry:2.7.1</t>
+  </si>
+  <si>
+    <t>docker-registry-1.8.1</t>
   </si>
 </sst>
 </file>
@@ -2448,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="M24:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3127,7 +3133,7 @@
         <v>2.0379999999999998</v>
       </c>
       <c r="L15" s="2">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>39</v>
@@ -3543,23 +3549,23 @@
       <c r="C24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>169</v>
+      <c r="D24" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>206</v>
@@ -3570,15 +3576,13 @@
       <c r="L24" s="2">
         <v>128</v>
       </c>
-      <c r="M24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>169</v>
-      </c>
+      <c r="M24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="15"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
@@ -3809,7 +3813,7 @@
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
-        <v>1646</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3848,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4610,7 +4614,7 @@
         <v>2.0379999999999998</v>
       </c>
       <c r="N15" s="2">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>39</v>
@@ -5064,20 +5068,24 @@
       <c r="C24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="D24" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>206</v>
       </c>
@@ -5093,18 +5101,14 @@
       <c r="N24" s="18">
         <v>256</v>
       </c>
-      <c r="O24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="P24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="R24" s="38" t="s">
-        <v>169</v>
-      </c>
+      <c r="O24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="53"/>
       <c r="T24" s="53"/>
       <c r="U24" s="53"/>
@@ -5350,7 +5354,7 @@
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>
-        <v>3292</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -5386,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P24" sqref="M24:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6065,7 +6069,7 @@
         <v>2.0379999999999998</v>
       </c>
       <c r="L15" s="2">
-        <v>1280</v>
+        <v>320</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>39</v>
@@ -6481,23 +6485,23 @@
       <c r="C24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>169</v>
+      <c r="D24" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>206</v>
@@ -6508,15 +6512,13 @@
       <c r="L24" s="18">
         <v>640</v>
       </c>
-      <c r="M24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>169</v>
-      </c>
+      <c r="M24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="15"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
@@ -6741,7 +6743,7 @@
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
-        <v>8230</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="31" spans="1:19">

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" tabRatio="568" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -1216,9 +1216,6 @@
 https://github.com/gini/dexter</t>
   </si>
   <si>
-    <t>mongo-1.0.7</t>
-  </si>
-  <si>
     <t>postgres-1.0.5</t>
   </si>
   <si>
@@ -1283,6 +1280,9 @@
   </si>
   <si>
     <t>docker-registry-1.8.1</t>
+  </si>
+  <si>
+    <t>mongo-1.0.8</t>
   </si>
 </sst>
 </file>
@@ -2454,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P24" sqref="M24:P24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2676,10 +2676,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2721,10 +2721,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2745,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="18">
-        <v>1152</v>
+        <v>1280</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>190</v>
@@ -2770,10 +2770,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2805,10 +2805,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2821,10 +2821,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2863,7 +2863,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2876,10 +2876,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -3219,10 +3219,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3311,13 +3311,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3364,7 +3364,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3550,13 +3550,13 @@
         <v>246</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3595,10 +3595,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -3634,7 +3634,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R25" s="42" t="s">
         <v>214</v>
@@ -3699,7 +3699,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
-        <v>1454</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3852,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4103,7 +4103,7 @@
         <v>180</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -4149,10 +4149,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -4179,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="N7" s="43">
-        <v>2304</v>
+        <v>2560</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>39</v>
@@ -4193,7 +4193,7 @@
         <v>178</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -4204,10 +4204,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4248,7 +4248,7 @@
         <v>179</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -4261,10 +4261,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4309,7 +4309,7 @@
         <v>200</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -4322,10 +4322,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4704,10 +4704,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4808,13 +4808,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4865,7 +4865,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -5069,13 +5069,13 @@
         <v>246</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -5120,10 +5120,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -5165,7 +5165,7 @@
         <v>39</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>215</v>
@@ -5228,7 +5228,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>
-        <v>2908</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P24" sqref="M24:P24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5615,7 +5615,7 @@
         <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -5657,10 +5657,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="18">
-        <v>5760</v>
+        <v>6400</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>190</v>
@@ -5706,10 +5706,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5741,10 +5741,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S8" s="53"/>
     </row>
@@ -5757,10 +5757,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5799,7 +5799,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S9" s="53"/>
     </row>
@@ -5812,10 +5812,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -6155,10 +6155,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6247,13 +6247,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6300,7 +6300,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6486,13 +6486,13 @@
         <v>246</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -6531,10 +6531,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -6570,7 +6570,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R25" s="53" t="s">
         <v>214</v>
@@ -6629,7 +6629,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
-        <v>7270</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="31" spans="1:19">

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -1138,9 +1138,6 @@
     <t>x(high)</t>
   </si>
   <si>
-    <t>coredns-1.1.4</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -1222,9 +1219,6 @@
     <t>rabbitmq-1.0.6</t>
   </si>
   <si>
-    <t>chartmuseum-2.2.4</t>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-rmm-portal:1.0.99</t>
   </si>
   <si>
@@ -1265,12 +1259,6 @@
 6. helm install --name es-minio chartmuseum/minio</t>
   </si>
   <si>
-    <t>minio-2.3.11</t>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.13</t>
-  </si>
-  <si>
     <t>Lots of hard drives in a Ceph server means you need a faster network for the best throughput.
 Faster Storage Needs Faster Networks
 https://192.168.11.6:8443</t>
@@ -1283,6 +1271,18 @@
   </si>
   <si>
     <t>mongo-1.0.8</t>
+  </si>
+  <si>
+    <t>minio-2.3.12</t>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.14</t>
+  </si>
+  <si>
+    <t>coredns-1.1.5</t>
+  </si>
+  <si>
+    <t>chartmuseum-2.2.5</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2372,7 @@
         <v>169</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O3" s="47" t="s">
         <v>169</v>
@@ -2428,7 +2428,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2454,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2676,10 +2676,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2721,10 +2721,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2770,10 +2770,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2805,10 +2805,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2821,10 +2821,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2863,7 +2863,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2876,10 +2876,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -3219,10 +3219,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3264,10 +3264,10 @@
         <v>247</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>165</v>
@@ -3311,13 +3311,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3364,7 +3364,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3550,13 +3550,13 @@
         <v>246</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3595,10 +3595,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -3634,7 +3634,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R25" s="42" t="s">
         <v>214</v>
@@ -3681,13 +3681,13 @@
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="R26" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="R26" s="31" t="s">
+      <c r="S26" s="54" t="s">
         <v>272</v>
-      </c>
-      <c r="S26" s="54" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
@@ -3699,7 +3699,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3722,10 +3722,10 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="S27" s="52"/>
     </row>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3852,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4103,7 +4103,7 @@
         <v>180</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -4149,10 +4149,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -4193,7 +4193,7 @@
         <v>178</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -4204,10 +4204,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4248,7 +4248,7 @@
         <v>179</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -4261,10 +4261,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4309,7 +4309,7 @@
         <v>200</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -4322,10 +4322,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4704,10 +4704,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4755,10 +4755,10 @@
         <v>247</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>165</v>
@@ -4808,13 +4808,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4865,7 +4865,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -5069,13 +5069,13 @@
         <v>246</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -5120,10 +5120,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -5165,7 +5165,7 @@
         <v>39</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>215</v>
@@ -5228,7 +5228,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="N31" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5615,7 +5615,7 @@
         <v>199</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -5657,10 +5657,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5706,10 +5706,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5741,10 +5741,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S8" s="53"/>
     </row>
@@ -5757,10 +5757,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5799,7 +5799,7 @@
         <v>194</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S9" s="53"/>
     </row>
@@ -5812,10 +5812,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -6155,10 +6155,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6200,10 +6200,10 @@
         <v>247</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>165</v>
@@ -6247,13 +6247,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6300,7 +6300,7 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6486,13 +6486,13 @@
         <v>246</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -6531,10 +6531,10 @@
         <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>212</v>
@@ -6570,7 +6570,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R25" s="53" t="s">
         <v>214</v>
@@ -6629,7 +6629,7 @@
         <v>164</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7517,26 +7517,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>267</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="292">
   <si>
     <t>Catalog</t>
   </si>
@@ -759,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ceph-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO (Evelyn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,10 +883,6 @@
   </si>
   <si>
     <t>1. keep more data on a longer period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitoring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1283,6 +1275,9 @@
   </si>
   <si>
     <t>chartmuseum-2.2.5</t>
+  </si>
+  <si>
+    <t>Weavescope</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1756,6 +1751,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1798,20 +1796,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2249,10 +2247,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>33</v>
@@ -2283,106 +2281,106 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="135.75" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>173</v>
-      </c>
       <c r="E2" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
-      <c r="S2" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
+      <c r="S2" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="79"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="13"/>
@@ -2428,7 +2426,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2454,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2538,7 +2536,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2575,7 +2573,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2585,7 +2583,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -2595,7 +2593,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="58">
+      <c r="K3" s="59">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2609,12 +2607,12 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="60"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2630,7 +2628,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2643,12 +2641,12 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="69" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2676,16 +2674,16 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2713,18 +2711,18 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2748,7 +2746,7 @@
         <v>1280</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -2764,16 +2762,16 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2797,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -2805,15 +2803,15 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2821,10 +2819,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2848,7 +2846,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -2860,15 +2858,15 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2876,10 +2874,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2921,18 +2919,18 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="58" t="s">
-        <v>213</v>
+      <c r="A11" s="61"/>
+      <c r="B11" s="59" t="s">
+        <v>211</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -2968,16 +2966,16 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -3013,19 +3011,19 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -3057,106 +3055,102 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:19" ht="89.25" customHeight="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>163</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
+      <c r="K14" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="L14" s="2">
+        <v>64</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S14" s="58"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>39</v>
+        <v>291</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>2.0379999999999998</v>
-      </c>
-      <c r="L15" s="2">
-        <v>64</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>209</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="60"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -3164,13 +3158,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -3211,7 +3205,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -3219,10 +3213,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -3256,21 +3250,21 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -3303,21 +3297,21 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="60"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="69" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>283</v>
+      <c r="D19" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>281</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3356,15 +3350,15 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="60"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3397,15 +3391,15 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="60"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3438,33 +3432,33 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="110.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K22" s="43">
         <v>1.28</v>
@@ -3473,48 +3467,48 @@
         <v>0</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="60"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>64</v>
@@ -3526,37 +3520,37 @@
         <v>10</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="60"/>
-      <c r="B24" s="58" t="s">
-        <v>203</v>
+      <c r="A24" s="61"/>
+      <c r="B24" s="59" t="s">
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3568,7 +3562,7 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K24" s="43">
         <v>0.128</v>
@@ -3589,31 +3583,31 @@
       <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19" ht="117" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="K25" s="2">
         <v>0.128</v>
@@ -3634,41 +3628,41 @@
         <v>39</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R25" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" ht="103.5" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="2">
         <v>0.17799999999999999</v>
@@ -3677,29 +3671,29 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="S26" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="R26" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="S26" s="54" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="27" spans="1:19" ht="150" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="59" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3722,21 +3716,21 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3771,13 +3765,13 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -3798,7 +3792,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21" t="s">
@@ -3809,7 +3803,7 @@
       <c r="A30" s="13"/>
       <c r="K30" s="2">
         <f>SUM(K2:K29)</f>
-        <v>26.632000000000005</v>
+        <v>27.632000000000005</v>
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
@@ -3818,7 +3812,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3852,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3910,10 +3904,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>33</v>
@@ -3944,7 +3938,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3987,7 +3981,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3997,7 +3991,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -4011,7 +4005,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="71">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -4025,12 +4019,12 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="60"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
@@ -4050,7 +4044,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -4063,8 +4057,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="69" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -4100,16 +4094,16 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -4141,18 +4135,18 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -4170,7 +4164,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -4190,24 +4184,24 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4225,7 +4219,7 @@
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -4245,15 +4239,15 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -4261,10 +4255,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4282,7 +4276,7 @@
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -4306,15 +4300,15 @@
         <v>39</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -4322,10 +4316,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4343,7 +4337,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -4373,21 +4367,21 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -4402,7 +4396,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -4426,16 +4420,16 @@
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -4453,7 +4447,7 @@
         <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -4477,19 +4471,19 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -4504,7 +4498,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4526,118 +4520,122 @@
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
     </row>
-    <row r="14" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:21" ht="89.25" customHeight="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="43">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="N14" s="2">
+        <v>128</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="U14" s="58"/>
+    </row>
+    <row r="15" spans="1:21" ht="89.25" customHeight="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="N14" s="15">
-        <v>0</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="P14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-    </row>
-    <row r="15" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>39</v>
+      <c r="E15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>2.0379999999999998</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>128</v>
       </c>
-      <c r="O15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="T15" s="25" t="s">
-        <v>158</v>
-      </c>
+      <c r="O15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A16" s="60"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
@@ -4645,13 +4643,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -4666,7 +4664,7 @@
         <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
@@ -4689,14 +4687,14 @@
       <c r="R16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="40"/>
+      <c r="S16" s="58"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="55.5" customHeight="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
@@ -4704,10 +4702,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -4725,7 +4723,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
@@ -4747,21 +4745,21 @@
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -4776,7 +4774,7 @@
         <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L18" s="43">
         <v>1</v>
@@ -4800,21 +4798,21 @@
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="60"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="69" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>283</v>
+      <c r="D19" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>281</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4829,7 +4827,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
@@ -4857,15 +4855,15 @@
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="60"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4880,7 +4878,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L20" s="43">
         <v>3</v>
@@ -4902,15 +4900,15 @@
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="16.5">
-      <c r="A21" s="60"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4925,7 +4923,7 @@
         <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
@@ -4943,42 +4941,42 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" ht="63">
-      <c r="A22" s="60"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L22" s="43">
         <v>1</v>
@@ -4987,57 +4985,57 @@
         <v>1.28</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S22" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="60"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L23" s="43">
         <v>1</v>
@@ -5049,33 +5047,33 @@
         <v>20</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="60"/>
-      <c r="B24" s="58" t="s">
-        <v>203</v>
+      <c r="A24" s="61"/>
+      <c r="B24" s="59" t="s">
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -5087,10 +5085,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L24" s="43">
         <v>1</v>
@@ -5114,34 +5112,34 @@
       <c r="U24" s="53"/>
     </row>
     <row r="25" spans="1:21" ht="105" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
@@ -5165,41 +5163,41 @@
         <v>39</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T25" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U25" s="42"/>
     </row>
     <row r="26" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="43">
@@ -5210,7 +5208,7 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
@@ -5220,15 +5218,15 @@
       <c r="U26" s="40"/>
     </row>
     <row r="27" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="59" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5255,21 +5253,21 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U27" s="40"/>
     </row>
     <row r="28" spans="1:21" ht="54" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -5308,13 +5306,13 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="79.5" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5339,7 +5337,7 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T29" s="40"/>
       <c r="U29" s="40" t="s">
@@ -5350,16 +5348,16 @@
       <c r="A30" s="13"/>
       <c r="M30" s="2">
         <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>50.095999999999997</v>
+        <v>51.095999999999997</v>
       </c>
       <c r="N30" s="2">
         <f>SUM(N2:N29)</f>
-        <v>3164</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="N31" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5390,8 +5388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5474,7 +5472,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -5511,7 +5509,7 @@
       <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
@@ -5521,7 +5519,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -5531,7 +5529,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="58">
+      <c r="K3" s="59">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -5545,12 +5543,12 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="60"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
@@ -5566,7 +5564,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -5579,12 +5577,12 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="69" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -5612,16 +5610,16 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="53" t="s">
         <v>30</v>
       </c>
@@ -5649,18 +5647,18 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5684,7 +5682,7 @@
         <v>6400</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -5700,16 +5698,16 @@
       <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5733,7 +5731,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -5741,15 +5739,15 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="53" t="s">
         <v>5</v>
       </c>
@@ -5757,10 +5755,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5784,7 +5782,7 @@
         <v>320</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -5796,15 +5794,15 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S9" s="53"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
@@ -5812,10 +5810,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5857,18 +5855,18 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="58" t="s">
-        <v>213</v>
+      <c r="A11" s="61"/>
+      <c r="B11" s="59" t="s">
+        <v>211</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -5904,16 +5902,16 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -5949,19 +5947,19 @@
       <c r="S12" s="53"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -5993,106 +5991,110 @@
       <c r="R13" s="53"/>
       <c r="S13" s="53"/>
     </row>
-    <row r="14" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:19" ht="89.25" customHeight="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>163</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
+      <c r="K14" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="L14" s="2">
+        <v>320</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S14" s="58"/>
     </row>
     <row r="15" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>39</v>
+        <v>291</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>2.0379999999999998</v>
-      </c>
-      <c r="L15" s="2">
-        <v>320</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>209</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
       <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A16" s="60"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="53" t="s">
         <v>9</v>
       </c>
@@ -6100,13 +6102,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -6147,7 +6149,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="53" t="s">
         <v>8</v>
       </c>
@@ -6155,10 +6157,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -6192,21 +6194,21 @@
       <c r="S17" s="53"/>
     </row>
     <row r="18" spans="1:19" ht="51" customHeight="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -6239,21 +6241,21 @@
       <c r="S18" s="53"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="60"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="69" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>283</v>
+      <c r="D19" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>281</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6292,15 +6294,15 @@
       <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="60"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6333,15 +6335,15 @@
       <c r="S20" s="53"/>
     </row>
     <row r="21" spans="1:19" ht="16.5">
-      <c r="A21" s="60"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -6374,33 +6376,33 @@
       <c r="S21" s="53"/>
     </row>
     <row r="22" spans="1:19" ht="110.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K22" s="43">
         <v>1.28</v>
@@ -6409,48 +6411,48 @@
         <v>0</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="60"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>64</v>
@@ -6462,37 +6464,37 @@
         <v>50</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="60"/>
-      <c r="B24" s="58" t="s">
-        <v>203</v>
+      <c r="A24" s="61"/>
+      <c r="B24" s="59" t="s">
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -6504,7 +6506,7 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K24" s="43">
         <v>0.128</v>
@@ -6525,31 +6527,31 @@
       <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19" ht="117" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="K25" s="2">
         <v>0.128</v>
@@ -6570,41 +6572,41 @@
         <v>39</v>
       </c>
       <c r="Q25" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S25" s="53"/>
     </row>
     <row r="26" spans="1:19" ht="91.5" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="2">
         <v>0.17799999999999999</v>
@@ -6613,7 +6615,7 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="33"/>
@@ -6621,15 +6623,15 @@
       <c r="S26" s="33"/>
     </row>
     <row r="27" spans="1:19" ht="83.25" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="59" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6652,21 +6654,21 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -6701,13 +6703,13 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -6728,7 +6730,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="53" t="s">
@@ -6739,7 +6741,7 @@
       <c r="A30" s="13"/>
       <c r="K30" s="2">
         <f>SUM(K2:K29)</f>
-        <v>34.632000000000005</v>
+        <v>35.632000000000005</v>
       </c>
       <c r="L30" s="2">
         <f>SUM(L2:L29)</f>
@@ -6748,7 +6750,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="L31" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6815,7 +6817,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6829,7 +6831,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -6841,7 +6843,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="21" t="s">
         <v>127</v>
       </c>
@@ -6851,8 +6853,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="69" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6865,8 +6867,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
@@ -6877,58 +6879,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="68" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="69"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="6" t="s">
         <v>124</v>
       </c>
@@ -6937,8 +6939,8 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="26" t="s">
         <v>56</v>
       </c>
@@ -6953,8 +6955,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="6" t="s">
         <v>96</v>
       </c>
@@ -6963,9 +6965,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="68" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="69" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -6977,9 +6979,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
@@ -6989,9 +6991,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
@@ -7001,7 +7003,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="60"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
@@ -7013,8 +7015,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="59" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -7025,8 +7027,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
@@ -7035,8 +7037,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
@@ -7045,7 +7047,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="60"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
@@ -7055,8 +7057,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -7067,8 +7069,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="2" t="s">
         <v>130</v>
       </c>
@@ -7077,8 +7079,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -7087,7 +7089,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="60"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="74"/>
       <c r="C27" s="2" t="s">
         <v>61</v>
@@ -7097,7 +7099,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="60"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="24" t="s">
         <v>109</v>
       </c>
@@ -7108,7 +7110,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A29" s="60"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="12" t="s">
         <v>87</v>
       </c>
@@ -7118,7 +7120,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="75" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7132,7 +7134,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A31" s="64"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="21" t="s">
         <v>46</v>
       </c>
@@ -7146,8 +7148,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="59" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -7158,8 +7160,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
@@ -7168,9 +7170,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="68" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="69" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -7180,9 +7182,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="69"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="21" t="s">
         <v>44</v>
       </c>
@@ -7190,9 +7192,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="75" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="73" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -7202,8 +7204,8 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="74"/>
       <c r="D37" s="21" t="s">
         <v>100</v>
@@ -7214,7 +7216,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="64"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
@@ -7224,7 +7226,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="64"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="24" t="s">
         <v>104</v>
       </c>
@@ -7234,8 +7236,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="58" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7246,8 +7248,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -7256,8 +7258,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -7266,7 +7268,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A43" s="64"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="24" t="s">
         <v>109</v>
       </c>
@@ -7276,7 +7278,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="61" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -7288,7 +7290,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A45" s="69"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="36" t="s">
         <v>147</v>
       </c>
@@ -7298,7 +7300,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A46" s="69"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="36" t="s">
         <v>148</v>
       </c>
@@ -7322,12 +7324,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -7337,6 +7333,12 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7517,26 +7519,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7567,178 +7569,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
         <v>242</v>
-      </c>
-      <c r="B9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" t="s">
         <v>256</v>
-      </c>
-      <c r="B21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -2452,7 +2452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3847,7 +3847,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4151,7 +4151,7 @@
       <c r="F7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -5388,8 +5388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="292">
   <si>
     <t>Catalog</t>
   </si>
@@ -759,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RBAC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1277,7 +1273,10 @@
     <t>chartmuseum-2.2.5</t>
   </si>
   <si>
-    <t>Weavescope</t>
+    <t>kubeapps-2.0.2</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/_______</t>
   </si>
 </sst>
 </file>
@@ -2247,10 +2246,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>33</v>
@@ -2283,52 +2282,52 @@
     <row r="2" spans="1:21" ht="135.75" customHeight="1">
       <c r="A2" s="80"/>
       <c r="B2" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>172</v>
-      </c>
       <c r="E2" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
       <c r="S2" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T2" s="59"/>
       <c r="U2" s="59"/>
@@ -2337,43 +2336,43 @@
       <c r="A3" s="80"/>
       <c r="B3" s="79"/>
       <c r="C3" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
@@ -2426,7 +2425,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2450,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="G4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2583,7 +2582,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -2607,7 +2606,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -2646,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2674,10 +2673,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2719,10 +2718,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -2746,7 +2745,7 @@
         <v>1280</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -2768,10 +2767,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -2795,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -2803,10 +2802,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2819,10 +2818,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -2846,7 +2845,7 @@
         <v>64</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -2858,10 +2857,10 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2874,10 +2873,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -2921,16 +2920,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="61"/>
       <c r="B11" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -2972,10 +2971,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -3014,16 +3013,16 @@
       <c r="A13" s="61"/>
       <c r="B13" s="65"/>
       <c r="C13" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -3062,10 +3061,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>139</v>
@@ -3104,67 +3103,81 @@
         <v>142</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S14" s="58"/>
     </row>
-    <row r="15" spans="1:19" ht="89.25" customHeight="1">
+    <row r="15" spans="1:19" ht="58.5" customHeight="1">
       <c r="A15" s="61"/>
-      <c r="B15" s="60"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>162</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="21"/>
-    </row>
-    <row r="16" spans="1:19" ht="58.5" customHeight="1">
+        <v>0.128</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="42.75" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>206</v>
+        <v>287</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -3176,41 +3189,31 @@
         <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L16" s="2">
-        <v>10</v>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42.75" customHeight="1">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" ht="63.75" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>288</v>
@@ -3219,7 +3222,7 @@
         <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>39</v>
@@ -3234,7 +3237,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -3242,29 +3245,31 @@
       <c r="M17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="63.75" customHeight="1">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="61"/>
-      <c r="B18" s="5" t="s">
-        <v>31</v>
+      <c r="B18" s="69" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -3276,10 +3281,10 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2">
-        <v>0.25600000000000001</v>
+        <v>2</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -3287,31 +3292,31 @@
       <c r="M18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="17"/>
+      <c r="N18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="61"/>
-      <c r="B19" s="69" t="s">
-        <v>7</v>
-      </c>
+      <c r="B19" s="70"/>
       <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>281</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -3326,7 +3331,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -3334,15 +3339,9 @@
       <c r="M19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="33" t="s">
         <v>156</v>
       </c>
@@ -3353,12 +3352,12 @@
       <c r="A20" s="61"/>
       <c r="B20" s="70"/>
       <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="18" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3373,7 +3372,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -3390,16 +3389,22 @@
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5">
+    <row r="21" spans="1:19" ht="110.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="70"/>
+      <c r="B21" s="51" t="s">
+        <v>198</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+        <v>199</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -3411,146 +3416,144 @@
         <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.51200000000000001</v>
+        <v>202</v>
+      </c>
+      <c r="K21" s="43">
+        <v>0.57199999999999995</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
       </c>
-      <c r="M21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:19" ht="110.25">
+      <c r="M21" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="61"/>
-      <c r="B22" s="51" t="s">
-        <v>199</v>
+      <c r="B22" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="K22" s="43">
-        <v>1.28</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <v>10</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53" t="s">
-        <v>225</v>
+        <v>167</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="42" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="61"/>
-      <c r="B23" s="41" t="s">
-        <v>169</v>
+      <c r="B23" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>168</v>
+        <v>243</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="K23" s="43">
-        <v>0.25600000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="L23" s="2">
-        <v>10</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="P23" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="16.5">
+      <c r="S23" s="53"/>
+    </row>
+    <row r="24" spans="1:19" ht="117" customHeight="1">
       <c r="A24" s="61"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>285</v>
+      <c r="D24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3562,13 +3565,13 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="43">
+        <v>203</v>
+      </c>
+      <c r="K24" s="2">
         <v>0.128</v>
       </c>
       <c r="L24" s="2">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>39</v>
@@ -3576,124 +3579,116 @@
       <c r="N24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="53"/>
-    </row>
-    <row r="25" spans="1:19" ht="117" customHeight="1">
+      <c r="O24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="S24" s="42"/>
+    </row>
+    <row r="25" spans="1:19" ht="103.5" customHeight="1">
       <c r="A25" s="61"/>
-      <c r="B25" s="60"/>
+      <c r="B25" s="41" t="s">
+        <v>165</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="K25" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L25" s="2">
-        <v>8</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="R25" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="S25" s="42"/>
-    </row>
-    <row r="26" spans="1:19" ht="103.5" customHeight="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="S25" s="54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="150" customHeight="1">
       <c r="A26" s="61"/>
-      <c r="B26" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="B26" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="N26" s="15"/>
-      <c r="O26" s="38" t="s">
-        <v>168</v>
-      </c>
+      <c r="O26" s="15"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="R26" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="S26" s="54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="150" customHeight="1">
+      <c r="Q26" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19" ht="54" customHeight="1">
       <c r="A27" s="61"/>
-      <c r="B27" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>163</v>
+      <c r="B27" s="63"/>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3701,7 +3696,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -3712,34 +3707,36 @@
       <c r="M27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="S27" s="52"/>
+      <c r="N27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="J28" s="15"/>
       <c r="K28" s="15">
         <v>0</v>
       </c>
@@ -3749,91 +3746,52 @@
       <c r="M28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50" t="s">
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15">
-        <v>0</v>
-      </c>
-      <c r="L29" s="15">
-        <v>0</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21" t="s">
-        <v>79</v>
+    <row r="29" spans="1:19">
+      <c r="A29" s="13"/>
+      <c r="K29" s="2">
+        <f>SUM(K2:K28)</f>
+        <v>25.924000000000003</v>
+      </c>
+      <c r="L29" s="2">
+        <f>SUM(L2:L28)</f>
+        <v>1582</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="13"/>
-      <c r="K30" s="2">
-        <f>SUM(K2:K29)</f>
-        <v>27.632000000000005</v>
-      </c>
-      <c r="L30" s="2">
-        <f>SUM(L2:L29)</f>
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="L31" s="11" t="s">
-        <v>258</v>
+      <c r="L30" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1" display="postgres/@dvant1cH"/>
     <hyperlink ref="R5" r:id="rId2" display="ecgwc/@dvant1cH"/>
-    <hyperlink ref="Q26" r:id="rId3"/>
-    <hyperlink ref="R26" r:id="rId4"/>
+    <hyperlink ref="Q25" r:id="rId3"/>
+    <hyperlink ref="R25" r:id="rId4"/>
     <hyperlink ref="R9" r:id="rId5" display="admin/@dvant1cH"/>
     <hyperlink ref="R8" r:id="rId6" display="postgres/@dvant1cH"/>
   </hyperlinks>
@@ -3844,10 +3802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="I7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3904,10 +3862,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>33</v>
@@ -3991,7 +3949,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -4019,7 +3977,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U3" s="40"/>
     </row>
@@ -4094,10 +4052,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -4143,10 +4101,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -4164,7 +4122,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L7" s="43">
         <v>1</v>
@@ -4184,10 +4142,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U7" s="40"/>
     </row>
@@ -4198,10 +4156,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -4219,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L8" s="43">
         <v>1</v>
@@ -4239,10 +4197,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U8" s="40"/>
     </row>
@@ -4255,10 +4213,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -4276,7 +4234,7 @@
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L9" s="43">
         <v>1</v>
@@ -4300,10 +4258,10 @@
         <v>39</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U9" s="40"/>
     </row>
@@ -4316,10 +4274,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -4337,7 +4295,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
@@ -4375,13 +4333,13 @@
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -4396,7 +4354,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L11" s="43">
         <v>1</v>
@@ -4426,10 +4384,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -4447,7 +4405,7 @@
         <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L12" s="43">
         <v>1</v>
@@ -4474,16 +4432,16 @@
       <c r="A13" s="61"/>
       <c r="B13" s="65"/>
       <c r="C13" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -4498,7 +4456,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L13" s="43">
         <v>1</v>
@@ -4527,10 +4485,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>139</v>
@@ -4548,7 +4506,7 @@
         <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="43">
         <v>1</v>
@@ -4572,84 +4530,88 @@
         <v>39</v>
       </c>
       <c r="S14" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T14" s="25" t="s">
         <v>158</v>
       </c>
       <c r="U14" s="58"/>
     </row>
-    <row r="15" spans="1:21" ht="89.25" customHeight="1">
+    <row r="15" spans="1:21" ht="58.5" customHeight="1">
       <c r="A15" s="61"/>
-      <c r="B15" s="60"/>
+      <c r="B15" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>162</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L15" s="43">
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>128</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>162</v>
+        <v>0.128</v>
+      </c>
+      <c r="N15" s="43">
+        <v>20</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="40"/>
-    </row>
-    <row r="16" spans="1:21" ht="58.5" customHeight="1">
+      <c r="T15" s="40"/>
+      <c r="U15" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="55.5" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>206</v>
+        <v>287</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -4661,45 +4623,37 @@
         <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="N16" s="43">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="58"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="40"/>
       <c r="T16" s="40"/>
-      <c r="U16" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="55.5" customHeight="1">
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:21" ht="40.5" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="40" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>288</v>
@@ -4708,7 +4662,7 @@
         <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>39</v>
@@ -4723,13 +4677,13 @@
         <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L17" s="43">
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="N17" s="15">
         <v>0</v>
@@ -4737,29 +4691,31 @@
       <c r="O17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="15"/>
+      <c r="P17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" spans="1:21" ht="40.5" customHeight="1">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="61"/>
-      <c r="B18" s="40" t="s">
-        <v>31</v>
+      <c r="B18" s="69" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -4771,16 +4727,16 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L18" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="2">
-        <v>0.25600000000000001</v>
+        <v>3</v>
       </c>
       <c r="N18" s="15">
         <v>0</v>
@@ -4788,31 +4744,29 @@
       <c r="O18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="40"/>
+      <c r="P18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="46"/>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="61"/>
-      <c r="B19" s="69" t="s">
-        <v>7</v>
-      </c>
+      <c r="B19" s="70"/>
       <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>281</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -4827,29 +4781,23 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L19" s="43">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2">
         <v>2</v>
       </c>
-      <c r="M19" s="2">
-        <v>3</v>
-      </c>
       <c r="N19" s="15">
         <v>0</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
       <c r="S19" s="46"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
@@ -4858,12 +4806,12 @@
       <c r="A20" s="61"/>
       <c r="B20" s="70"/>
       <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="18" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4878,13 +4826,13 @@
         <v>65</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L20" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="15">
         <v>0</v>
@@ -4895,20 +4843,28 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="46"/>
+      <c r="S20" s="46" t="s">
+        <v>180</v>
+      </c>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5">
+    <row r="21" spans="1:21" ht="63">
       <c r="A21" s="61"/>
-      <c r="B21" s="70"/>
+      <c r="B21" s="55" t="s">
+        <v>198</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+        <v>199</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4920,160 +4876,158 @@
         <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
       </c>
-      <c r="M21" s="2">
-        <v>1</v>
+      <c r="M21" s="43">
+        <v>0.57199999999999995</v>
       </c>
       <c r="N21" s="15">
         <v>0</v>
       </c>
-      <c r="O21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-    </row>
-    <row r="22" spans="1:21" ht="63">
+      <c r="O21" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="61"/>
-      <c r="B22" s="55" t="s">
-        <v>199</v>
+      <c r="B22" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="L22" s="43">
         <v>1</v>
       </c>
       <c r="M22" s="43">
-        <v>1.28</v>
-      </c>
-      <c r="N22" s="38" t="s">
-        <v>168</v>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="N22" s="18">
+        <v>20</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="R22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="S22" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
+        <v>167</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="61"/>
-      <c r="B23" s="39" t="s">
-        <v>169</v>
+      <c r="B23" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>168</v>
+        <v>243</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="L23" s="43">
         <v>1</v>
       </c>
-      <c r="M23" s="43">
-        <v>0.25600000000000001</v>
+      <c r="M23" s="2">
+        <v>0.128</v>
       </c>
       <c r="N23" s="18">
-        <v>20</v>
-      </c>
-      <c r="O23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="P23" s="15"/>
+        <v>256</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="R23" s="2"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+    </row>
+    <row r="24" spans="1:21" ht="105" customHeight="1">
       <c r="A24" s="61"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>285</v>
+      <c r="D24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -5085,10 +5039,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L24" s="43">
         <v>1</v>
@@ -5096,8 +5050,8 @@
       <c r="M24" s="2">
         <v>0.128</v>
       </c>
-      <c r="N24" s="18">
-        <v>256</v>
+      <c r="N24" s="2">
+        <v>16</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>39</v>
@@ -5105,128 +5059,118 @@
       <c r="P24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-    </row>
-    <row r="25" spans="1:21" ht="105" customHeight="1">
+      <c r="Q24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="T24" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="U24" s="42"/>
+    </row>
+    <row r="25" spans="1:21" ht="71.25" customHeight="1">
       <c r="A25" s="61"/>
-      <c r="B25" s="60"/>
+      <c r="B25" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="15"/>
       <c r="L25" s="43">
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="N25" s="2">
-        <v>16</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="T25" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="U25" s="42"/>
-    </row>
-    <row r="26" spans="1:21" ht="71.25" customHeight="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+    </row>
+    <row r="26" spans="1:21" ht="83.25" customHeight="1">
       <c r="A26" s="61"/>
-      <c r="B26" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>168</v>
+      <c r="B26" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K26" s="15"/>
-      <c r="L26" s="43">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="38" t="s">
-        <v>168</v>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="40"/>
+      <c r="S26" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="U26" s="40"/>
     </row>
-    <row r="27" spans="1:21" ht="83.25" customHeight="1">
+    <row r="27" spans="1:21" ht="54" customHeight="1">
       <c r="A27" s="61"/>
-      <c r="B27" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>163</v>
+      <c r="B27" s="63"/>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5234,7 +5178,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15">
@@ -5249,34 +5193,36 @@
       <c r="O27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="U27" s="40"/>
-    </row>
-    <row r="28" spans="1:21" ht="54" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="63"/>
+      <c r="P27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="79.5" customHeight="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15">
         <v>0</v>
@@ -5290,88 +5236,45 @@
       <c r="O28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50" t="s">
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="79.5" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15">
-        <v>0</v>
-      </c>
-      <c r="M29" s="15">
-        <v>0</v>
-      </c>
-      <c r="N29" s="15">
-        <v>0</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40" t="s">
-        <v>79</v>
+    <row r="29" spans="1:21">
+      <c r="A29" s="13"/>
+      <c r="M29" s="2">
+        <f>SUMPRODUCT(L2:L28,M2:M28)</f>
+        <v>49.387999999999998</v>
+      </c>
+      <c r="N29" s="2">
+        <f>SUM(N2:N28)</f>
+        <v>3164</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="13"/>
-      <c r="M30" s="2">
-        <f>SUMPRODUCT(L2:L29,M2:M29)</f>
-        <v>51.095999999999997</v>
-      </c>
-      <c r="N30" s="2">
-        <f>SUM(N2:N29)</f>
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="N31" s="11" t="s">
-        <v>259</v>
+      <c r="N30" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A2:A28"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5386,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5519,7 +5422,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
@@ -5543,7 +5446,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S3" s="53"/>
     </row>
@@ -5582,7 +5485,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -5610,10 +5513,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -5655,10 +5558,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -5682,7 +5585,7 @@
         <v>6400</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>39</v>
@@ -5704,10 +5607,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
@@ -5731,7 +5634,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>39</v>
@@ -5739,10 +5642,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S8" s="53"/>
     </row>
@@ -5755,10 +5658,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>73</v>
@@ -5782,7 +5685,7 @@
         <v>320</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>39</v>
@@ -5794,10 +5697,10 @@
         <v>39</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S9" s="53"/>
     </row>
@@ -5810,10 +5713,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>120</v>
@@ -5857,16 +5760,16 @@
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="61"/>
       <c r="B11" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>123</v>
@@ -5908,10 +5811,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>122</v>
@@ -5950,16 +5853,16 @@
       <c r="A13" s="61"/>
       <c r="B13" s="65"/>
       <c r="C13" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -5998,10 +5901,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>139</v>
@@ -6040,75 +5943,81 @@
         <v>142</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S14" s="58"/>
     </row>
-    <row r="15" spans="1:19" ht="89.25" customHeight="1">
+    <row r="15" spans="1:19" ht="58.5" customHeight="1">
       <c r="A15" s="61"/>
-      <c r="B15" s="60"/>
+      <c r="B15" s="53" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>162</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="53"/>
-    </row>
-    <row r="16" spans="1:19" ht="58.5" customHeight="1">
+        <v>0.128</v>
+      </c>
+      <c r="L15" s="2">
+        <v>50</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="45.75" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>206</v>
+        <v>287</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -6120,41 +6029,31 @@
         <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L16" s="2">
-        <v>50</v>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="53" t="s">
-        <v>143</v>
-      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="53"/>
       <c r="R16" s="53"/>
-      <c r="S16" s="53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="45.75" customHeight="1">
+      <c r="S16" s="53"/>
+    </row>
+    <row r="17" spans="1:19" ht="51" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="53" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>288</v>
@@ -6163,7 +6062,7 @@
         <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>39</v>
@@ -6178,7 +6077,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -6186,29 +6085,31 @@
       <c r="M17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="53"/>
       <c r="R17" s="53"/>
       <c r="S17" s="53"/>
     </row>
-    <row r="18" spans="1:19" ht="51" customHeight="1">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="61"/>
-      <c r="B18" s="53" t="s">
-        <v>31</v>
+      <c r="B18" s="69" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -6220,10 +6121,10 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2">
-        <v>0.25600000000000001</v>
+        <v>2</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -6231,31 +6132,31 @@
       <c r="M18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="53"/>
+      <c r="N18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="R18" s="53"/>
       <c r="S18" s="53"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="61"/>
-      <c r="B19" s="69" t="s">
-        <v>7</v>
-      </c>
+      <c r="B19" s="70"/>
       <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>281</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
@@ -6270,23 +6171,17 @@
         <v>65</v>
       </c>
       <c r="K19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>39</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="33" t="s">
         <v>156</v>
       </c>
@@ -6297,12 +6192,12 @@
       <c r="A20" s="61"/>
       <c r="B20" s="70"/>
       <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="18" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6317,13 +6212,13 @@
         <v>65</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
@@ -6334,16 +6229,22 @@
       <c r="R20" s="53"/>
       <c r="S20" s="53"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5">
+    <row r="21" spans="1:19" ht="110.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="70"/>
+      <c r="B21" s="51" t="s">
+        <v>198</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+        <v>199</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -6355,146 +6256,144 @@
         <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.51200000000000001</v>
+        <v>202</v>
+      </c>
+      <c r="K21" s="43">
+        <v>0.57199999999999995</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
       </c>
-      <c r="M21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="33" t="s">
-        <v>156</v>
-      </c>
+      <c r="M21" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="53"/>
       <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-    </row>
-    <row r="22" spans="1:19" ht="110.25">
+      <c r="S21" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="61"/>
       <c r="B22" s="51" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="K22" s="43">
-        <v>1.28</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <v>50</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
+        <v>167</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="53" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="61"/>
-      <c r="B23" s="51" t="s">
-        <v>169</v>
+      <c r="B23" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>168</v>
+        <v>243</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="K23" s="43">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="L23" s="2">
-        <v>50</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="O23" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="P23" s="15"/>
+        <v>0.128</v>
+      </c>
+      <c r="L23" s="18">
+        <v>640</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="16.5">
+      <c r="S23" s="53"/>
+    </row>
+    <row r="24" spans="1:19" ht="117" customHeight="1">
       <c r="A24" s="61"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>285</v>
+      <c r="D24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -6506,13 +6405,13 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="43">
+        <v>203</v>
+      </c>
+      <c r="K24" s="2">
         <v>0.128</v>
       </c>
-      <c r="L24" s="18">
-        <v>640</v>
+      <c r="L24" s="2">
+        <v>40</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>39</v>
@@ -6520,118 +6419,110 @@
       <c r="N24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
+      <c r="O24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="R24" s="53" t="s">
+        <v>211</v>
+      </c>
       <c r="S24" s="53"/>
     </row>
-    <row r="25" spans="1:19" ht="117" customHeight="1">
+    <row r="25" spans="1:19" ht="91.5" customHeight="1">
       <c r="A25" s="61"/>
-      <c r="B25" s="60"/>
+      <c r="B25" s="51" t="s">
+        <v>165</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="K25" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L25" s="2">
-        <v>40</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="R25" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="S25" s="53"/>
-    </row>
-    <row r="26" spans="1:19" ht="91.5" customHeight="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" spans="1:19" ht="83.25" customHeight="1">
       <c r="A26" s="61"/>
-      <c r="B26" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="B26" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="N26" s="15"/>
-      <c r="O26" s="38" t="s">
-        <v>168</v>
-      </c>
+      <c r="O26" s="15"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-    </row>
-    <row r="27" spans="1:19" ht="83.25" customHeight="1">
+      <c r="Q26" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="S26" s="53"/>
+    </row>
+    <row r="27" spans="1:19" ht="54" customHeight="1">
       <c r="A27" s="61"/>
-      <c r="B27" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>163</v>
+      <c r="B27" s="63"/>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -6639,7 +6530,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -6650,34 +6541,36 @@
       <c r="M27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="S27" s="53"/>
+      <c r="N27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="J28" s="15"/>
       <c r="K28" s="15">
         <v>0</v>
       </c>
@@ -6687,84 +6580,45 @@
       <c r="M28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q28" s="53"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="53" t="s">
+        <v>215</v>
+      </c>
       <c r="R28" s="53"/>
       <c r="S28" s="53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="54" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15">
-        <v>0</v>
-      </c>
-      <c r="L29" s="15">
-        <v>0</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53" t="s">
-        <v>79</v>
+    <row r="29" spans="1:19">
+      <c r="A29" s="13"/>
+      <c r="K29" s="2">
+        <f>SUM(K2:K28)</f>
+        <v>33.924000000000007</v>
+      </c>
+      <c r="L29" s="2">
+        <f>SUM(L2:L28)</f>
+        <v>7910</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="13"/>
-      <c r="K30" s="2">
-        <f>SUM(K2:K29)</f>
-        <v>35.632000000000005</v>
-      </c>
-      <c r="L30" s="2">
-        <f>SUM(L2:L29)</f>
-        <v>7910</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="L31" s="11" t="s">
-        <v>258</v>
+      <c r="L30" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A2:A28"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1" display="postgres/@dvant1cH"/>
@@ -7519,26 +7373,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>264</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7569,178 +7423,178 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
         <v>226</v>
       </c>
-      <c r="C1" t="s">
-        <v>227</v>
-      </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
         <v>231</v>
       </c>
-      <c r="B4" t="s">
-        <v>232</v>
-      </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
         <v>237</v>
-      </c>
-      <c r="E4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
         <v>228</v>
-      </c>
-      <c r="C6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
         <v>247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" t="s">
         <v>228</v>
-      </c>
-      <c r="C20" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" t="s">
         <v>254</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>255</v>
-      </c>
-      <c r="C21" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ark3530_specs.xlsx
+++ b/spec/ark3530_specs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="295">
   <si>
     <t>Catalog</t>
   </si>
@@ -1277,6 +1277,15 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/_______</t>
+  </si>
+  <si>
+    <t>Helm-Exporter</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/helm-exporter:v0.4.2</t>
+  </si>
+  <si>
+    <t>Helm-Exporter-0.3.1</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1753,6 +1762,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1795,20 +1807,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2280,8 +2292,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="135.75" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="78" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="79" t="s">
         <v>170</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2326,15 +2338,15 @@
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
-      <c r="S2" s="59" t="s">
+      <c r="S2" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="80"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="22" t="s">
         <v>174</v>
       </c>
@@ -2377,9 +2389,9 @@
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="13"/>
@@ -2449,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2535,7 +2547,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2572,7 +2584,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2592,7 +2604,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="59">
+      <c r="K3" s="60">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -2611,7 +2623,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2627,7 +2639,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="60"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -2640,8 +2652,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2681,8 +2693,8 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2710,8 +2722,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2761,8 +2773,8 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2810,7 +2822,7 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2865,7 +2877,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2918,21 +2930,21 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="60" t="s">
         <v>210</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -2947,7 +2959,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="18">
-        <v>0.128</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -2961,23 +2973,23 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="35"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
@@ -3005,24 +3017,24 @@
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="21"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="43" t="s">
-        <v>183</v>
+      <c r="A13" s="62"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>182</v>
+        <v>217</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -3037,7 +3049,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="18">
-        <v>0.192</v>
+        <v>0.128</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -3050,24 +3062,24 @@
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-    </row>
-    <row r="14" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>139</v>
+        <v>218</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>39</v>
@@ -3081,11 +3093,11 @@
       <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="2">
-        <v>2.0379999999999998</v>
-      </c>
-      <c r="L14" s="2">
-        <v>64</v>
+      <c r="K14" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>39</v>
@@ -3093,36 +3105,26 @@
       <c r="N14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="S14" s="58"/>
-    </row>
-    <row r="15" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" ht="89.25" customHeight="1">
+      <c r="A15" s="62"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="18" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>39</v>
@@ -3137,92 +3139,102 @@
         <v>64</v>
       </c>
       <c r="K15" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>64</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15" s="58"/>
+    </row>
+    <row r="16" spans="1:19" ht="58.5" customHeight="1">
+      <c r="A16" s="62"/>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2">
         <v>0.128</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L16" s="2">
         <v>10</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="17" t="s">
+      <c r="M16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21" t="s">
+      <c r="R16" s="21"/>
+      <c r="S16" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:19" ht="42.75" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>39</v>
@@ -3237,7 +3249,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2">
-        <v>0.25600000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -3245,31 +3257,29 @@
       <c r="M17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5">
-      <c r="A18" s="61"/>
-      <c r="B18" s="69" t="s">
-        <v>7</v>
+    <row r="18" spans="1:19" ht="63.75" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>272</v>
+        <v>244</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -3281,10 +3291,10 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2">
-        <v>2</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -3292,29 +3302,29 @@
       <c r="M18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>156</v>
-      </c>
+      <c r="N18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="61"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="70" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+        <v>42</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>280</v>
+      </c>
       <c r="F19" s="18" t="s">
         <v>272</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -3339,9 +3349,15 @@
       <c r="M19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="N19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="Q19" s="33" t="s">
         <v>156</v>
       </c>
@@ -3349,15 +3365,15 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="61"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="18" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -3372,7 +3388,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="2">
-        <v>0.51200000000000001</v>
+        <v>1</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -3389,171 +3405,167 @@
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" ht="110.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="51" t="s">
+    <row r="21" spans="1:19" ht="16.5">
+      <c r="A21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" ht="110.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="G22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K22" s="43">
         <v>0.57199999999999995</v>
       </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="16.5">
-      <c r="A22" s="61"/>
-      <c r="B22" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="43">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="L22" s="2">
-        <v>10</v>
+      <c r="L22" s="15">
+        <v>0</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5">
+      <c r="A23" s="62"/>
+      <c r="B23" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="43">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>10</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="38" t="s">
+      <c r="O23" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5">
-      <c r="A23" s="61"/>
-      <c r="B23" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="43">
-        <v>0.128</v>
-      </c>
-      <c r="L23" s="2">
-        <v>128</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="24" spans="1:19" ht="117" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="60"/>
+      <c r="S23" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.5">
+      <c r="A24" s="62"/>
+      <c r="B24" s="60" t="s">
+        <v>200</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>289</v>
+        <v>243</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -3567,11 +3579,11 @@
       <c r="J24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="43">
         <v>0.128</v>
       </c>
       <c r="L24" s="2">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>39</v>
@@ -3579,116 +3591,124 @@
       <c r="N24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="42" t="s">
+      <c r="O24" s="15"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="53"/>
+    </row>
+    <row r="25" spans="1:19" ht="117" customHeight="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="L25" s="2">
+        <v>8</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R25" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="S24" s="42"/>
-    </row>
-    <row r="25" spans="1:19" ht="103.5" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="41" t="s">
+      <c r="S25" s="42"/>
+    </row>
+    <row r="26" spans="1:19" ht="103.5" customHeight="1">
+      <c r="A26" s="62"/>
+      <c r="B26" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="38" t="s">
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="29" t="s">
+      <c r="P26" s="15"/>
+      <c r="Q26" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="R25" s="31" t="s">
+      <c r="R26" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="S25" s="54" t="s">
+      <c r="S26" s="54" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="150" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="59" t="s">
+    <row r="27" spans="1:19" ht="150" customHeight="1">
+      <c r="A27" s="62"/>
+      <c r="B27" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C27" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="1:19" ht="54" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3696,7 +3716,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -3707,36 +3727,34 @@
       <c r="M27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50" t="s">
-        <v>79</v>
-      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" ht="54" customHeight="1">
       <c r="A28" s="62"/>
       <c r="B28" s="64"/>
       <c r="C28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>221</v>
+        <v>117</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="K28" s="15">
         <v>0</v>
       </c>
@@ -3746,52 +3764,91 @@
       <c r="M28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="50" t="s">
+      <c r="N28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="54" customHeight="1">
+      <c r="A29" s="63"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21" t="s">
+      <c r="R29" s="21"/>
+      <c r="S29" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="13"/>
-      <c r="K29" s="2">
-        <f>SUM(K2:K28)</f>
-        <v>25.924000000000003</v>
-      </c>
-      <c r="L29" s="2">
-        <f>SUM(L2:L28)</f>
+    <row r="30" spans="1:19">
+      <c r="A30" s="13"/>
+      <c r="K30" s="2">
+        <f>SUM(K2:K29)</f>
+        <v>26.024000000000004</v>
+      </c>
+      <c r="L30" s="2">
+        <f>SUM(L2:L29)</f>
         <v>1582</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="L30" s="11" t="s">
+    <row r="31" spans="1:19">
+      <c r="L31" s="11" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B11:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1" display="postgres/@dvant1cH"/>
     <hyperlink ref="R5" r:id="rId2" display="ecgwc/@dvant1cH"/>
-    <hyperlink ref="Q25" r:id="rId3"/>
-    <hyperlink ref="R25" r:id="rId4"/>
+    <hyperlink ref="Q26" r:id="rId3"/>
+    <hyperlink ref="R26" r:id="rId4"/>
     <hyperlink ref="R9" r:id="rId5" display="admin/@dvant1cH"/>
     <hyperlink ref="R8" r:id="rId6" display="postgres/@dvant1cH"/>
   </hyperlinks>
@@ -3802,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3896,7 +3953,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="52.5" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -3939,7 +3996,7 @@
       <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
@@ -3963,7 +4020,7 @@
       <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="71">
+      <c r="M3" s="72">
         <v>2</v>
       </c>
       <c r="N3" s="15">
@@ -3982,7 +4039,7 @@
       <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
@@ -4002,7 +4059,7 @@
       <c r="L4" s="44">
         <v>0</v>
       </c>
-      <c r="M4" s="72"/>
+      <c r="M4" s="73"/>
       <c r="N4" s="15">
         <v>0</v>
       </c>
@@ -4015,8 +4072,8 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -4060,8 +4117,8 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
@@ -4093,8 +4150,8 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="85.5" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4150,8 +4207,8 @@
       <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -4205,7 +4262,7 @@
       <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:21" ht="108.75" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
@@ -4266,7 +4323,7 @@
       <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:21" ht="82.5" customHeight="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="40" t="s">
         <v>6</v>
       </c>
@@ -4325,21 +4382,21 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -4360,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="18">
-        <v>0.128</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="15">
         <v>0</v>
@@ -4374,23 +4431,23 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="35"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
@@ -4424,24 +4481,24 @@
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="40"/>
+      <c r="S12" s="35"/>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="43" t="s">
-        <v>183</v>
+      <c r="A13" s="62"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>182</v>
+        <v>217</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -4462,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="18">
-        <v>0.192</v>
+        <v>0.128</v>
       </c>
       <c r="N13" s="15">
         <v>0</v>
@@ -4474,24 +4531,25 @@
         <v>39</v>
       </c>
       <c r="Q13" s="15"/>
-      <c r="R13" s="40"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
-    </row>
-    <row r="14" spans="1:21" ht="89.25" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
+      <c r="U13" s="40"/>
+    </row>
+    <row r="14" spans="1:21" ht="47.25" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>139</v>
+        <v>218</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>39</v>
@@ -4511,11 +4569,11 @@
       <c r="L14" s="43">
         <v>1</v>
       </c>
-      <c r="M14" s="2">
-        <v>2.0379999999999998</v>
-      </c>
-      <c r="N14" s="2">
-        <v>128</v>
+      <c r="M14" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>39</v>
@@ -4523,36 +4581,25 @@
       <c r="P14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="T14" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="U14" s="58"/>
-    </row>
-    <row r="15" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="40" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+    </row>
+    <row r="15" spans="1:21" ht="89.25" customHeight="1">
+      <c r="A15" s="62"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="18" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>39</v>
@@ -4573,10 +4620,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="N15" s="43">
-        <v>20</v>
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="N15" s="2">
+        <v>128</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>39</v>
@@ -4590,28 +4637,30 @@
       <c r="R15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="55.5" customHeight="1">
-      <c r="A16" s="61"/>
+      <c r="S15" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="U15" s="58"/>
+    </row>
+    <row r="16" spans="1:21" ht="58.5" customHeight="1">
+      <c r="A16" s="62"/>
       <c r="B16" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>220</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
@@ -4623,7 +4672,7 @@
         <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>187</v>
@@ -4632,37 +4681,45 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="15">
-        <v>0</v>
+        <v>0.128</v>
+      </c>
+      <c r="N16" s="43">
+        <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="40"/>
+      <c r="P16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="58"/>
       <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-    </row>
-    <row r="17" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="U16" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="55.5" customHeight="1">
+      <c r="A17" s="62"/>
       <c r="B17" s="40" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>39</v>
@@ -4683,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0.25600000000000001</v>
+        <v>1</v>
       </c>
       <c r="N17" s="15">
         <v>0</v>
@@ -4691,31 +4748,29 @@
       <c r="O17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5">
-      <c r="A18" s="61"/>
-      <c r="B18" s="69" t="s">
-        <v>7</v>
+    <row r="18" spans="1:21" ht="40.5" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>272</v>
+        <v>244</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -4727,16 +4782,16 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>187</v>
       </c>
       <c r="L18" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>3</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="N18" s="15">
         <v>0</v>
@@ -4744,27 +4799,29 @@
       <c r="O18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="46"/>
+      <c r="P18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="40"/>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="61"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="70" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+        <v>42</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>280</v>
+      </c>
       <c r="F19" s="18" t="s">
         <v>272</v>
       </c>
@@ -4784,34 +4841,40 @@
         <v>187</v>
       </c>
       <c r="L19" s="43">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2">
         <v>3</v>
       </c>
-      <c r="M19" s="2">
-        <v>2</v>
-      </c>
       <c r="N19" s="15">
         <v>0</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="P19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="S19" s="46"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="61"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="18" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -4829,10 +4892,10 @@
         <v>187</v>
       </c>
       <c r="L20" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="15">
         <v>0</v>
@@ -4843,28 +4906,20 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="46" t="s">
-        <v>180</v>
-      </c>
+      <c r="S20" s="46"/>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
     </row>
-    <row r="21" spans="1:21" ht="63">
-      <c r="A21" s="61"/>
-      <c r="B21" s="55" t="s">
-        <v>198</v>
-      </c>
+    <row r="21" spans="1:21" ht="16.5">
+      <c r="A21" s="62"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>290</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="18" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>39</v>
@@ -4876,7 +4931,7 @@
         <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>187</v>
@@ -4884,150 +4939,152 @@
       <c r="L21" s="43">
         <v>1</v>
       </c>
-      <c r="M21" s="43">
-        <v>0.57199999999999995</v>
+      <c r="M21" s="2">
+        <v>1</v>
       </c>
       <c r="N21" s="15">
         <v>0</v>
       </c>
-      <c r="O21" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="61"/>
-      <c r="B22" s="39" t="s">
-        <v>168</v>
+      <c r="O21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+    </row>
+    <row r="22" spans="1:21" ht="63">
+      <c r="A22" s="62"/>
+      <c r="B22" s="55" t="s">
+        <v>198</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="L22" s="43">
         <v>1</v>
       </c>
       <c r="M22" s="43">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="N22" s="18">
-        <v>20</v>
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
       </c>
       <c r="O22" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
+      <c r="P22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="61"/>
-      <c r="B23" s="59" t="s">
-        <v>200</v>
+      <c r="A23" s="62"/>
+      <c r="B23" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="L23" s="43">
         <v>1</v>
       </c>
-      <c r="M23" s="2">
-        <v>0.128</v>
+      <c r="M23" s="43">
+        <v>0.25600000000000001</v>
       </c>
       <c r="N23" s="18">
-        <v>256</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-    </row>
-    <row r="24" spans="1:21" ht="105" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="60"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="62"/>
+      <c r="B24" s="60" t="s">
+        <v>200</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>289</v>
+        <v>243</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>39</v>
@@ -5050,8 +5107,8 @@
       <c r="M24" s="2">
         <v>0.128</v>
       </c>
-      <c r="N24" s="2">
-        <v>16</v>
+      <c r="N24" s="18">
+        <v>256</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>39</v>
@@ -5059,118 +5116,128 @@
       <c r="P24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="T24" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="U24" s="42"/>
-    </row>
-    <row r="25" spans="1:21" ht="71.25" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="39" t="s">
-        <v>165</v>
-      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+    </row>
+    <row r="25" spans="1:21" ht="105" customHeight="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="15"/>
+        <v>201</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="L25" s="43">
         <v>1</v>
       </c>
       <c r="M25" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="N25" s="2">
+        <v>16</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="T25" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="U25" s="42"/>
+    </row>
+    <row r="26" spans="1:21" ht="71.25" customHeight="1">
+      <c r="A26" s="62"/>
+      <c r="B26" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="43">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="38" t="s">
+      <c r="N26" s="15"/>
+      <c r="O26" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-    </row>
-    <row r="26" spans="1:21" ht="83.25" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-      <c r="N26" s="15">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>214</v>
-      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="40"/>
       <c r="U26" s="40"/>
     </row>
-    <row r="27" spans="1:21" ht="54" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="2" t="s">
-        <v>117</v>
+    <row r="27" spans="1:21" ht="83.25" customHeight="1">
+      <c r="A27" s="62"/>
+      <c r="B27" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5178,7 +5245,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15">
@@ -5193,36 +5260,34 @@
       <c r="O27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="79.5" customHeight="1">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21" ht="54" customHeight="1">
       <c r="A28" s="62"/>
       <c r="B28" s="64"/>
       <c r="C28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>221</v>
+        <v>117</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15">
         <v>0</v>
@@ -5236,45 +5301,88 @@
       <c r="O28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="50" t="s">
+      <c r="P28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="79.5" customHeight="1">
+      <c r="A29" s="63"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40" t="s">
+      <c r="T29" s="40"/>
+      <c r="U29" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="13"/>
-      <c r="M29" s="2">
-        <f>SUMPRODUCT(L2:L28,M2:M28)</f>
-        <v>49.387999999999998</v>
-      </c>
-      <c r="N29" s="2">
-        <f>SUM(N2:N28)</f>
+    <row r="30" spans="1:21">
+      <c r="A30" s="13"/>
+      <c r="M30" s="2">
+        <f>SUMPRODUCT(L2:L29,M2:M29)</f>
+        <v>49.488</v>
+      </c>
+      <c r="N30" s="2">
+        <f>SUM(N2:N29)</f>
         <v>3164</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="N30" s="11" t="s">
+    <row r="31" spans="1:21">
+      <c r="N31" s="11" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A2:A29"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B11:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5289,10 +5397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5375,7 +5483,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -5412,7 +5520,7 @@
       <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
@@ -5432,7 +5540,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="59">
+      <c r="K3" s="60">
         <v>1</v>
       </c>
       <c r="L3" s="15">
@@ -5451,7 +5559,7 @@
       <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
@@ -5467,7 +5575,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="60"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -5480,8 +5588,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="53" t="s">
@@ -5521,8 +5629,8 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="53" t="s">
         <v>30</v>
       </c>
@@ -5550,8 +5658,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5601,8 +5709,8 @@
       <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -5650,7 +5758,7 @@
       <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="53" t="s">
         <v>5</v>
       </c>
@@ -5705,7 +5813,7 @@
       <c r="S9" s="53"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
@@ -5758,21 +5866,21 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="60" t="s">
         <v>210</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -5787,7 +5895,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="18">
-        <v>0.128</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -5801,23 +5909,23 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="35"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
@@ -5845,24 +5953,24 @@
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="53"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="53"/>
       <c r="S12" s="53"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="43" t="s">
-        <v>183</v>
+      <c r="A13" s="62"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>182</v>
+        <v>217</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -5877,7 +5985,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="18">
-        <v>0.192</v>
+        <v>0.128</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -5894,20 +6002,20 @@
       <c r="R13" s="53"/>
       <c r="S13" s="53"/>
     </row>
-    <row r="14" spans="1:19" ht="89.25" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
+    <row r="14" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>139</v>
+        <v>218</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>39</v>
@@ -5921,11 +6029,11 @@
       <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="2">
-        <v>2.0379999999999998</v>
-      </c>
-      <c r="L14" s="2">
-        <v>320</v>
+      <c r="K14" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>39</v>
@@ -5933,36 +6041,26 @@
       <c r="N14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="S14" s="58"/>
-    </row>
-    <row r="15" spans="1:19" ht="58.5" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="53" t="s">
-        <v>9</v>
-      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+    </row>
+    <row r="15" spans="1:19" ht="89.25" customHeight="1">
+      <c r="A15" s="62"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="18" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>39</v>
@@ -5977,92 +6075,102 @@
         <v>64</v>
       </c>
       <c r="K15" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>320</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15" s="58"/>
+    </row>
+    <row r="16" spans="1:19" ht="58.5" customHeight="1">
+      <c r="A16" s="62"/>
+      <c r="B16" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2">
         <v>0.128</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L16" s="2">
         <v>50</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="53" t="s">
+      <c r="M16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53" t="s">
+      <c r="R16" s="53"/>
+      <c r="S16" s="53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="53" t="s">
+    <row r="17" spans="1:19" ht="45.75" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="1:19" ht="51" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>39</v>
@@ -6077,7 +6185,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="2">
-        <v>0.25600000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -6085,31 +6193,29 @@
       <c r="M17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="53"/>
       <c r="R17" s="53"/>
       <c r="S17" s="53"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5">
-      <c r="A18" s="61"/>
-      <c r="B18" s="69" t="s">
-        <v>7</v>
+    <row r="18" spans="1:19" ht="51" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="53" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>272</v>
+        <v>244</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
@@ -6121,10 +6227,10 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2">
-        <v>2</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -6132,29 +6238,29 @@
       <c r="M18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>156</v>
-      </c>
+      <c r="N18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="53"/>
       <c r="R18" s="53"/>
       <c r="S18" s="53"/>
     </row>
     <row r="19" spans="1:19" ht="16.5">
-      <c r="A19" s="61"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="70" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+        <v>42</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>280</v>
+      </c>
       <c r="F19" s="18" t="s">
         <v>272</v>
       </c>
@@ -6171,17 +6277,23 @@
         <v>65</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="Q19" s="33" t="s">
         <v>156</v>
       </c>
@@ -6189,15 +6301,15 @@
       <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:19" ht="16.5">
-      <c r="A20" s="61"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="18" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>39</v>
@@ -6212,13 +6324,13 @@
         <v>65</v>
       </c>
       <c r="K20" s="2">
-        <v>0.51200000000000001</v>
+        <v>1</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
@@ -6229,171 +6341,167 @@
       <c r="R20" s="53"/>
       <c r="S20" s="53"/>
     </row>
-    <row r="21" spans="1:19" ht="110.25"